--- a/dades/1S1.xlsx
+++ b/dades/1S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700308F4-FC04-41FE-AFA5-E36285DEC307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9EAE5-4AF3-4A2F-8339-A4D548B3A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
   <si>
     <t>departure</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,255 +467,101 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.21537037037037035</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.21649305555555556</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.21789351851851854</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.22255787037037036</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.22378472222222223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.22545138888888891</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.22733796296296296</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.23115740740740742</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.23385416666666667</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.23932870370370371</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.24141203703703704</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.24358796296296295</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="1">
-        <v>0.24581018518518519</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.24739583333333334</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.25052083333333336</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.25287037037037036</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.25960648148148147</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.21537037037037035</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -723,13 +569,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
-        <v>0.31537037037037036</v>
+        <v>0.21649305555555556</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -737,13 +583,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1">
-        <v>0.31458333333333333</v>
+        <v>0.21789351851851854</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -751,13 +597,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>0.31314814814814812</v>
+        <v>0.22255787037037036</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -765,13 +611,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1">
-        <v>0.30839120370370371</v>
+        <v>0.22378472222222223</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -779,13 +625,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
-        <v>0.30704861111111109</v>
+        <v>0.22545138888888891</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -793,13 +639,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
-        <v>0.30525462962962963</v>
+        <v>0.22733796296296296</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -807,13 +653,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1">
-        <v>0.30336805555555557</v>
+        <v>0.23115740740740742</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -821,13 +667,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1">
-        <v>0.29956018518518518</v>
+        <v>0.23385416666666667</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
@@ -835,13 +681,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B29" s="1">
-        <v>0.29696759259259259</v>
+        <v>0.23932870370370371</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -849,13 +695,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1">
-        <v>0.29137731481481483</v>
+        <v>0.24141203703703704</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -863,13 +709,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1">
-        <v>0.28935185185185186</v>
+        <v>0.24358796296296295</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
@@ -877,13 +723,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1">
-        <v>0.28722222222222221</v>
+        <v>0.24581018518518519</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
@@ -891,13 +737,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1">
-        <v>0.28501157407407407</v>
+        <v>0.24739583333333334</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
@@ -905,13 +751,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1">
-        <v>0.28341435185185188</v>
+        <v>0.25052083333333336</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
@@ -919,13 +765,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B35" s="1">
-        <v>0.2802662037037037</v>
+        <v>0.25287037037037036</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -933,23 +779,255 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.25960648148148147</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.31537037037037036</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.31458333333333333</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.31314814814814812</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.30839120370370371</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.30704861111111109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.30525462962962963</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.30336805555555557</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.29956018518518518</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.29696759259259259</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.29137731481481483</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.28935185185185186</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.28722222222222221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.28501157407407407</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.28341435185185188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.2802662037037037</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B53" s="1">
         <v>0.27790509259259261</v>
       </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dades/1S1.xlsx
+++ b/dades/1S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D9EAE5-4AF3-4A2F-8339-A4D548B3A219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54912B35-4BAF-4F7E-98D9-D1AD8BB5E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="50">
   <si>
     <t>departure</t>
   </si>
@@ -111,6 +111,81 @@
   </si>
   <si>
     <t>CCS-1</t>
+  </si>
+  <si>
+    <t>R1A.003</t>
+  </si>
+  <si>
+    <t>R1A.004</t>
+  </si>
+  <si>
+    <t>R1A.005</t>
+  </si>
+  <si>
+    <t>R1A.006</t>
+  </si>
+  <si>
+    <t>R1A.007</t>
+  </si>
+  <si>
+    <t>R1A.008</t>
+  </si>
+  <si>
+    <t>R1A.009</t>
+  </si>
+  <si>
+    <t>R1A.010</t>
+  </si>
+  <si>
+    <t>R1A.011</t>
+  </si>
+  <si>
+    <t>R1A.012</t>
+  </si>
+  <si>
+    <t>R1A.013</t>
+  </si>
+  <si>
+    <t>R1A.014</t>
+  </si>
+  <si>
+    <t>R1A.015</t>
+  </si>
+  <si>
+    <t>R1A.016</t>
+  </si>
+  <si>
+    <t>R1A.017</t>
+  </si>
+  <si>
+    <t>R1A.018</t>
+  </si>
+  <si>
+    <t>R1A.019</t>
+  </si>
+  <si>
+    <t>R1A.020</t>
+  </si>
+  <si>
+    <t>R1A.021</t>
+  </si>
+  <si>
+    <t>R1A.022</t>
+  </si>
+  <si>
+    <t>R1A.023</t>
+  </si>
+  <si>
+    <t>R1A.024</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>Maçanet-Massanes</t>
+  </si>
+  <si>
+    <t>l'Hospitalet de Llobregat</t>
   </si>
 </sst>
 </file>
@@ -435,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E394" sqref="E394:E427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,9 +522,10 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -462,98 +538,101 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -566,8 +645,11 @@
       <c r="D20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -580,8 +662,11 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -594,8 +679,11 @@
       <c r="D22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -608,8 +696,11 @@
       <c r="D23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -622,8 +713,11 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -636,8 +730,11 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -650,8 +747,11 @@
       <c r="D26" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -664,8 +764,11 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -678,8 +781,11 @@
       <c r="D28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -692,8 +798,11 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -706,8 +815,11 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -720,8 +832,11 @@
       <c r="D31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -734,8 +849,11 @@
       <c r="D32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -748,8 +866,11 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -762,8 +883,11 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -776,8 +900,11 @@
       <c r="D35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -790,8 +917,11 @@
       <c r="D36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -804,8 +934,11 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -818,8 +951,11 @@
       <c r="D38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -832,8 +968,11 @@
       <c r="D39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -846,8 +985,11 @@
       <c r="D40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -860,8 +1002,11 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -874,8 +1019,11 @@
       <c r="D42" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -888,8 +1036,11 @@
       <c r="D43" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -902,8 +1053,11 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -916,8 +1070,11 @@
       <c r="D45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -930,8 +1087,11 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -944,8 +1104,11 @@
       <c r="D47" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>15</v>
       </c>
@@ -958,8 +1121,11 @@
       <c r="D48" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -972,8 +1138,11 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
@@ -986,8 +1155,11 @@
       <c r="D50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -1000,8 +1172,11 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1014,8 +1189,11 @@
       <c r="D52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1027,6 +1205,6723 @@
       </c>
       <c r="D53" t="s">
         <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <f>B20+(3/24)</f>
+        <v>0.34037037037037032</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" ref="B55:B69" si="0">B21+(3/24)</f>
+        <v>0.34149305555555554</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34289351851851857</v>
+      </c>
+      <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34755787037037034</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34878472222222223</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35045138888888894</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35233796296296294</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" si="0"/>
+        <v>0.35615740740740742</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.3588541666666667</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36432870370370374</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36641203703703706</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36858796296296292</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37081018518518516</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37239583333333337</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37552083333333336</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37787037037037036</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="1">
+        <f>B36+(3/24)</f>
+        <v>0.38460648148148147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" ref="B71:B134" si="1">B37+(3/24)</f>
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44037037037037036</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43958333333333333</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43814814814814812</v>
+      </c>
+      <c r="C74" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43339120370370371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>26</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43204861111111109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43025462962962963</v>
+      </c>
+      <c r="C77" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42836805555555557</v>
+      </c>
+      <c r="C78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42456018518518518</v>
+      </c>
+      <c r="C79" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42196759259259259</v>
+      </c>
+      <c r="C80" t="s">
+        <v>26</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41637731481481483</v>
+      </c>
+      <c r="C81" t="s">
+        <v>26</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41435185185185186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41222222222222221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41001157407407407</v>
+      </c>
+      <c r="C84" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40841435185185188</v>
+      </c>
+      <c r="C85" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>18</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4052662037037037</v>
+      </c>
+      <c r="C86" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40290509259259261</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46537037037037032</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46649305555555554</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46789351851851857</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47255787037037034</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47378472222222223</v>
+      </c>
+      <c r="C92" t="s">
+        <v>27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47545138888888894</v>
+      </c>
+      <c r="C93" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47733796296296294</v>
+      </c>
+      <c r="C94" t="s">
+        <v>27</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48115740740740742</v>
+      </c>
+      <c r="C95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4838541666666667</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48932870370370374</v>
+      </c>
+      <c r="C97" t="s">
+        <v>27</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49141203703703706</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49358796296296292</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49581018518518516</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49739583333333337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5005208333333333</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5028703703703703</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50960648148148147</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52083333333333326</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>19</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5653703703703703</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56314814814814818</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55839120370370376</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55704861111111104</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55525462962962968</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55336805555555557</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54956018518518523</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54696759259259253</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54137731481481488</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>15</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53935185185185186</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53722222222222227</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53501157407407407</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>7</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53341435185185193</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+      <c r="E119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5302662037037037</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52790509259259255</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+      <c r="E121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59037037037037032</v>
+      </c>
+      <c r="C122" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59149305555555554</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59289351851851857</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59755787037037034</v>
+      </c>
+      <c r="C125" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59878472222222223</v>
+      </c>
+      <c r="C126" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60045138888888894</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60233796296296294</v>
+      </c>
+      <c r="C128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60615740740740742</v>
+      </c>
+      <c r="C129" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6088541666666667</v>
+      </c>
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61432870370370374</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61641203703703706</v>
+      </c>
+      <c r="C132" t="s">
+        <v>29</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>16</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61858796296296292</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62081018518518516</v>
+      </c>
+      <c r="C134" t="s">
+        <v>29</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>17</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" ref="B135:B198" si="2">B101+(3/24)</f>
+        <v>0.62239583333333337</v>
+      </c>
+      <c r="C135" t="s">
+        <v>29</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6255208333333333</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6278703703703703</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+      <c r="E137" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63460648148148147</v>
+      </c>
+      <c r="C138" t="s">
+        <v>29</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64583333333333326</v>
+      </c>
+      <c r="C139" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="C140" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+      <c r="E140" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68814814814814818</v>
+      </c>
+      <c r="C142" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+      <c r="E142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68339120370370376</v>
+      </c>
+      <c r="C143" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68204861111111104</v>
+      </c>
+      <c r="C144" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68025462962962968</v>
+      </c>
+      <c r="C145" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67836805555555557</v>
+      </c>
+      <c r="C146" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67456018518518523</v>
+      </c>
+      <c r="C147" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67196759259259253</v>
+      </c>
+      <c r="C148" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+      <c r="E148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66637731481481488</v>
+      </c>
+      <c r="C149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66435185185185186</v>
+      </c>
+      <c r="C150" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" t="s">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>16</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66222222222222227</v>
+      </c>
+      <c r="C151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>23</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66001157407407407</v>
+      </c>
+      <c r="C152" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>17</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65841435185185193</v>
+      </c>
+      <c r="C153" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>18</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6552662037037037</v>
+      </c>
+      <c r="C154" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65290509259259255</v>
+      </c>
+      <c r="C155" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71537037037037032</v>
+      </c>
+      <c r="C156" t="s">
+        <v>31</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71649305555555554</v>
+      </c>
+      <c r="C157" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B158" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71789351851851857</v>
+      </c>
+      <c r="C158" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+      <c r="E158" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72255787037037034</v>
+      </c>
+      <c r="C159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72378472222222223</v>
+      </c>
+      <c r="C160" t="s">
+        <v>31</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="E160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72545138888888894</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+      <c r="E161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72733796296296294</v>
+      </c>
+      <c r="C162" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="E162" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73115740740740742</v>
+      </c>
+      <c r="C163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7338541666666667</v>
+      </c>
+      <c r="C164" t="s">
+        <v>31</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73932870370370374</v>
+      </c>
+      <c r="C165" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74141203703703706</v>
+      </c>
+      <c r="C166" t="s">
+        <v>31</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74358796296296292</v>
+      </c>
+      <c r="C167" t="s">
+        <v>31</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>23</v>
+      </c>
+      <c r="B168" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74581018518518516</v>
+      </c>
+      <c r="C168" t="s">
+        <v>31</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>17</v>
+      </c>
+      <c r="B169" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74739583333333337</v>
+      </c>
+      <c r="C169" t="s">
+        <v>31</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>18</v>
+      </c>
+      <c r="B170" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7505208333333333</v>
+      </c>
+      <c r="C170" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+      <c r="E170" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7528703703703703</v>
+      </c>
+      <c r="C171" t="s">
+        <v>31</v>
+      </c>
+      <c r="D171" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B172" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75960648148148147</v>
+      </c>
+      <c r="C172" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+      <c r="E172" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>20</v>
+      </c>
+      <c r="B173" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77083333333333326</v>
+      </c>
+      <c r="C173" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+      <c r="E173" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8153703703703703</v>
+      </c>
+      <c r="C174" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>8</v>
+      </c>
+      <c r="B175" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81458333333333333</v>
+      </c>
+      <c r="C175" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="E175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1">
+        <f t="shared" si="2"/>
+        <v>0.81314814814814818</v>
+      </c>
+      <c r="C176" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80839120370370376</v>
+      </c>
+      <c r="C177" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80704861111111104</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+      <c r="E178" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80525462962962968</v>
+      </c>
+      <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80336805555555557</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79956018518518523</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79696759259259253</v>
+      </c>
+      <c r="C182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79137731481481488</v>
+      </c>
+      <c r="C183" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>15</v>
+      </c>
+      <c r="B184" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78935185185185186</v>
+      </c>
+      <c r="C184" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>16</v>
+      </c>
+      <c r="B185" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78722222222222227</v>
+      </c>
+      <c r="C185" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+      <c r="E185" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78501157407407407</v>
+      </c>
+      <c r="C186" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78341435185185193</v>
+      </c>
+      <c r="C187" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+      <c r="E187" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7802662037037037</v>
+      </c>
+      <c r="C188" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="E188" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77790509259259255</v>
+      </c>
+      <c r="C189" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84037037037037032</v>
+      </c>
+      <c r="C190" t="s">
+        <v>33</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84149305555555554</v>
+      </c>
+      <c r="C191" t="s">
+        <v>33</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84289351851851857</v>
+      </c>
+      <c r="C192" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84755787037037034</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="1">
+        <f t="shared" si="2"/>
+        <v>0.84878472222222223</v>
+      </c>
+      <c r="C194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85045138888888894</v>
+      </c>
+      <c r="C195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85233796296296294</v>
+      </c>
+      <c r="C196" t="s">
+        <v>33</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85615740740740742</v>
+      </c>
+      <c r="C197" t="s">
+        <v>33</v>
+      </c>
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="E197" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1">
+        <f t="shared" si="2"/>
+        <v>0.8588541666666667</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199" s="1">
+        <f t="shared" ref="B199:B223" si="3">B165+(3/24)</f>
+        <v>0.86432870370370374</v>
+      </c>
+      <c r="C199" t="s">
+        <v>33</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>15</v>
+      </c>
+      <c r="B200" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86641203703703706</v>
+      </c>
+      <c r="C200" t="s">
+        <v>33</v>
+      </c>
+      <c r="D200" t="s">
+        <v>7</v>
+      </c>
+      <c r="E200" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86858796296296292</v>
+      </c>
+      <c r="C201" t="s">
+        <v>33</v>
+      </c>
+      <c r="D201" t="s">
+        <v>7</v>
+      </c>
+      <c r="E201" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87081018518518516</v>
+      </c>
+      <c r="C202" t="s">
+        <v>33</v>
+      </c>
+      <c r="D202" t="s">
+        <v>7</v>
+      </c>
+      <c r="E202" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87239583333333337</v>
+      </c>
+      <c r="C203" t="s">
+        <v>33</v>
+      </c>
+      <c r="D203" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8755208333333333</v>
+      </c>
+      <c r="C204" t="s">
+        <v>33</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8778703703703703</v>
+      </c>
+      <c r="C205" t="s">
+        <v>33</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>20</v>
+      </c>
+      <c r="B206" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88460648148148147</v>
+      </c>
+      <c r="C206" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>20</v>
+      </c>
+      <c r="B207" s="1">
+        <f t="shared" si="3"/>
+        <v>0.89583333333333326</v>
+      </c>
+      <c r="C207" t="s">
+        <v>34</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9403703703703703</v>
+      </c>
+      <c r="C208" t="s">
+        <v>34</v>
+      </c>
+      <c r="D208" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>8</v>
+      </c>
+      <c r="B209" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+      <c r="D209" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>9</v>
+      </c>
+      <c r="B210" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93814814814814818</v>
+      </c>
+      <c r="C210" t="s">
+        <v>34</v>
+      </c>
+      <c r="D210" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93339120370370376</v>
+      </c>
+      <c r="C211" t="s">
+        <v>34</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93204861111111104</v>
+      </c>
+      <c r="C212" t="s">
+        <v>34</v>
+      </c>
+      <c r="D212" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B213" s="1">
+        <f t="shared" si="3"/>
+        <v>0.93025462962962968</v>
+      </c>
+      <c r="C213" t="s">
+        <v>34</v>
+      </c>
+      <c r="D213" t="s">
+        <v>7</v>
+      </c>
+      <c r="E213" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92836805555555557</v>
+      </c>
+      <c r="C214" t="s">
+        <v>34</v>
+      </c>
+      <c r="D214" t="s">
+        <v>7</v>
+      </c>
+      <c r="E214" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92456018518518523</v>
+      </c>
+      <c r="C215" t="s">
+        <v>34</v>
+      </c>
+      <c r="D215" t="s">
+        <v>7</v>
+      </c>
+      <c r="E215" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92196759259259253</v>
+      </c>
+      <c r="C216" t="s">
+        <v>34</v>
+      </c>
+      <c r="D216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91637731481481488</v>
+      </c>
+      <c r="C217" t="s">
+        <v>34</v>
+      </c>
+      <c r="D217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E217" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>15</v>
+      </c>
+      <c r="B218" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91435185185185186</v>
+      </c>
+      <c r="C218" t="s">
+        <v>34</v>
+      </c>
+      <c r="D218" t="s">
+        <v>7</v>
+      </c>
+      <c r="E218" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>16</v>
+      </c>
+      <c r="B219" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91222222222222227</v>
+      </c>
+      <c r="C219" t="s">
+        <v>34</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91001157407407407</v>
+      </c>
+      <c r="C220" t="s">
+        <v>34</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B221" s="1">
+        <f t="shared" si="3"/>
+        <v>0.90841435185185193</v>
+      </c>
+      <c r="C221" t="s">
+        <v>34</v>
+      </c>
+      <c r="D221" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9052662037037037</v>
+      </c>
+      <c r="C222" t="s">
+        <v>34</v>
+      </c>
+      <c r="D222" t="s">
+        <v>7</v>
+      </c>
+      <c r="E222" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" s="1">
+        <f t="shared" si="3"/>
+        <v>0.90290509259259255</v>
+      </c>
+      <c r="C223" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" t="s">
+        <v>7</v>
+      </c>
+      <c r="E223" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" s="1">
+        <v>0.25288194444444445</v>
+      </c>
+      <c r="C224" t="s">
+        <v>35</v>
+      </c>
+      <c r="D224" t="s">
+        <v>7</v>
+      </c>
+      <c r="E224" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="1">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="C225" t="s">
+        <v>35</v>
+      </c>
+      <c r="D225" t="s">
+        <v>7</v>
+      </c>
+      <c r="E225" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>9</v>
+      </c>
+      <c r="B226" s="1">
+        <v>0.25064814814814812</v>
+      </c>
+      <c r="C226" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" s="1">
+        <v>0.24589120370370368</v>
+      </c>
+      <c r="C227" t="s">
+        <v>35</v>
+      </c>
+      <c r="D227" t="s">
+        <v>7</v>
+      </c>
+      <c r="E227" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" s="1">
+        <v>0.24454861111111112</v>
+      </c>
+      <c r="C228" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228" t="s">
+        <v>7</v>
+      </c>
+      <c r="E228" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B229" s="1">
+        <v>0.24275462962962965</v>
+      </c>
+      <c r="C229" t="s">
+        <v>35</v>
+      </c>
+      <c r="D229" t="s">
+        <v>7</v>
+      </c>
+      <c r="E229" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230" s="1">
+        <v>0.23890046296296297</v>
+      </c>
+      <c r="C230" t="s">
+        <v>35</v>
+      </c>
+      <c r="D230" t="s">
+        <v>7</v>
+      </c>
+      <c r="E230" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" s="1">
+        <v>0.23739583333333333</v>
+      </c>
+      <c r="C231" t="s">
+        <v>35</v>
+      </c>
+      <c r="D231" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="1">
+        <v>0.23446759259259262</v>
+      </c>
+      <c r="C232" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232" t="s">
+        <v>7</v>
+      </c>
+      <c r="E232" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" s="1">
+        <v>0.2288773148148148</v>
+      </c>
+      <c r="C233" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>15</v>
+      </c>
+      <c r="B234" s="1">
+        <v>0.22685185185185186</v>
+      </c>
+      <c r="C234" t="s">
+        <v>35</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>16</v>
+      </c>
+      <c r="B235" s="1">
+        <v>0.22472222222222224</v>
+      </c>
+      <c r="C235" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>23</v>
+      </c>
+      <c r="B236" s="1">
+        <v>0.22251157407407407</v>
+      </c>
+      <c r="C236" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="1">
+        <v>0.22091435185185185</v>
+      </c>
+      <c r="C237" t="s">
+        <v>35</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" s="1">
+        <v>0.2177662037037037</v>
+      </c>
+      <c r="C238" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" s="1">
+        <v>0.21540509259259258</v>
+      </c>
+      <c r="C239" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>20</v>
+      </c>
+      <c r="B240" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C240" t="s">
+        <v>35</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>20</v>
+      </c>
+      <c r="B241" s="1">
+        <v>0.32210648148148152</v>
+      </c>
+      <c r="C241" t="s">
+        <v>36</v>
+      </c>
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+      <c r="E241" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" s="1">
+        <f>B20+(1.5/24)</f>
+        <v>0.27787037037037032</v>
+      </c>
+      <c r="C242" t="s">
+        <v>36</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="1">
+        <f t="shared" ref="B243:B257" si="4">B21+(1.5/24)</f>
+        <v>0.27899305555555554</v>
+      </c>
+      <c r="C243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28039351851851857</v>
+      </c>
+      <c r="C244" t="s">
+        <v>36</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28505787037037034</v>
+      </c>
+      <c r="C245" t="s">
+        <v>36</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28628472222222223</v>
+      </c>
+      <c r="C246" t="s">
+        <v>36</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B247" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28795138888888894</v>
+      </c>
+      <c r="C247" t="s">
+        <v>36</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" s="1">
+        <f t="shared" si="4"/>
+        <v>0.28983796296296294</v>
+      </c>
+      <c r="C248" t="s">
+        <v>36</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" s="1">
+        <f t="shared" si="4"/>
+        <v>0.29365740740740742</v>
+      </c>
+      <c r="C249" t="s">
+        <v>36</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" s="1">
+        <f t="shared" si="4"/>
+        <v>0.2963541666666667</v>
+      </c>
+      <c r="C250" t="s">
+        <v>36</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30182870370370374</v>
+      </c>
+      <c r="C251" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30391203703703706</v>
+      </c>
+      <c r="C252" t="s">
+        <v>36</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>16</v>
+      </c>
+      <c r="B253" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30608796296296292</v>
+      </c>
+      <c r="C253" t="s">
+        <v>36</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30831018518518516</v>
+      </c>
+      <c r="C254" t="s">
+        <v>36</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B255" s="1">
+        <f t="shared" si="4"/>
+        <v>0.30989583333333337</v>
+      </c>
+      <c r="C255" t="s">
+        <v>36</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>18</v>
+      </c>
+      <c r="B256" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31302083333333336</v>
+      </c>
+      <c r="C256" t="s">
+        <v>36</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" s="1">
+        <f t="shared" si="4"/>
+        <v>0.31537037037037036</v>
+      </c>
+      <c r="C257" t="s">
+        <v>36</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>19</v>
+      </c>
+      <c r="B258" s="1">
+        <f t="shared" ref="B258:B321" si="5">B224+(3/24)</f>
+        <v>0.37788194444444445</v>
+      </c>
+      <c r="C258" t="s">
+        <v>37</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>8</v>
+      </c>
+      <c r="B259" s="1">
+        <f t="shared" si="5"/>
+        <v>0.37708333333333333</v>
+      </c>
+      <c r="C259" t="s">
+        <v>37</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>9</v>
+      </c>
+      <c r="B260" s="1">
+        <f t="shared" si="5"/>
+        <v>0.37564814814814812</v>
+      </c>
+      <c r="C260" t="s">
+        <v>37</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="1">
+        <f t="shared" si="5"/>
+        <v>0.37089120370370365</v>
+      </c>
+      <c r="C261" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36954861111111115</v>
+      </c>
+      <c r="C262" t="s">
+        <v>37</v>
+      </c>
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+      <c r="E262" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B263" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36775462962962968</v>
+      </c>
+      <c r="C263" t="s">
+        <v>37</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>12</v>
+      </c>
+      <c r="B264" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36390046296296297</v>
+      </c>
+      <c r="C264" t="s">
+        <v>37</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36239583333333336</v>
+      </c>
+      <c r="C265" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35946759259259264</v>
+      </c>
+      <c r="C266" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35387731481481477</v>
+      </c>
+      <c r="C267" t="s">
+        <v>37</v>
+      </c>
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+      <c r="E267" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35185185185185186</v>
+      </c>
+      <c r="C268" t="s">
+        <v>37</v>
+      </c>
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+      <c r="E268" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>16</v>
+      </c>
+      <c r="B269" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34972222222222227</v>
+      </c>
+      <c r="C269" t="s">
+        <v>37</v>
+      </c>
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+      <c r="E269" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>23</v>
+      </c>
+      <c r="B270" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34751157407407407</v>
+      </c>
+      <c r="C270" t="s">
+        <v>37</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>17</v>
+      </c>
+      <c r="B271" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34591435185185182</v>
+      </c>
+      <c r="C271" t="s">
+        <v>37</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>18</v>
+      </c>
+      <c r="B272" s="1">
+        <f t="shared" si="5"/>
+        <v>0.3427662037037037</v>
+      </c>
+      <c r="C272" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" s="1">
+        <f t="shared" si="5"/>
+        <v>0.34040509259259255</v>
+      </c>
+      <c r="C273" t="s">
+        <v>37</v>
+      </c>
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+      <c r="E273" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>20</v>
+      </c>
+      <c r="B274" s="1">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="C274" t="s">
+        <v>37</v>
+      </c>
+      <c r="D274" t="s">
+        <v>7</v>
+      </c>
+      <c r="E274" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>20</v>
+      </c>
+      <c r="B275" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44710648148148152</v>
+      </c>
+      <c r="C275" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+      <c r="E275" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>19</v>
+      </c>
+      <c r="B276" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40287037037037032</v>
+      </c>
+      <c r="C276" t="s">
+        <v>38</v>
+      </c>
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+      <c r="E276" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>8</v>
+      </c>
+      <c r="B277" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40399305555555554</v>
+      </c>
+      <c r="C277" t="s">
+        <v>38</v>
+      </c>
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+      <c r="E277" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>9</v>
+      </c>
+      <c r="B278" s="1">
+        <f t="shared" si="5"/>
+        <v>0.40539351851851857</v>
+      </c>
+      <c r="C278" t="s">
+        <v>38</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41005787037037034</v>
+      </c>
+      <c r="C279" t="s">
+        <v>38</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41128472222222223</v>
+      </c>
+      <c r="C280" t="s">
+        <v>38</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B281" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41295138888888894</v>
+      </c>
+      <c r="C281" t="s">
+        <v>38</v>
+      </c>
+      <c r="D281" t="s">
+        <v>7</v>
+      </c>
+      <c r="E281" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>12</v>
+      </c>
+      <c r="B282" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41483796296296294</v>
+      </c>
+      <c r="C282" t="s">
+        <v>38</v>
+      </c>
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" s="1">
+        <f t="shared" si="5"/>
+        <v>0.41865740740740742</v>
+      </c>
+      <c r="C283" t="s">
+        <v>38</v>
+      </c>
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4213541666666667</v>
+      </c>
+      <c r="C284" t="s">
+        <v>38</v>
+      </c>
+      <c r="D284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E284" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42682870370370374</v>
+      </c>
+      <c r="C285" t="s">
+        <v>38</v>
+      </c>
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
+      <c r="E285" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>15</v>
+      </c>
+      <c r="B286" s="1">
+        <f t="shared" si="5"/>
+        <v>0.42891203703703706</v>
+      </c>
+      <c r="C286" t="s">
+        <v>38</v>
+      </c>
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+      <c r="E286" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43108796296296292</v>
+      </c>
+      <c r="C287" t="s">
+        <v>38</v>
+      </c>
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+      <c r="E287" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43331018518518516</v>
+      </c>
+      <c r="C288" t="s">
+        <v>38</v>
+      </c>
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+      <c r="E288" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+      <c r="B289" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43489583333333337</v>
+      </c>
+      <c r="C289" t="s">
+        <v>38</v>
+      </c>
+      <c r="D289" t="s">
+        <v>7</v>
+      </c>
+      <c r="E289" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43802083333333336</v>
+      </c>
+      <c r="C290" t="s">
+        <v>38</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44037037037037036</v>
+      </c>
+      <c r="C291" t="s">
+        <v>38</v>
+      </c>
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+      <c r="E291" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>19</v>
+      </c>
+      <c r="B292" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50288194444444445</v>
+      </c>
+      <c r="C292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>8</v>
+      </c>
+      <c r="B293" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="C293" t="s">
+        <v>39</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50064814814814818</v>
+      </c>
+      <c r="C294" t="s">
+        <v>39</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B295" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49589120370370365</v>
+      </c>
+      <c r="C295" t="s">
+        <v>39</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49454861111111115</v>
+      </c>
+      <c r="C296" t="s">
+        <v>39</v>
+      </c>
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B297" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49275462962962968</v>
+      </c>
+      <c r="C297" t="s">
+        <v>39</v>
+      </c>
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+      <c r="E297" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>12</v>
+      </c>
+      <c r="B298" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48890046296296297</v>
+      </c>
+      <c r="C298" t="s">
+        <v>39</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48739583333333336</v>
+      </c>
+      <c r="C299" t="s">
+        <v>39</v>
+      </c>
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+      <c r="E299" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" s="1">
+        <f t="shared" si="5"/>
+        <v>0.48446759259259264</v>
+      </c>
+      <c r="C300" t="s">
+        <v>39</v>
+      </c>
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+      <c r="E300" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47887731481481477</v>
+      </c>
+      <c r="C301" t="s">
+        <v>39</v>
+      </c>
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+      <c r="E301" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>15</v>
+      </c>
+      <c r="B302" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47685185185185186</v>
+      </c>
+      <c r="C302" t="s">
+        <v>39</v>
+      </c>
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+      <c r="E302" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>16</v>
+      </c>
+      <c r="B303" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47472222222222227</v>
+      </c>
+      <c r="C303" t="s">
+        <v>39</v>
+      </c>
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+      <c r="E303" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>23</v>
+      </c>
+      <c r="B304" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47251157407407407</v>
+      </c>
+      <c r="C304" t="s">
+        <v>39</v>
+      </c>
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+      <c r="E304" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" s="1">
+        <f t="shared" si="5"/>
+        <v>0.47091435185185182</v>
+      </c>
+      <c r="C305" t="s">
+        <v>39</v>
+      </c>
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+      <c r="E305" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>18</v>
+      </c>
+      <c r="B306" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4677662037037037</v>
+      </c>
+      <c r="C306" t="s">
+        <v>39</v>
+      </c>
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+      <c r="E306" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" s="1">
+        <f t="shared" si="5"/>
+        <v>0.46540509259259255</v>
+      </c>
+      <c r="C307" t="s">
+        <v>39</v>
+      </c>
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="C308" t="s">
+        <v>39</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>20</v>
+      </c>
+      <c r="B309" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57210648148148158</v>
+      </c>
+      <c r="C309" t="s">
+        <v>40</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>19</v>
+      </c>
+      <c r="B310" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52787037037037032</v>
+      </c>
+      <c r="C310" t="s">
+        <v>40</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>8</v>
+      </c>
+      <c r="B311" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52899305555555554</v>
+      </c>
+      <c r="C311" t="s">
+        <v>40</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>9</v>
+      </c>
+      <c r="B312" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53039351851851857</v>
+      </c>
+      <c r="C312" t="s">
+        <v>40</v>
+      </c>
+      <c r="D312" t="s">
+        <v>7</v>
+      </c>
+      <c r="E312" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>10</v>
+      </c>
+      <c r="B313" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53505787037037034</v>
+      </c>
+      <c r="C313" t="s">
+        <v>40</v>
+      </c>
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+      <c r="E313" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>11</v>
+      </c>
+      <c r="B314" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53628472222222223</v>
+      </c>
+      <c r="C314" t="s">
+        <v>40</v>
+      </c>
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+      <c r="E314" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B315" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53795138888888894</v>
+      </c>
+      <c r="C315" t="s">
+        <v>40</v>
+      </c>
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+      <c r="E315" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>12</v>
+      </c>
+      <c r="B316" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53983796296296294</v>
+      </c>
+      <c r="C316" t="s">
+        <v>40</v>
+      </c>
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+      <c r="E316" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54365740740740742</v>
+      </c>
+      <c r="C317" t="s">
+        <v>40</v>
+      </c>
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5463541666666667</v>
+      </c>
+      <c r="C318" t="s">
+        <v>40</v>
+      </c>
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E318" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55182870370370374</v>
+      </c>
+      <c r="C319" t="s">
+        <v>40</v>
+      </c>
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+      <c r="E319" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>15</v>
+      </c>
+      <c r="B320" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55391203703703706</v>
+      </c>
+      <c r="C320" t="s">
+        <v>40</v>
+      </c>
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>16</v>
+      </c>
+      <c r="B321" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55608796296296292</v>
+      </c>
+      <c r="C321" t="s">
+        <v>40</v>
+      </c>
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+      <c r="E321" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" s="1">
+        <f t="shared" ref="B322:B385" si="6">B288+(3/24)</f>
+        <v>0.55831018518518516</v>
+      </c>
+      <c r="C322" t="s">
+        <v>40</v>
+      </c>
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E322" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>17</v>
+      </c>
+      <c r="B323" s="1">
+        <f t="shared" si="6"/>
+        <v>0.55989583333333337</v>
+      </c>
+      <c r="C323" t="s">
+        <v>40</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>18</v>
+      </c>
+      <c r="B324" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5630208333333333</v>
+      </c>
+      <c r="C324" t="s">
+        <v>40</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5653703703703703</v>
+      </c>
+      <c r="C325" t="s">
+        <v>40</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>19</v>
+      </c>
+      <c r="B326" s="1">
+        <f t="shared" si="6"/>
+        <v>0.62788194444444445</v>
+      </c>
+      <c r="C326" t="s">
+        <v>41</v>
+      </c>
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+      <c r="E326" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>8</v>
+      </c>
+      <c r="B327" s="1">
+        <f t="shared" si="6"/>
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="C327" t="s">
+        <v>41</v>
+      </c>
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+      <c r="E327" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B328" s="1">
+        <f t="shared" si="6"/>
+        <v>0.62564814814814818</v>
+      </c>
+      <c r="C328" t="s">
+        <v>41</v>
+      </c>
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+      <c r="E328" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>10</v>
+      </c>
+      <c r="B329" s="1">
+        <f t="shared" si="6"/>
+        <v>0.62089120370370365</v>
+      </c>
+      <c r="C329" t="s">
+        <v>41</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>11</v>
+      </c>
+      <c r="B330" s="1">
+        <f t="shared" si="6"/>
+        <v>0.61954861111111115</v>
+      </c>
+      <c r="C330" t="s">
+        <v>41</v>
+      </c>
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+      <c r="E330" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" s="1">
+        <f t="shared" si="6"/>
+        <v>0.61775462962962968</v>
+      </c>
+      <c r="C331" t="s">
+        <v>41</v>
+      </c>
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+      <c r="E331" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>12</v>
+      </c>
+      <c r="B332" s="1">
+        <f t="shared" si="6"/>
+        <v>0.61390046296296297</v>
+      </c>
+      <c r="C332" t="s">
+        <v>41</v>
+      </c>
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" s="1">
+        <f t="shared" si="6"/>
+        <v>0.61239583333333336</v>
+      </c>
+      <c r="C333" t="s">
+        <v>41</v>
+      </c>
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+      <c r="E333" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60946759259259264</v>
+      </c>
+      <c r="C334" t="s">
+        <v>41</v>
+      </c>
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+      <c r="E334" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>14</v>
+      </c>
+      <c r="B335" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60387731481481477</v>
+      </c>
+      <c r="C335" t="s">
+        <v>41</v>
+      </c>
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+      <c r="E335" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>15</v>
+      </c>
+      <c r="B336" s="1">
+        <f t="shared" si="6"/>
+        <v>0.60185185185185186</v>
+      </c>
+      <c r="C336" t="s">
+        <v>41</v>
+      </c>
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+      <c r="E336" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>16</v>
+      </c>
+      <c r="B337" s="1">
+        <f t="shared" si="6"/>
+        <v>0.59972222222222227</v>
+      </c>
+      <c r="C337" t="s">
+        <v>41</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338" s="1">
+        <f t="shared" si="6"/>
+        <v>0.59751157407407407</v>
+      </c>
+      <c r="C338" t="s">
+        <v>41</v>
+      </c>
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+      <c r="E338" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>17</v>
+      </c>
+      <c r="B339" s="1">
+        <f t="shared" si="6"/>
+        <v>0.59591435185185182</v>
+      </c>
+      <c r="C339" t="s">
+        <v>41</v>
+      </c>
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+      <c r="E339" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" s="1">
+        <f t="shared" si="6"/>
+        <v>0.5927662037037037</v>
+      </c>
+      <c r="C340" t="s">
+        <v>41</v>
+      </c>
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+      <c r="E340" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="1">
+        <f t="shared" si="6"/>
+        <v>0.59040509259259255</v>
+      </c>
+      <c r="C341" t="s">
+        <v>41</v>
+      </c>
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>20</v>
+      </c>
+      <c r="B342" s="1">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C342" t="s">
+        <v>41</v>
+      </c>
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+      <c r="E342" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>20</v>
+      </c>
+      <c r="B343" s="1">
+        <f t="shared" si="6"/>
+        <v>0.69710648148148158</v>
+      </c>
+      <c r="C343" t="s">
+        <v>42</v>
+      </c>
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+      <c r="E343" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>19</v>
+      </c>
+      <c r="B344" s="1">
+        <f t="shared" si="6"/>
+        <v>0.65287037037037032</v>
+      </c>
+      <c r="C344" t="s">
+        <v>42</v>
+      </c>
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>8</v>
+      </c>
+      <c r="B345" s="1">
+        <f t="shared" si="6"/>
+        <v>0.65399305555555554</v>
+      </c>
+      <c r="C345" t="s">
+        <v>42</v>
+      </c>
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+      <c r="E345" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" s="1">
+        <f t="shared" si="6"/>
+        <v>0.65539351851851857</v>
+      </c>
+      <c r="C346" t="s">
+        <v>42</v>
+      </c>
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+      <c r="E346" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B347" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66005787037037034</v>
+      </c>
+      <c r="C347" t="s">
+        <v>42</v>
+      </c>
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+      <c r="E347" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66128472222222223</v>
+      </c>
+      <c r="C348" t="s">
+        <v>42</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B349" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66295138888888894</v>
+      </c>
+      <c r="C349" t="s">
+        <v>42</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>12</v>
+      </c>
+      <c r="B350" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66483796296296294</v>
+      </c>
+      <c r="C350" t="s">
+        <v>42</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" s="1">
+        <f t="shared" si="6"/>
+        <v>0.66865740740740742</v>
+      </c>
+      <c r="C351" t="s">
+        <v>42</v>
+      </c>
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+      <c r="E351" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6713541666666667</v>
+      </c>
+      <c r="C352" t="s">
+        <v>42</v>
+      </c>
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>14</v>
+      </c>
+      <c r="B353" s="1">
+        <f t="shared" si="6"/>
+        <v>0.67682870370370374</v>
+      </c>
+      <c r="C353" t="s">
+        <v>42</v>
+      </c>
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+      <c r="E353" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>15</v>
+      </c>
+      <c r="B354" s="1">
+        <f t="shared" si="6"/>
+        <v>0.67891203703703706</v>
+      </c>
+      <c r="C354" t="s">
+        <v>42</v>
+      </c>
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+      <c r="E354" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>16</v>
+      </c>
+      <c r="B355" s="1">
+        <f t="shared" si="6"/>
+        <v>0.68108796296296292</v>
+      </c>
+      <c r="C355" t="s">
+        <v>42</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>23</v>
+      </c>
+      <c r="B356" s="1">
+        <f t="shared" si="6"/>
+        <v>0.68331018518518516</v>
+      </c>
+      <c r="C356" t="s">
+        <v>42</v>
+      </c>
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+      <c r="E356" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>17</v>
+      </c>
+      <c r="B357" s="1">
+        <f t="shared" si="6"/>
+        <v>0.68489583333333337</v>
+      </c>
+      <c r="C357" t="s">
+        <v>42</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+      <c r="E357" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6880208333333333</v>
+      </c>
+      <c r="C358" t="s">
+        <v>42</v>
+      </c>
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+      <c r="E358" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" s="1">
+        <f t="shared" si="6"/>
+        <v>0.6903703703703703</v>
+      </c>
+      <c r="C359" t="s">
+        <v>42</v>
+      </c>
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+      <c r="E359" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>19</v>
+      </c>
+      <c r="B360" s="1">
+        <f t="shared" si="6"/>
+        <v>0.75288194444444445</v>
+      </c>
+      <c r="C360" t="s">
+        <v>43</v>
+      </c>
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>8</v>
+      </c>
+      <c r="B361" s="1">
+        <f t="shared" si="6"/>
+        <v>0.75208333333333333</v>
+      </c>
+      <c r="C361" t="s">
+        <v>43</v>
+      </c>
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+      <c r="E361" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" s="1">
+        <f t="shared" si="6"/>
+        <v>0.75064814814814818</v>
+      </c>
+      <c r="C362" t="s">
+        <v>43</v>
+      </c>
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+      <c r="E362" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>10</v>
+      </c>
+      <c r="B363" s="1">
+        <f t="shared" si="6"/>
+        <v>0.74589120370370365</v>
+      </c>
+      <c r="C363" t="s">
+        <v>43</v>
+      </c>
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+      <c r="E363" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>11</v>
+      </c>
+      <c r="B364" s="1">
+        <f t="shared" si="6"/>
+        <v>0.74454861111111115</v>
+      </c>
+      <c r="C364" t="s">
+        <v>43</v>
+      </c>
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+      <c r="E364" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B365" s="1">
+        <f t="shared" si="6"/>
+        <v>0.74275462962962968</v>
+      </c>
+      <c r="C365" t="s">
+        <v>43</v>
+      </c>
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+      <c r="E365" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>12</v>
+      </c>
+      <c r="B366" s="1">
+        <f t="shared" si="6"/>
+        <v>0.73890046296296297</v>
+      </c>
+      <c r="C366" t="s">
+        <v>43</v>
+      </c>
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+      <c r="E366" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>13</v>
+      </c>
+      <c r="B367" s="1">
+        <f t="shared" si="6"/>
+        <v>0.73739583333333336</v>
+      </c>
+      <c r="C367" t="s">
+        <v>43</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" s="1">
+        <f t="shared" si="6"/>
+        <v>0.73446759259259264</v>
+      </c>
+      <c r="C368" t="s">
+        <v>43</v>
+      </c>
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+      <c r="E368" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>14</v>
+      </c>
+      <c r="B369" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72887731481481477</v>
+      </c>
+      <c r="C369" t="s">
+        <v>43</v>
+      </c>
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+      <c r="E369" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>15</v>
+      </c>
+      <c r="B370" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72685185185185186</v>
+      </c>
+      <c r="C370" t="s">
+        <v>43</v>
+      </c>
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+      <c r="E370" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>16</v>
+      </c>
+      <c r="B371" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72472222222222227</v>
+      </c>
+      <c r="C371" t="s">
+        <v>43</v>
+      </c>
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+      <c r="E371" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>23</v>
+      </c>
+      <c r="B372" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72251157407407407</v>
+      </c>
+      <c r="C372" t="s">
+        <v>43</v>
+      </c>
+      <c r="D372" t="s">
+        <v>7</v>
+      </c>
+      <c r="E372" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>17</v>
+      </c>
+      <c r="B373" s="1">
+        <f t="shared" si="6"/>
+        <v>0.72091435185185182</v>
+      </c>
+      <c r="C373" t="s">
+        <v>43</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+      <c r="E373" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" s="1">
+        <f t="shared" si="6"/>
+        <v>0.7177662037037037</v>
+      </c>
+      <c r="C374" t="s">
+        <v>43</v>
+      </c>
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+      <c r="E374" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" s="1">
+        <f t="shared" si="6"/>
+        <v>0.71540509259259255</v>
+      </c>
+      <c r="C375" t="s">
+        <v>43</v>
+      </c>
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+      <c r="E375" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>20</v>
+      </c>
+      <c r="B376" s="1">
+        <f t="shared" si="6"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C376" t="s">
+        <v>43</v>
+      </c>
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+      <c r="E376" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>20</v>
+      </c>
+      <c r="B377" s="1">
+        <f t="shared" si="6"/>
+        <v>0.82210648148148158</v>
+      </c>
+      <c r="C377" t="s">
+        <v>44</v>
+      </c>
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+      <c r="E377" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>19</v>
+      </c>
+      <c r="B378" s="1">
+        <f t="shared" si="6"/>
+        <v>0.77787037037037032</v>
+      </c>
+      <c r="C378" t="s">
+        <v>44</v>
+      </c>
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+      <c r="E378" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>8</v>
+      </c>
+      <c r="B379" s="1">
+        <f t="shared" si="6"/>
+        <v>0.77899305555555554</v>
+      </c>
+      <c r="C379" t="s">
+        <v>44</v>
+      </c>
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+      <c r="E379" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78039351851851857</v>
+      </c>
+      <c r="C380" t="s">
+        <v>44</v>
+      </c>
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+      <c r="E380" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>10</v>
+      </c>
+      <c r="B381" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78505787037037034</v>
+      </c>
+      <c r="C381" t="s">
+        <v>44</v>
+      </c>
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+      <c r="E381" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>11</v>
+      </c>
+      <c r="B382" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78628472222222223</v>
+      </c>
+      <c r="C382" t="s">
+        <v>44</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B383" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78795138888888894</v>
+      </c>
+      <c r="C383" t="s">
+        <v>44</v>
+      </c>
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+      <c r="E383" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>12</v>
+      </c>
+      <c r="B384" s="1">
+        <f t="shared" si="6"/>
+        <v>0.78983796296296294</v>
+      </c>
+      <c r="C384" t="s">
+        <v>44</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+      <c r="E384" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385" s="1">
+        <f t="shared" si="6"/>
+        <v>0.79365740740740742</v>
+      </c>
+      <c r="C385" t="s">
+        <v>44</v>
+      </c>
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+      <c r="E385" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386" s="1">
+        <f t="shared" ref="B386:B427" si="7">B352+(3/24)</f>
+        <v>0.7963541666666667</v>
+      </c>
+      <c r="C386" t="s">
+        <v>44</v>
+      </c>
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+      <c r="E386" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>14</v>
+      </c>
+      <c r="B387" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80182870370370374</v>
+      </c>
+      <c r="C387" t="s">
+        <v>44</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>15</v>
+      </c>
+      <c r="B388" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80391203703703706</v>
+      </c>
+      <c r="C388" t="s">
+        <v>44</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>16</v>
+      </c>
+      <c r="B389" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80608796296296292</v>
+      </c>
+      <c r="C389" t="s">
+        <v>44</v>
+      </c>
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>23</v>
+      </c>
+      <c r="B390" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80831018518518516</v>
+      </c>
+      <c r="C390" t="s">
+        <v>44</v>
+      </c>
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391" s="1">
+        <f t="shared" si="7"/>
+        <v>0.80989583333333337</v>
+      </c>
+      <c r="C391" t="s">
+        <v>44</v>
+      </c>
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+      <c r="E391" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8130208333333333</v>
+      </c>
+      <c r="C392" t="s">
+        <v>44</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8153703703703703</v>
+      </c>
+      <c r="C393" t="s">
+        <v>44</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>19</v>
+      </c>
+      <c r="B394" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87788194444444445</v>
+      </c>
+      <c r="C394" t="s">
+        <v>45</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>8</v>
+      </c>
+      <c r="B395" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87708333333333333</v>
+      </c>
+      <c r="C395" t="s">
+        <v>45</v>
+      </c>
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+      <c r="E395" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87564814814814818</v>
+      </c>
+      <c r="C396" t="s">
+        <v>45</v>
+      </c>
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+      <c r="E396" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>10</v>
+      </c>
+      <c r="B397" s="1">
+        <f t="shared" si="7"/>
+        <v>0.87089120370370365</v>
+      </c>
+      <c r="C397" t="s">
+        <v>45</v>
+      </c>
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+      <c r="E397" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>11</v>
+      </c>
+      <c r="B398" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86954861111111115</v>
+      </c>
+      <c r="C398" t="s">
+        <v>45</v>
+      </c>
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B399" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86775462962962968</v>
+      </c>
+      <c r="C399" t="s">
+        <v>45</v>
+      </c>
+      <c r="D399" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>12</v>
+      </c>
+      <c r="B400" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86390046296296297</v>
+      </c>
+      <c r="C400" t="s">
+        <v>45</v>
+      </c>
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+      <c r="E400" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>13</v>
+      </c>
+      <c r="B401" s="1">
+        <f t="shared" si="7"/>
+        <v>0.86239583333333336</v>
+      </c>
+      <c r="C401" t="s">
+        <v>45</v>
+      </c>
+      <c r="D401" t="s">
+        <v>7</v>
+      </c>
+      <c r="E401" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" s="1">
+        <f t="shared" si="7"/>
+        <v>0.85946759259259264</v>
+      </c>
+      <c r="C402" t="s">
+        <v>45</v>
+      </c>
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+      <c r="E402" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>14</v>
+      </c>
+      <c r="B403" s="1">
+        <f t="shared" si="7"/>
+        <v>0.85387731481481477</v>
+      </c>
+      <c r="C403" t="s">
+        <v>45</v>
+      </c>
+      <c r="D403" t="s">
+        <v>7</v>
+      </c>
+      <c r="E403" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>15</v>
+      </c>
+      <c r="B404" s="1">
+        <f t="shared" si="7"/>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="C404" t="s">
+        <v>45</v>
+      </c>
+      <c r="D404" t="s">
+        <v>7</v>
+      </c>
+      <c r="E404" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>16</v>
+      </c>
+      <c r="B405" s="1">
+        <f t="shared" si="7"/>
+        <v>0.84972222222222227</v>
+      </c>
+      <c r="C405" t="s">
+        <v>45</v>
+      </c>
+      <c r="D405" t="s">
+        <v>7</v>
+      </c>
+      <c r="E405" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>23</v>
+      </c>
+      <c r="B406" s="1">
+        <f t="shared" si="7"/>
+        <v>0.84751157407407407</v>
+      </c>
+      <c r="C406" t="s">
+        <v>45</v>
+      </c>
+      <c r="D406" t="s">
+        <v>7</v>
+      </c>
+      <c r="E406" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>17</v>
+      </c>
+      <c r="B407" s="1">
+        <f t="shared" si="7"/>
+        <v>0.84591435185185182</v>
+      </c>
+      <c r="C407" t="s">
+        <v>45</v>
+      </c>
+      <c r="D407" t="s">
+        <v>7</v>
+      </c>
+      <c r="E407" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408" s="1">
+        <f t="shared" si="7"/>
+        <v>0.8427662037037037</v>
+      </c>
+      <c r="C408" t="s">
+        <v>45</v>
+      </c>
+      <c r="D408" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" s="1">
+        <f t="shared" si="7"/>
+        <v>0.84040509259259255</v>
+      </c>
+      <c r="C409" t="s">
+        <v>45</v>
+      </c>
+      <c r="D409" t="s">
+        <v>7</v>
+      </c>
+      <c r="E409" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>20</v>
+      </c>
+      <c r="B410" s="1">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C410" t="s">
+        <v>45</v>
+      </c>
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+      <c r="E410" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>20</v>
+      </c>
+      <c r="B411" s="1">
+        <f t="shared" si="7"/>
+        <v>0.94710648148148158</v>
+      </c>
+      <c r="C411" t="s">
+        <v>46</v>
+      </c>
+      <c r="D411" t="s">
+        <v>7</v>
+      </c>
+      <c r="E411" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="1">
+        <f t="shared" si="7"/>
+        <v>0.90287037037037032</v>
+      </c>
+      <c r="C412" t="s">
+        <v>46</v>
+      </c>
+      <c r="D412" t="s">
+        <v>7</v>
+      </c>
+      <c r="E412" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>8</v>
+      </c>
+      <c r="B413" s="1">
+        <f t="shared" si="7"/>
+        <v>0.90399305555555554</v>
+      </c>
+      <c r="C413" t="s">
+        <v>46</v>
+      </c>
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E413" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>9</v>
+      </c>
+      <c r="B414" s="1">
+        <f t="shared" si="7"/>
+        <v>0.90539351851851857</v>
+      </c>
+      <c r="C414" t="s">
+        <v>46</v>
+      </c>
+      <c r="D414" t="s">
+        <v>7</v>
+      </c>
+      <c r="E414" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>10</v>
+      </c>
+      <c r="B415" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91005787037037034</v>
+      </c>
+      <c r="C415" t="s">
+        <v>46</v>
+      </c>
+      <c r="D415" t="s">
+        <v>7</v>
+      </c>
+      <c r="E415" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>11</v>
+      </c>
+      <c r="B416" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91128472222222223</v>
+      </c>
+      <c r="C416" t="s">
+        <v>46</v>
+      </c>
+      <c r="D416" t="s">
+        <v>7</v>
+      </c>
+      <c r="E416" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91295138888888894</v>
+      </c>
+      <c r="C417" t="s">
+        <v>46</v>
+      </c>
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+      <c r="E417" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>12</v>
+      </c>
+      <c r="B418" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91483796296296294</v>
+      </c>
+      <c r="C418" t="s">
+        <v>46</v>
+      </c>
+      <c r="D418" t="s">
+        <v>7</v>
+      </c>
+      <c r="E418" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>13</v>
+      </c>
+      <c r="B419" s="1">
+        <f t="shared" si="7"/>
+        <v>0.91865740740740742</v>
+      </c>
+      <c r="C419" t="s">
+        <v>46</v>
+      </c>
+      <c r="D419" t="s">
+        <v>7</v>
+      </c>
+      <c r="E419" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9213541666666667</v>
+      </c>
+      <c r="C420" t="s">
+        <v>46</v>
+      </c>
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+      <c r="E420" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>14</v>
+      </c>
+      <c r="B421" s="1">
+        <f t="shared" si="7"/>
+        <v>0.92682870370370374</v>
+      </c>
+      <c r="C421" t="s">
+        <v>46</v>
+      </c>
+      <c r="D421" t="s">
+        <v>7</v>
+      </c>
+      <c r="E421" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>15</v>
+      </c>
+      <c r="B422" s="1">
+        <f t="shared" si="7"/>
+        <v>0.92891203703703706</v>
+      </c>
+      <c r="C422" t="s">
+        <v>46</v>
+      </c>
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+      <c r="E422" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>16</v>
+      </c>
+      <c r="B423" s="1">
+        <f t="shared" si="7"/>
+        <v>0.93108796296296292</v>
+      </c>
+      <c r="C423" t="s">
+        <v>46</v>
+      </c>
+      <c r="D423" t="s">
+        <v>7</v>
+      </c>
+      <c r="E423" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>23</v>
+      </c>
+      <c r="B424" s="1">
+        <f t="shared" si="7"/>
+        <v>0.93331018518518516</v>
+      </c>
+      <c r="C424" t="s">
+        <v>46</v>
+      </c>
+      <c r="D424" t="s">
+        <v>7</v>
+      </c>
+      <c r="E424" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B425" s="1">
+        <f t="shared" si="7"/>
+        <v>0.93489583333333337</v>
+      </c>
+      <c r="C425" t="s">
+        <v>46</v>
+      </c>
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+      <c r="E425" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9380208333333333</v>
+      </c>
+      <c r="C426" t="s">
+        <v>46</v>
+      </c>
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+      <c r="E426" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9403703703703703</v>
+      </c>
+      <c r="C427" t="s">
+        <v>46</v>
+      </c>
+      <c r="D427" t="s">
+        <v>7</v>
+      </c>
+      <c r="E427" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/dades/1S1.xlsx
+++ b/dades/1S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54912B35-4BAF-4F7E-98D9-D1AD8BB5E71E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093A410F-D836-4518-874B-8C0460CF0211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,6 +192,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +232,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,14 +515,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E394" sqref="E394:E427"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
@@ -546,91 +549,109 @@
       <c r="A2" t="s">
         <v>19</v>
       </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
+      <c r="B4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
+      <c r="B7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
+      <c r="B9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
+      <c r="B13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="B14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
+      <c r="B17"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
+      <c r="B18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
+      <c r="B19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">

--- a/dades/1S1.xlsx
+++ b/dades/1S1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093A410F-D836-4518-874B-8C0460CF0211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5116A7-08C2-496E-AB5E-AD961B1B33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1S1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="50">
   <si>
     <t>departure</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Badalona Port</t>
-  </si>
-  <si>
-    <t>Badalona Centre</t>
   </si>
   <si>
     <t>el Masnou</t>
@@ -187,13 +184,16 @@
   <si>
     <t>l'Hospitalet de Llobregat</t>
   </si>
+  <si>
+    <t>Badalona Central</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -232,7 +232,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B422" sqref="B422"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A213" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,12 +542,12 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2"/>
     </row>
@@ -571,7 +571,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B6"/>
     </row>
@@ -583,13 +583,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9"/>
     </row>
@@ -601,37 +601,37 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16"/>
     </row>
@@ -643,31 +643,31 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.21537037037037035</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -678,13 +678,13 @@
         <v>0.21649305555555556</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -695,13 +695,13 @@
         <v>0.21789351851851854</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -712,30 +712,30 @@
         <v>0.22255787037037036</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>0.22378472222222223</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -746,47 +746,47 @@
         <v>0.22545138888888891</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>0.22733796296296296</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
         <v>0.23115740740740742</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,115 +797,115 @@
         <v>0.23385416666666667</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>0.23932870370370371</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="1">
         <v>0.24141203703703704</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1">
         <v>0.24358796296296295</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="1">
         <v>0.24581018518518519</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1">
         <v>0.24739583333333334</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
         <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <v>0.25052083333333336</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
         <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -916,64 +916,64 @@
         <v>0.25287037037037036</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1">
         <v>0.25960648148148147</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1">
         <v>0.27083333333333331</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="1">
         <v>0.31537037037037036</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -984,13 +984,13 @@
         <v>0.31458333333333333</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" t="s">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1001,13 +1001,13 @@
         <v>0.31314814814814812</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1018,30 +1018,30 @@
         <v>0.30839120370370371</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B42" s="1">
         <v>0.30704861111111109</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="s">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,47 +1052,47 @@
         <v>0.30525462962962963</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1">
         <v>0.30336805555555557</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1">
         <v>0.29956018518518518</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1103,115 +1103,115 @@
         <v>0.29696759259259259</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>0.29137731481481483</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="1">
         <v>0.28935185185185186</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="1">
         <v>0.28722222222222221</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="1">
         <v>0.28501157407407407</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" t="s">
         <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1">
         <v>0.28341435185185188</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" s="1">
         <v>0.2802662037037037</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1222,31 +1222,31 @@
         <v>0.27790509259259261</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1">
         <f>B20+(3/24)</f>
         <v>0.34037037037037032</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1258,13 +1258,13 @@
         <v>0.34149305555555554</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1276,13 +1276,13 @@
         <v>0.34289351851851857</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1294,31 +1294,31 @@
         <v>0.34755787037037034</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="0"/>
         <v>0.34878472222222223</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1330,49 +1330,49 @@
         <v>0.35045138888888894</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="0"/>
         <v>0.35233796296296294</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="0"/>
         <v>0.35615740740740742</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
         <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,121 +1384,121 @@
         <v>0.3588541666666667</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="0"/>
         <v>0.36432870370370374</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D63" t="s">
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="0"/>
         <v>0.36641203703703706</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="0"/>
         <v>0.36858796296296292</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="0"/>
         <v>0.37081018518518516</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="0"/>
         <v>0.37239583333333337</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="0"/>
         <v>0.37552083333333336</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,67 +1510,67 @@
         <v>0.37787037037037036</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70" s="1">
         <f>B36+(3/24)</f>
         <v>0.38460648148148147</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" ref="B71:B134" si="1">B37+(3/24)</f>
         <v>0.39583333333333331</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="1"/>
         <v>0.44037037037037036</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,13 +1582,13 @@
         <v>0.43958333333333333</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,13 +1600,13 @@
         <v>0.43814814814814812</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -1618,31 +1618,31 @@
         <v>0.43339120370370371</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="1"/>
         <v>0.43204861111111109</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -1654,49 +1654,49 @@
         <v>0.43025462962962963</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="1"/>
         <v>0.42836805555555557</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="1"/>
         <v>0.42456018518518518</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -1708,121 +1708,121 @@
         <v>0.42196759259259259</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="1"/>
         <v>0.41637731481481483</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="1"/>
         <v>0.41435185185185186</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="1"/>
         <v>0.41222222222222221</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="1"/>
         <v>0.41001157407407407</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="1"/>
         <v>0.40841435185185188</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="1"/>
         <v>0.4052662037037037</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -1834,31 +1834,31 @@
         <v>0.40290509259259261</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="1"/>
         <v>0.46537037037037032</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -1870,13 +1870,13 @@
         <v>0.46649305555555554</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D89" t="s">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,13 +1888,13 @@
         <v>0.46789351851851857</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D90" t="s">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -1906,31 +1906,31 @@
         <v>0.47255787037037034</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="1"/>
         <v>0.47378472222222223</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -1942,49 +1942,49 @@
         <v>0.47545138888888894</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D93" t="s">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="1"/>
         <v>0.47733796296296294</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" t="s">
         <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="1"/>
         <v>0.48115740740740742</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -1996,121 +1996,121 @@
         <v>0.4838541666666667</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="1"/>
         <v>0.48932870370370374</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="1"/>
         <v>0.49141203703703706</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="1"/>
         <v>0.49358796296296292</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D99" t="s">
         <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="1"/>
         <v>0.49581018518518516</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
         <v>7</v>
       </c>
       <c r="E100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="1"/>
         <v>0.49739583333333337</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="1"/>
         <v>0.5005208333333333</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
         <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2122,67 +2122,67 @@
         <v>0.5028703703703703</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="1"/>
         <v>0.50960648148148147</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
       </c>
       <c r="E104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="1"/>
         <v>0.52083333333333326</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D105" t="s">
         <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="1"/>
         <v>0.5653703703703703</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2194,13 +2194,13 @@
         <v>0.56458333333333333</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D107" t="s">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2212,13 +2212,13 @@
         <v>0.56314814814814818</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D108" t="s">
         <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2230,31 +2230,31 @@
         <v>0.55839120370370376</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="1"/>
         <v>0.55704861111111104</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2266,49 +2266,49 @@
         <v>0.55525462962962968</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="1"/>
         <v>0.55336805555555557</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="1"/>
         <v>0.54956018518518523</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
         <v>7</v>
       </c>
       <c r="E113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2320,121 +2320,121 @@
         <v>0.54696759259259253</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="1"/>
         <v>0.54137731481481488</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
       </c>
       <c r="E115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="1"/>
         <v>0.53935185185185186</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="1"/>
         <v>0.53722222222222227</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D117" t="s">
         <v>7</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="1"/>
         <v>0.53501157407407407</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="1"/>
         <v>0.53341435185185193</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D119" t="s">
         <v>7</v>
       </c>
       <c r="E119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="1"/>
         <v>0.5302662037037037</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -2446,31 +2446,31 @@
         <v>0.52790509259259255</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D121" t="s">
         <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="1"/>
         <v>0.59037037037037032</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
         <v>7</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -2482,13 +2482,13 @@
         <v>0.59149305555555554</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D123" t="s">
         <v>7</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -2500,13 +2500,13 @@
         <v>0.59289351851851857</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
       </c>
       <c r="E124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -2518,31 +2518,31 @@
         <v>0.59755787037037034</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="1"/>
         <v>0.59878472222222223</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D126" t="s">
         <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -2554,49 +2554,49 @@
         <v>0.60045138888888894</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
       </c>
       <c r="E127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="1"/>
         <v>0.60233796296296294</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128" t="s">
         <v>7</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="1"/>
         <v>0.60615740740740742</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
       </c>
       <c r="E129" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -2608,121 +2608,121 @@
         <v>0.6088541666666667</v>
       </c>
       <c r="C130" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
       </c>
       <c r="E130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="1"/>
         <v>0.61432870370370374</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D131" t="s">
         <v>7</v>
       </c>
       <c r="E131" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" si="1"/>
         <v>0.61641203703703706</v>
       </c>
       <c r="C132" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D132" t="s">
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="1"/>
         <v>0.61858796296296292</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="1"/>
         <v>0.62081018518518516</v>
       </c>
       <c r="C134" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134" t="s">
         <v>7</v>
       </c>
       <c r="E134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" ref="B135:B198" si="2">B101+(3/24)</f>
         <v>0.62239583333333337</v>
       </c>
       <c r="C135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
       </c>
       <c r="E135" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="2"/>
         <v>0.6255208333333333</v>
       </c>
       <c r="C136" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
       </c>
       <c r="E136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -2734,67 +2734,67 @@
         <v>0.6278703703703703</v>
       </c>
       <c r="C137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D137" t="s">
         <v>7</v>
       </c>
       <c r="E137" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="2"/>
         <v>0.63460648148148147</v>
       </c>
       <c r="C138" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D138" t="s">
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="2"/>
         <v>0.64583333333333326</v>
       </c>
       <c r="C139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="2"/>
         <v>0.6903703703703703</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
         <v>7</v>
       </c>
       <c r="E140" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -2806,13 +2806,13 @@
         <v>0.68958333333333333</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
         <v>7</v>
       </c>
       <c r="E141" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -2824,13 +2824,13 @@
         <v>0.68814814814814818</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
         <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -2842,31 +2842,31 @@
         <v>0.68339120370370376</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
         <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="2"/>
         <v>0.68204861111111104</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -2878,49 +2878,49 @@
         <v>0.68025462962962968</v>
       </c>
       <c r="C145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="2"/>
         <v>0.67836805555555557</v>
       </c>
       <c r="C146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="2"/>
         <v>0.67456018518518523</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D147" t="s">
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -2932,121 +2932,121 @@
         <v>0.67196759259259253</v>
       </c>
       <c r="C148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="2"/>
         <v>0.66637731481481488</v>
       </c>
       <c r="C149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="2"/>
         <v>0.66435185185185186</v>
       </c>
       <c r="C150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
         <v>7</v>
       </c>
       <c r="E150" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="2"/>
         <v>0.66222222222222227</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
         <v>7</v>
       </c>
       <c r="E151" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="2"/>
         <v>0.66001157407407407</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D152" t="s">
         <v>7</v>
       </c>
       <c r="E152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="2"/>
         <v>0.65841435185185193</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D153" t="s">
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="2"/>
         <v>0.6552662037037037</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D154" t="s">
         <v>7</v>
       </c>
       <c r="E154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3058,31 +3058,31 @@
         <v>0.65290509259259255</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D155" t="s">
         <v>7</v>
       </c>
       <c r="E155" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="2"/>
         <v>0.71537037037037032</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" t="s">
         <v>7</v>
       </c>
       <c r="E156" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3094,13 +3094,13 @@
         <v>0.71649305555555554</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D157" t="s">
         <v>7</v>
       </c>
       <c r="E157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3112,13 +3112,13 @@
         <v>0.71789351851851857</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D158" t="s">
         <v>7</v>
       </c>
       <c r="E158" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3130,31 +3130,31 @@
         <v>0.72255787037037034</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
         <v>7</v>
       </c>
       <c r="E159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="2"/>
         <v>0.72378472222222223</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160" t="s">
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3166,49 +3166,49 @@
         <v>0.72545138888888894</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" t="s">
         <v>7</v>
       </c>
       <c r="E161" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="2"/>
         <v>0.72733796296296294</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
       </c>
       <c r="E162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="2"/>
         <v>0.73115740740740742</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
       </c>
       <c r="E163" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3220,121 +3220,121 @@
         <v>0.7338541666666667</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="2"/>
         <v>0.73932870370370374</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="2"/>
         <v>0.74141203703703706</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
       </c>
       <c r="E166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="2"/>
         <v>0.74358796296296292</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="2"/>
         <v>0.74581018518518516</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
       </c>
       <c r="E168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="2"/>
         <v>0.74739583333333337</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
       </c>
       <c r="E169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="2"/>
         <v>0.7505208333333333</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
       </c>
       <c r="E170" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3346,67 +3346,67 @@
         <v>0.7528703703703703</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
       </c>
       <c r="E171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="2"/>
         <v>0.75960648148148147</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
       </c>
       <c r="E172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="2"/>
         <v>0.77083333333333326</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
       </c>
       <c r="E173" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="2"/>
         <v>0.8153703703703703</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3418,13 +3418,13 @@
         <v>0.81458333333333333</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
       </c>
       <c r="E175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -3436,13 +3436,13 @@
         <v>0.81314814814814818</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
       </c>
       <c r="E176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -3454,31 +3454,31 @@
         <v>0.80839120370370376</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
       </c>
       <c r="E177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="2"/>
         <v>0.80704861111111104</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
       </c>
       <c r="E178" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -3490,49 +3490,49 @@
         <v>0.80525462962962968</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
       </c>
       <c r="E179" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="2"/>
         <v>0.80336805555555557</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
       </c>
       <c r="E180" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="2"/>
         <v>0.79956018518518523</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
       </c>
       <c r="E181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -3544,121 +3544,121 @@
         <v>0.79696759259259253</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
       </c>
       <c r="E182" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="2"/>
         <v>0.79137731481481488</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
       </c>
       <c r="E183" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="2"/>
         <v>0.78935185185185186</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="2"/>
         <v>0.78722222222222227</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="2"/>
         <v>0.78501157407407407</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="2"/>
         <v>0.78341435185185193</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="2"/>
         <v>0.7802662037037037</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -3670,31 +3670,31 @@
         <v>0.77790509259259255</v>
       </c>
       <c r="C189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
       </c>
       <c r="E189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="2"/>
         <v>0.84037037037037032</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -3706,13 +3706,13 @@
         <v>0.84149305555555554</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
       </c>
       <c r="E191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -3724,13 +3724,13 @@
         <v>0.84289351851851857</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
       </c>
       <c r="E192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -3742,31 +3742,31 @@
         <v>0.84755787037037034</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="2"/>
         <v>0.84878472222222223</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -3778,49 +3778,49 @@
         <v>0.85045138888888894</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
       </c>
       <c r="E195" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="2"/>
         <v>0.85233796296296294</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
       </c>
       <c r="E196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="2"/>
         <v>0.85615740740740742</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -3832,121 +3832,121 @@
         <v>0.8588541666666667</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
       </c>
       <c r="E198" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" ref="B199:B223" si="3">B165+(3/24)</f>
         <v>0.86432870370370374</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
       </c>
       <c r="E199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="3"/>
         <v>0.86641203703703706</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
       </c>
       <c r="E200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="3"/>
         <v>0.86858796296296292</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="3"/>
         <v>0.87081018518518516</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
       </c>
       <c r="E202" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="3"/>
         <v>0.87239583333333337</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
       </c>
       <c r="E203" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="3"/>
         <v>0.8755208333333333</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
       </c>
       <c r="E204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -3958,67 +3958,67 @@
         <v>0.8778703703703703</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
       </c>
       <c r="E205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="3"/>
         <v>0.88460648148148147</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
       </c>
       <c r="E206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="3"/>
         <v>0.89583333333333326</v>
       </c>
       <c r="C207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="3"/>
         <v>0.9403703703703703</v>
       </c>
       <c r="C208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -4030,13 +4030,13 @@
         <v>0.93958333333333333</v>
       </c>
       <c r="C209" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -4048,13 +4048,13 @@
         <v>0.93814814814814818</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
       </c>
       <c r="E210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -4066,31 +4066,31 @@
         <v>0.93339120370370376</v>
       </c>
       <c r="C211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
       </c>
       <c r="E211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="3"/>
         <v>0.93204861111111104</v>
       </c>
       <c r="C212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
       </c>
       <c r="E212" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -4102,49 +4102,49 @@
         <v>0.93025462962962968</v>
       </c>
       <c r="C213" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
       </c>
       <c r="E213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="3"/>
         <v>0.92836805555555557</v>
       </c>
       <c r="C214" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
       </c>
       <c r="E214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="3"/>
         <v>0.92456018518518523</v>
       </c>
       <c r="C215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
       </c>
       <c r="E215" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4156,121 +4156,121 @@
         <v>0.92196759259259253</v>
       </c>
       <c r="C216" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
       </c>
       <c r="E216" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="3"/>
         <v>0.91637731481481488</v>
       </c>
       <c r="C217" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
       </c>
       <c r="E217" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="3"/>
         <v>0.91435185185185186</v>
       </c>
       <c r="C218" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
       </c>
       <c r="E218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="3"/>
         <v>0.91222222222222227</v>
       </c>
       <c r="C219" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
       </c>
       <c r="E219" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="3"/>
         <v>0.91001157407407407</v>
       </c>
       <c r="C220" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
       </c>
       <c r="E220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="3"/>
         <v>0.90841435185185193</v>
       </c>
       <c r="C221" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="3"/>
         <v>0.9052662037037037</v>
       </c>
       <c r="C222" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
       </c>
       <c r="E222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -4282,13 +4282,13 @@
         <v>0.90290509259259255</v>
       </c>
       <c r="C223" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
       </c>
       <c r="E223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4296,118 +4296,118 @@
         <v>19</v>
       </c>
       <c r="B224" s="1">
-        <v>0.25288194444444445</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
       </c>
       <c r="E224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B225" s="1">
-        <v>0.25208333333333333</v>
+        <v>0.21540509259259258</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
       </c>
       <c r="E225" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B226" s="1">
-        <v>0.25064814814814812</v>
+        <v>0.2177662037037037</v>
       </c>
       <c r="C226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
       </c>
       <c r="E226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B227" s="1">
-        <v>0.24589120370370368</v>
+        <v>0.22091435185185185</v>
       </c>
       <c r="C227" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
       </c>
       <c r="E227" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B228" s="1">
-        <v>0.24454861111111112</v>
+        <v>0.22253472222222223</v>
       </c>
       <c r="C228" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
       </c>
       <c r="E228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B229" s="1">
-        <v>0.24275462962962965</v>
+        <v>0.22472222222222224</v>
       </c>
       <c r="C229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
       </c>
       <c r="E229" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B230" s="1">
-        <v>0.23890046296296297</v>
+        <v>0.22685185185185186</v>
       </c>
       <c r="C230" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
       </c>
       <c r="E230" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -4415,16 +4415,16 @@
         <v>13</v>
       </c>
       <c r="B231" s="1">
-        <v>0.23739583333333333</v>
+        <v>0.2288773148148148</v>
       </c>
       <c r="C231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
       </c>
       <c r="E231" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -4435,3514 +4435,1660 @@
         <v>0.23446759259259262</v>
       </c>
       <c r="C232" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
       </c>
       <c r="E232" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B233" s="1">
-        <v>0.2288773148148148</v>
+        <v>0.23706018518518521</v>
       </c>
       <c r="C233" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
       </c>
       <c r="E233" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B234" s="1">
-        <v>0.22685185185185186</v>
+        <v>0.24086805555555557</v>
       </c>
       <c r="C234" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
       </c>
       <c r="E234" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B235" s="1">
-        <v>0.22472222222222224</v>
+        <v>0.24275462962962965</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
       </c>
       <c r="E235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B236" s="1">
-        <v>0.22251157407407407</v>
+        <v>0.24454861111111112</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
       </c>
       <c r="E236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B237" s="1">
-        <v>0.22091435185185185</v>
+        <v>0.24589120370370368</v>
       </c>
       <c r="C237" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
       </c>
       <c r="E237" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B238" s="1">
-        <v>0.2177662037037037</v>
+        <v>0.25064814814814812</v>
       </c>
       <c r="C238" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
       </c>
       <c r="E238" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B239" s="1">
-        <v>0.21540509259259258</v>
+        <v>0.25208333333333333</v>
       </c>
       <c r="C239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D239" t="s">
         <v>7</v>
       </c>
       <c r="E239" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B240" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.25288194444444445</v>
       </c>
       <c r="C240" t="s">
+        <v>34</v>
+      </c>
+      <c r="D240" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" t="s">
         <v>35</v>
       </c>
-      <c r="D240" t="s">
-        <v>7</v>
-      </c>
-      <c r="E240" t="s">
+      <c r="D241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" t="s">
+        <v>35</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" t="s">
+        <v>35</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
-        <v>20</v>
-      </c>
-      <c r="B241" s="1">
-        <v>0.32210648148148152</v>
-      </c>
-      <c r="C241" t="s">
+      <c r="C245" t="s">
+        <v>35</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>35</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>35</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>35</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>35</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>35</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>35</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>35</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>35</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>35</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
         <v>36</v>
       </c>
-      <c r="D241" t="s">
-        <v>7</v>
-      </c>
-      <c r="E241" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
-        <v>19</v>
-      </c>
-      <c r="B242" s="1">
-        <f>B20+(1.5/24)</f>
-        <v>0.27787037037037032</v>
-      </c>
-      <c r="C242" t="s">
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
         <v>36</v>
       </c>
-      <c r="D242" t="s">
-        <v>7</v>
-      </c>
-      <c r="E242" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
-        <v>8</v>
-      </c>
-      <c r="B243" s="1">
-        <f t="shared" ref="B243:B257" si="4">B21+(1.5/24)</f>
-        <v>0.27899305555555554</v>
-      </c>
-      <c r="C243" t="s">
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
         <v>36</v>
       </c>
-      <c r="D243" t="s">
-        <v>7</v>
-      </c>
-      <c r="E243" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
-        <v>9</v>
-      </c>
-      <c r="B244" s="1">
-        <f t="shared" si="4"/>
-        <v>0.28039351851851857</v>
-      </c>
-      <c r="C244" t="s">
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
         <v>36</v>
       </c>
-      <c r="D244" t="s">
-        <v>7</v>
-      </c>
-      <c r="E244" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>10</v>
-      </c>
-      <c r="B245" s="1">
-        <f t="shared" si="4"/>
-        <v>0.28505787037037034</v>
-      </c>
-      <c r="C245" t="s">
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
         <v>36</v>
       </c>
-      <c r="D245" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>11</v>
-      </c>
-      <c r="B246" s="1">
-        <f t="shared" si="4"/>
-        <v>0.28628472222222223</v>
-      </c>
-      <c r="C246" t="s">
+      <c r="D262" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
         <v>36</v>
       </c>
-      <c r="D246" t="s">
-        <v>7</v>
-      </c>
-      <c r="E246" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>4</v>
-      </c>
-      <c r="B247" s="1">
-        <f t="shared" si="4"/>
-        <v>0.28795138888888894</v>
-      </c>
-      <c r="C247" t="s">
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
         <v>36</v>
       </c>
-      <c r="D247" t="s">
-        <v>7</v>
-      </c>
-      <c r="E247" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>12</v>
-      </c>
-      <c r="B248" s="1">
-        <f t="shared" si="4"/>
-        <v>0.28983796296296294</v>
-      </c>
-      <c r="C248" t="s">
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
         <v>36</v>
       </c>
-      <c r="D248" t="s">
-        <v>7</v>
-      </c>
-      <c r="E248" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>13</v>
-      </c>
-      <c r="B249" s="1">
-        <f t="shared" si="4"/>
-        <v>0.29365740740740742</v>
-      </c>
-      <c r="C249" t="s">
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
         <v>36</v>
       </c>
-      <c r="D249" t="s">
-        <v>7</v>
-      </c>
-      <c r="E249" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>5</v>
-      </c>
-      <c r="B250" s="1">
-        <f t="shared" si="4"/>
-        <v>0.2963541666666667</v>
-      </c>
-      <c r="C250" t="s">
+      <c r="D266" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
         <v>36</v>
       </c>
-      <c r="D250" t="s">
-        <v>7</v>
-      </c>
-      <c r="E250" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>14</v>
-      </c>
-      <c r="B251" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30182870370370374</v>
-      </c>
-      <c r="C251" t="s">
+      <c r="D267" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
         <v>36</v>
       </c>
-      <c r="D251" t="s">
-        <v>7</v>
-      </c>
-      <c r="E251" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>15</v>
-      </c>
-      <c r="B252" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30391203703703706</v>
-      </c>
-      <c r="C252" t="s">
+      <c r="D268" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
         <v>36</v>
       </c>
-      <c r="D252" t="s">
-        <v>7</v>
-      </c>
-      <c r="E252" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>16</v>
-      </c>
-      <c r="B253" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30608796296296292</v>
-      </c>
-      <c r="C253" t="s">
+      <c r="D269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
         <v>36</v>
       </c>
-      <c r="D253" t="s">
-        <v>7</v>
-      </c>
-      <c r="E253" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>23</v>
-      </c>
-      <c r="B254" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30831018518518516</v>
-      </c>
-      <c r="C254" t="s">
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
         <v>36</v>
       </c>
-      <c r="D254" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>17</v>
-      </c>
-      <c r="B255" s="1">
-        <f t="shared" si="4"/>
-        <v>0.30989583333333337</v>
-      </c>
-      <c r="C255" t="s">
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
         <v>36</v>
       </c>
-      <c r="D255" t="s">
-        <v>7</v>
-      </c>
-      <c r="E255" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>18</v>
-      </c>
-      <c r="B256" s="1">
-        <f t="shared" si="4"/>
-        <v>0.31302083333333336</v>
-      </c>
-      <c r="C256" t="s">
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
         <v>36</v>
       </c>
-      <c r="D256" t="s">
-        <v>7</v>
-      </c>
-      <c r="E256" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>6</v>
-      </c>
-      <c r="B257" s="1">
-        <f t="shared" si="4"/>
-        <v>0.31537037037037036</v>
-      </c>
-      <c r="C257" t="s">
+      <c r="D273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
         <v>36</v>
       </c>
-      <c r="D257" t="s">
-        <v>7</v>
-      </c>
-      <c r="E257" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>19</v>
-      </c>
-      <c r="B258" s="1">
-        <f t="shared" ref="B258:B321" si="5">B224+(3/24)</f>
-        <v>0.37788194444444445</v>
-      </c>
-      <c r="C258" t="s">
+      <c r="D274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
         <v>37</v>
       </c>
-      <c r="D258" t="s">
-        <v>7</v>
-      </c>
-      <c r="E258" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>8</v>
-      </c>
-      <c r="B259" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37708333333333333</v>
-      </c>
-      <c r="C259" t="s">
+      <c r="D275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
         <v>37</v>
       </c>
-      <c r="D259" t="s">
-        <v>7</v>
-      </c>
-      <c r="E259" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>9</v>
-      </c>
-      <c r="B260" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37564814814814812</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="D276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
         <v>37</v>
       </c>
-      <c r="D260" t="s">
-        <v>7</v>
-      </c>
-      <c r="E260" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>10</v>
-      </c>
-      <c r="B261" s="1">
-        <f t="shared" si="5"/>
-        <v>0.37089120370370365</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="D277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
         <v>37</v>
       </c>
-      <c r="D261" t="s">
-        <v>7</v>
-      </c>
-      <c r="E261" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>11</v>
-      </c>
-      <c r="B262" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36954861111111115</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
         <v>37</v>
       </c>
-      <c r="D262" t="s">
-        <v>7</v>
-      </c>
-      <c r="E262" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>4</v>
-      </c>
-      <c r="B263" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36775462962962968</v>
-      </c>
-      <c r="C263" t="s">
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
         <v>37</v>
       </c>
-      <c r="D263" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>12</v>
-      </c>
-      <c r="B264" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36390046296296297</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
         <v>37</v>
       </c>
-      <c r="D264" t="s">
-        <v>7</v>
-      </c>
-      <c r="E264" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>13</v>
-      </c>
-      <c r="B265" s="1">
-        <f t="shared" si="5"/>
-        <v>0.36239583333333336</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="D281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
         <v>37</v>
       </c>
-      <c r="D265" t="s">
-        <v>7</v>
-      </c>
-      <c r="E265" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>5</v>
-      </c>
-      <c r="B266" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35946759259259264</v>
-      </c>
-      <c r="C266" t="s">
+      <c r="D282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
         <v>37</v>
       </c>
-      <c r="D266" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>14</v>
-      </c>
-      <c r="B267" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35387731481481477</v>
-      </c>
-      <c r="C267" t="s">
+      <c r="D283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
         <v>37</v>
       </c>
-      <c r="D267" t="s">
-        <v>7</v>
-      </c>
-      <c r="E267" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>15</v>
-      </c>
-      <c r="B268" s="1">
-        <f t="shared" si="5"/>
-        <v>0.35185185185185186</v>
-      </c>
-      <c r="C268" t="s">
+      <c r="D284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
         <v>37</v>
       </c>
-      <c r="D268" t="s">
-        <v>7</v>
-      </c>
-      <c r="E268" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>16</v>
-      </c>
-      <c r="B269" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34972222222222227</v>
-      </c>
-      <c r="C269" t="s">
+      <c r="D285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
         <v>37</v>
       </c>
-      <c r="D269" t="s">
-        <v>7</v>
-      </c>
-      <c r="E269" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>23</v>
-      </c>
-      <c r="B270" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34751157407407407</v>
-      </c>
-      <c r="C270" t="s">
+      <c r="D286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
         <v>37</v>
       </c>
-      <c r="D270" t="s">
-        <v>7</v>
-      </c>
-      <c r="E270" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>17</v>
-      </c>
-      <c r="B271" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34591435185185182</v>
-      </c>
-      <c r="C271" t="s">
+      <c r="D287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
         <v>37</v>
       </c>
-      <c r="D271" t="s">
-        <v>7</v>
-      </c>
-      <c r="E271" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>18</v>
-      </c>
-      <c r="B272" s="1">
-        <f t="shared" si="5"/>
-        <v>0.3427662037037037</v>
-      </c>
-      <c r="C272" t="s">
+      <c r="D288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
         <v>37</v>
       </c>
-      <c r="D272" t="s">
-        <v>7</v>
-      </c>
-      <c r="E272" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
-        <v>6</v>
-      </c>
-      <c r="B273" s="1">
-        <f t="shared" si="5"/>
-        <v>0.34040509259259255</v>
-      </c>
-      <c r="C273" t="s">
+      <c r="D289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
         <v>37</v>
       </c>
-      <c r="D273" t="s">
-        <v>7</v>
-      </c>
-      <c r="E273" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>20</v>
-      </c>
-      <c r="B274" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="C274" t="s">
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
         <v>37</v>
       </c>
-      <c r="D274" t="s">
-        <v>7</v>
-      </c>
-      <c r="E274" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>20</v>
-      </c>
-      <c r="B275" s="1">
-        <f t="shared" si="5"/>
-        <v>0.44710648148148152</v>
-      </c>
-      <c r="C275" t="s">
+      <c r="D291" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
         <v>38</v>
       </c>
-      <c r="D275" t="s">
-        <v>7</v>
-      </c>
-      <c r="E275" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>19</v>
-      </c>
-      <c r="B276" s="1">
-        <f t="shared" si="5"/>
-        <v>0.40287037037037032</v>
-      </c>
-      <c r="C276" t="s">
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
         <v>38</v>
       </c>
-      <c r="D276" t="s">
-        <v>7</v>
-      </c>
-      <c r="E276" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>8</v>
-      </c>
-      <c r="B277" s="1">
-        <f t="shared" si="5"/>
-        <v>0.40399305555555554</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
         <v>38</v>
       </c>
-      <c r="D277" t="s">
-        <v>7</v>
-      </c>
-      <c r="E277" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278" s="1">
-        <f t="shared" si="5"/>
-        <v>0.40539351851851857</v>
-      </c>
-      <c r="C278" t="s">
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
         <v>38</v>
       </c>
-      <c r="D278" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>10</v>
-      </c>
-      <c r="B279" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41005787037037034</v>
-      </c>
-      <c r="C279" t="s">
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
         <v>38</v>
       </c>
-      <c r="D279" t="s">
-        <v>7</v>
-      </c>
-      <c r="E279" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>11</v>
-      </c>
-      <c r="B280" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41128472222222223</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="D296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
         <v>38</v>
       </c>
-      <c r="D280" t="s">
-        <v>7</v>
-      </c>
-      <c r="E280" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>4</v>
-      </c>
-      <c r="B281" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41295138888888894</v>
-      </c>
-      <c r="C281" t="s">
+      <c r="D297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
         <v>38</v>
       </c>
-      <c r="D281" t="s">
-        <v>7</v>
-      </c>
-      <c r="E281" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>12</v>
-      </c>
-      <c r="B282" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41483796296296294</v>
-      </c>
-      <c r="C282" t="s">
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
         <v>38</v>
       </c>
-      <c r="D282" t="s">
-        <v>7</v>
-      </c>
-      <c r="E282" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>13</v>
-      </c>
-      <c r="B283" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41865740740740742</v>
-      </c>
-      <c r="C283" t="s">
+      <c r="D299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
         <v>38</v>
       </c>
-      <c r="D283" t="s">
-        <v>7</v>
-      </c>
-      <c r="E283" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>5</v>
-      </c>
-      <c r="B284" s="1">
-        <f t="shared" si="5"/>
-        <v>0.4213541666666667</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="D300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
         <v>38</v>
       </c>
-      <c r="D284" t="s">
-        <v>7</v>
-      </c>
-      <c r="E284" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
-        <v>14</v>
-      </c>
-      <c r="B285" s="1">
-        <f t="shared" si="5"/>
-        <v>0.42682870370370374</v>
-      </c>
-      <c r="C285" t="s">
+      <c r="D301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
         <v>38</v>
       </c>
-      <c r="D285" t="s">
-        <v>7</v>
-      </c>
-      <c r="E285" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>15</v>
-      </c>
-      <c r="B286" s="1">
-        <f t="shared" si="5"/>
-        <v>0.42891203703703706</v>
-      </c>
-      <c r="C286" t="s">
+      <c r="D302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
         <v>38</v>
       </c>
-      <c r="D286" t="s">
-        <v>7</v>
-      </c>
-      <c r="E286" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
-        <v>16</v>
-      </c>
-      <c r="B287" s="1">
-        <f t="shared" si="5"/>
-        <v>0.43108796296296292</v>
-      </c>
-      <c r="C287" t="s">
+      <c r="D303" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
         <v>38</v>
       </c>
-      <c r="D287" t="s">
-        <v>7</v>
-      </c>
-      <c r="E287" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
-        <v>23</v>
-      </c>
-      <c r="B288" s="1">
-        <f t="shared" si="5"/>
-        <v>0.43331018518518516</v>
-      </c>
-      <c r="C288" t="s">
+      <c r="D304" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
         <v>38</v>
       </c>
-      <c r="D288" t="s">
-        <v>7</v>
-      </c>
-      <c r="E288" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
-        <v>17</v>
-      </c>
-      <c r="B289" s="1">
-        <f t="shared" si="5"/>
-        <v>0.43489583333333337</v>
-      </c>
-      <c r="C289" t="s">
+      <c r="D305" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
         <v>38</v>
       </c>
-      <c r="D289" t="s">
-        <v>7</v>
-      </c>
-      <c r="E289" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
-        <v>18</v>
-      </c>
-      <c r="B290" s="1">
-        <f t="shared" si="5"/>
-        <v>0.43802083333333336</v>
-      </c>
-      <c r="C290" t="s">
+      <c r="D306" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
         <v>38</v>
       </c>
-      <c r="D290" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
-        <v>6</v>
-      </c>
-      <c r="B291" s="1">
-        <f t="shared" si="5"/>
-        <v>0.44037037037037036</v>
-      </c>
-      <c r="C291" t="s">
+      <c r="D307" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
         <v>38</v>
       </c>
-      <c r="D291" t="s">
-        <v>7</v>
-      </c>
-      <c r="E291" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
-        <v>19</v>
-      </c>
-      <c r="B292" s="1">
-        <f t="shared" si="5"/>
-        <v>0.50288194444444445</v>
-      </c>
-      <c r="C292" t="s">
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
         <v>39</v>
       </c>
-      <c r="D292" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
-        <v>8</v>
-      </c>
-      <c r="B293" s="1">
-        <f t="shared" si="5"/>
-        <v>0.50208333333333333</v>
-      </c>
-      <c r="C293" t="s">
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
         <v>39</v>
       </c>
-      <c r="D293" t="s">
-        <v>7</v>
-      </c>
-      <c r="E293" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="1">
-        <f t="shared" si="5"/>
-        <v>0.50064814814814818</v>
-      </c>
-      <c r="C294" t="s">
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
         <v>39</v>
       </c>
-      <c r="D294" t="s">
-        <v>7</v>
-      </c>
-      <c r="E294" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>10</v>
-      </c>
-      <c r="B295" s="1">
-        <f t="shared" si="5"/>
-        <v>0.49589120370370365</v>
-      </c>
-      <c r="C295" t="s">
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
         <v>39</v>
       </c>
-      <c r="D295" t="s">
-        <v>7</v>
-      </c>
-      <c r="E295" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>11</v>
-      </c>
-      <c r="B296" s="1">
-        <f t="shared" si="5"/>
-        <v>0.49454861111111115</v>
-      </c>
-      <c r="C296" t="s">
+      <c r="D312" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
         <v>39</v>
       </c>
-      <c r="D296" t="s">
-        <v>7</v>
-      </c>
-      <c r="E296" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>4</v>
-      </c>
-      <c r="B297" s="1">
-        <f t="shared" si="5"/>
-        <v>0.49275462962962968</v>
-      </c>
-      <c r="C297" t="s">
+      <c r="D313" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
         <v>39</v>
       </c>
-      <c r="D297" t="s">
-        <v>7</v>
-      </c>
-      <c r="E297" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>12</v>
-      </c>
-      <c r="B298" s="1">
-        <f t="shared" si="5"/>
-        <v>0.48890046296296297</v>
-      </c>
-      <c r="C298" t="s">
+      <c r="D314" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
         <v>39</v>
       </c>
-      <c r="D298" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>13</v>
-      </c>
-      <c r="B299" s="1">
-        <f t="shared" si="5"/>
-        <v>0.48739583333333336</v>
-      </c>
-      <c r="C299" t="s">
+      <c r="D315" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
         <v>39</v>
       </c>
-      <c r="D299" t="s">
-        <v>7</v>
-      </c>
-      <c r="E299" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>5</v>
-      </c>
-      <c r="B300" s="1">
-        <f t="shared" si="5"/>
-        <v>0.48446759259259264</v>
-      </c>
-      <c r="C300" t="s">
+      <c r="D316" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
         <v>39</v>
       </c>
-      <c r="D300" t="s">
-        <v>7</v>
-      </c>
-      <c r="E300" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>14</v>
-      </c>
-      <c r="B301" s="1">
-        <f t="shared" si="5"/>
-        <v>0.47887731481481477</v>
-      </c>
-      <c r="C301" t="s">
+      <c r="D317" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C318" t="s">
         <v>39</v>
       </c>
-      <c r="D301" t="s">
-        <v>7</v>
-      </c>
-      <c r="E301" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>15</v>
-      </c>
-      <c r="B302" s="1">
-        <f t="shared" si="5"/>
-        <v>0.47685185185185186</v>
-      </c>
-      <c r="C302" t="s">
+      <c r="D318" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C319" t="s">
         <v>39</v>
       </c>
-      <c r="D302" t="s">
-        <v>7</v>
-      </c>
-      <c r="E302" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>16</v>
-      </c>
-      <c r="B303" s="1">
-        <f t="shared" si="5"/>
-        <v>0.47472222222222227</v>
-      </c>
-      <c r="C303" t="s">
+      <c r="D319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C320" t="s">
         <v>39</v>
       </c>
-      <c r="D303" t="s">
-        <v>7</v>
-      </c>
-      <c r="E303" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>23</v>
-      </c>
-      <c r="B304" s="1">
-        <f t="shared" si="5"/>
-        <v>0.47251157407407407</v>
-      </c>
-      <c r="C304" t="s">
+      <c r="D320" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C321" t="s">
         <v>39</v>
       </c>
-      <c r="D304" t="s">
-        <v>7</v>
-      </c>
-      <c r="E304" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>17</v>
-      </c>
-      <c r="B305" s="1">
-        <f t="shared" si="5"/>
-        <v>0.47091435185185182</v>
-      </c>
-      <c r="C305" t="s">
+      <c r="D321" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C322" t="s">
         <v>39</v>
       </c>
-      <c r="D305" t="s">
-        <v>7</v>
-      </c>
-      <c r="E305" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>18</v>
-      </c>
-      <c r="B306" s="1">
-        <f t="shared" si="5"/>
-        <v>0.4677662037037037</v>
-      </c>
-      <c r="C306" t="s">
+      <c r="D322" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
         <v>39</v>
       </c>
-      <c r="D306" t="s">
-        <v>7</v>
-      </c>
-      <c r="E306" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>6</v>
-      </c>
-      <c r="B307" s="1">
-        <f t="shared" si="5"/>
-        <v>0.46540509259259255</v>
-      </c>
-      <c r="C307" t="s">
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C324" t="s">
         <v>39</v>
       </c>
-      <c r="D307" t="s">
-        <v>7</v>
-      </c>
-      <c r="E307" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>20</v>
-      </c>
-      <c r="B308" s="1">
-        <f t="shared" si="5"/>
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="C308" t="s">
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C325" t="s">
         <v>39</v>
       </c>
-      <c r="D308" t="s">
-        <v>7</v>
-      </c>
-      <c r="E308" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>20</v>
-      </c>
-      <c r="B309" s="1">
-        <f t="shared" si="5"/>
-        <v>0.57210648148148158</v>
-      </c>
-      <c r="C309" t="s">
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C326" t="s">
         <v>40</v>
       </c>
-      <c r="D309" t="s">
-        <v>7</v>
-      </c>
-      <c r="E309" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>19</v>
-      </c>
-      <c r="B310" s="1">
-        <f t="shared" si="5"/>
-        <v>0.52787037037037032</v>
-      </c>
-      <c r="C310" t="s">
+      <c r="D326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C327" t="s">
         <v>40</v>
       </c>
-      <c r="D310" t="s">
-        <v>7</v>
-      </c>
-      <c r="E310" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
-        <v>8</v>
-      </c>
-      <c r="B311" s="1">
-        <f t="shared" si="5"/>
-        <v>0.52899305555555554</v>
-      </c>
-      <c r="C311" t="s">
+      <c r="D327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C328" t="s">
         <v>40</v>
       </c>
-      <c r="D311" t="s">
-        <v>7</v>
-      </c>
-      <c r="E311" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
-        <v>9</v>
-      </c>
-      <c r="B312" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53039351851851857</v>
-      </c>
-      <c r="C312" t="s">
+      <c r="D328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C329" t="s">
         <v>40</v>
       </c>
-      <c r="D312" t="s">
-        <v>7</v>
-      </c>
-      <c r="E312" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
-        <v>10</v>
-      </c>
-      <c r="B313" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53505787037037034</v>
-      </c>
-      <c r="C313" t="s">
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C330" t="s">
         <v>40</v>
       </c>
-      <c r="D313" t="s">
-        <v>7</v>
-      </c>
-      <c r="E313" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
-        <v>11</v>
-      </c>
-      <c r="B314" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53628472222222223</v>
-      </c>
-      <c r="C314" t="s">
+      <c r="D330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
         <v>40</v>
       </c>
-      <c r="D314" t="s">
-        <v>7</v>
-      </c>
-      <c r="E314" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
-        <v>4</v>
-      </c>
-      <c r="B315" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53795138888888894</v>
-      </c>
-      <c r="C315" t="s">
+      <c r="D331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C332" t="s">
         <v>40</v>
       </c>
-      <c r="D315" t="s">
-        <v>7</v>
-      </c>
-      <c r="E315" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
-        <v>12</v>
-      </c>
-      <c r="B316" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53983796296296294</v>
-      </c>
-      <c r="C316" t="s">
+      <c r="D332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C333" t="s">
         <v>40</v>
       </c>
-      <c r="D316" t="s">
-        <v>7</v>
-      </c>
-      <c r="E316" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
-        <v>13</v>
-      </c>
-      <c r="B317" s="1">
-        <f t="shared" si="5"/>
-        <v>0.54365740740740742</v>
-      </c>
-      <c r="C317" t="s">
+      <c r="D333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C334" t="s">
         <v>40</v>
       </c>
-      <c r="D317" t="s">
-        <v>7</v>
-      </c>
-      <c r="E317" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
-        <v>5</v>
-      </c>
-      <c r="B318" s="1">
-        <f t="shared" si="5"/>
-        <v>0.5463541666666667</v>
-      </c>
-      <c r="C318" t="s">
+      <c r="D334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C335" t="s">
         <v>40</v>
       </c>
-      <c r="D318" t="s">
-        <v>7</v>
-      </c>
-      <c r="E318" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>14</v>
-      </c>
-      <c r="B319" s="1">
-        <f t="shared" si="5"/>
-        <v>0.55182870370370374</v>
-      </c>
-      <c r="C319" t="s">
+      <c r="D335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C336" t="s">
         <v>40</v>
       </c>
-      <c r="D319" t="s">
-        <v>7</v>
-      </c>
-      <c r="E319" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>15</v>
-      </c>
-      <c r="B320" s="1">
-        <f t="shared" si="5"/>
-        <v>0.55391203703703706</v>
-      </c>
-      <c r="C320" t="s">
+      <c r="D336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C337" t="s">
         <v>40</v>
       </c>
-      <c r="D320" t="s">
-        <v>7</v>
-      </c>
-      <c r="E320" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>16</v>
-      </c>
-      <c r="B321" s="1">
-        <f t="shared" si="5"/>
-        <v>0.55608796296296292</v>
-      </c>
-      <c r="C321" t="s">
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C338" t="s">
         <v>40</v>
       </c>
-      <c r="D321" t="s">
-        <v>7</v>
-      </c>
-      <c r="E321" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>23</v>
-      </c>
-      <c r="B322" s="1">
-        <f t="shared" ref="B322:B385" si="6">B288+(3/24)</f>
-        <v>0.55831018518518516</v>
-      </c>
-      <c r="C322" t="s">
+      <c r="D338" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C339" t="s">
         <v>40</v>
       </c>
-      <c r="D322" t="s">
-        <v>7</v>
-      </c>
-      <c r="E322" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>17</v>
-      </c>
-      <c r="B323" s="1">
-        <f t="shared" si="6"/>
-        <v>0.55989583333333337</v>
-      </c>
-      <c r="C323" t="s">
+      <c r="D339" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
         <v>40</v>
       </c>
-      <c r="D323" t="s">
-        <v>7</v>
-      </c>
-      <c r="E323" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>18</v>
-      </c>
-      <c r="B324" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5630208333333333</v>
-      </c>
-      <c r="C324" t="s">
+      <c r="D340" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C341" t="s">
         <v>40</v>
       </c>
-      <c r="D324" t="s">
-        <v>7</v>
-      </c>
-      <c r="E324" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>6</v>
-      </c>
-      <c r="B325" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5653703703703703</v>
-      </c>
-      <c r="C325" t="s">
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C342" t="s">
         <v>40</v>
       </c>
-      <c r="D325" t="s">
-        <v>7</v>
-      </c>
-      <c r="E325" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>19</v>
-      </c>
-      <c r="B326" s="1">
-        <f t="shared" si="6"/>
-        <v>0.62788194444444445</v>
-      </c>
-      <c r="C326" t="s">
+      <c r="D342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C343" t="s">
         <v>41</v>
       </c>
-      <c r="D326" t="s">
-        <v>7</v>
-      </c>
-      <c r="E326" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>8</v>
-      </c>
-      <c r="B327" s="1">
-        <f t="shared" si="6"/>
-        <v>0.62708333333333333</v>
-      </c>
-      <c r="C327" t="s">
+      <c r="D343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C344" t="s">
         <v>41</v>
       </c>
-      <c r="D327" t="s">
-        <v>7</v>
-      </c>
-      <c r="E327" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>9</v>
-      </c>
-      <c r="B328" s="1">
-        <f t="shared" si="6"/>
-        <v>0.62564814814814818</v>
-      </c>
-      <c r="C328" t="s">
+      <c r="D344" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C345" t="s">
         <v>41</v>
       </c>
-      <c r="D328" t="s">
-        <v>7</v>
-      </c>
-      <c r="E328" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>10</v>
-      </c>
-      <c r="B329" s="1">
-        <f t="shared" si="6"/>
-        <v>0.62089120370370365</v>
-      </c>
-      <c r="C329" t="s">
+      <c r="D345" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C346" t="s">
         <v>41</v>
       </c>
-      <c r="D329" t="s">
-        <v>7</v>
-      </c>
-      <c r="E329" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>11</v>
-      </c>
-      <c r="B330" s="1">
-        <f t="shared" si="6"/>
-        <v>0.61954861111111115</v>
-      </c>
-      <c r="C330" t="s">
+      <c r="D346" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C347" t="s">
         <v>41</v>
       </c>
-      <c r="D330" t="s">
-        <v>7</v>
-      </c>
-      <c r="E330" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>4</v>
-      </c>
-      <c r="B331" s="1">
-        <f t="shared" si="6"/>
-        <v>0.61775462962962968</v>
-      </c>
-      <c r="C331" t="s">
+      <c r="D347" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C348" t="s">
         <v>41</v>
       </c>
-      <c r="D331" t="s">
-        <v>7</v>
-      </c>
-      <c r="E331" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>12</v>
-      </c>
-      <c r="B332" s="1">
-        <f t="shared" si="6"/>
-        <v>0.61390046296296297</v>
-      </c>
-      <c r="C332" t="s">
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C349" t="s">
         <v>41</v>
       </c>
-      <c r="D332" t="s">
-        <v>7</v>
-      </c>
-      <c r="E332" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>13</v>
-      </c>
-      <c r="B333" s="1">
-        <f t="shared" si="6"/>
-        <v>0.61239583333333336</v>
-      </c>
-      <c r="C333" t="s">
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C350" t="s">
         <v>41</v>
       </c>
-      <c r="D333" t="s">
-        <v>7</v>
-      </c>
-      <c r="E333" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>5</v>
-      </c>
-      <c r="B334" s="1">
-        <f t="shared" si="6"/>
-        <v>0.60946759259259264</v>
-      </c>
-      <c r="C334" t="s">
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C351" t="s">
         <v>41</v>
       </c>
-      <c r="D334" t="s">
-        <v>7</v>
-      </c>
-      <c r="E334" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>14</v>
-      </c>
-      <c r="B335" s="1">
-        <f t="shared" si="6"/>
-        <v>0.60387731481481477</v>
-      </c>
-      <c r="C335" t="s">
+      <c r="D351" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C352" t="s">
         <v>41</v>
       </c>
-      <c r="D335" t="s">
-        <v>7</v>
-      </c>
-      <c r="E335" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>15</v>
-      </c>
-      <c r="B336" s="1">
-        <f t="shared" si="6"/>
-        <v>0.60185185185185186</v>
-      </c>
-      <c r="C336" t="s">
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C353" t="s">
         <v>41</v>
       </c>
-      <c r="D336" t="s">
-        <v>7</v>
-      </c>
-      <c r="E336" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>16</v>
-      </c>
-      <c r="B337" s="1">
-        <f t="shared" si="6"/>
-        <v>0.59972222222222227</v>
-      </c>
-      <c r="C337" t="s">
+      <c r="D353" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C354" t="s">
         <v>41</v>
       </c>
-      <c r="D337" t="s">
-        <v>7</v>
-      </c>
-      <c r="E337" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
-        <v>23</v>
-      </c>
-      <c r="B338" s="1">
-        <f t="shared" si="6"/>
-        <v>0.59751157407407407</v>
-      </c>
-      <c r="C338" t="s">
+      <c r="D354" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C355" t="s">
         <v>41</v>
       </c>
-      <c r="D338" t="s">
-        <v>7</v>
-      </c>
-      <c r="E338" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
-        <v>17</v>
-      </c>
-      <c r="B339" s="1">
-        <f t="shared" si="6"/>
-        <v>0.59591435185185182</v>
-      </c>
-      <c r="C339" t="s">
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C356" t="s">
         <v>41</v>
       </c>
-      <c r="D339" t="s">
-        <v>7</v>
-      </c>
-      <c r="E339" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
-        <v>18</v>
-      </c>
-      <c r="B340" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5927662037037037</v>
-      </c>
-      <c r="C340" t="s">
+      <c r="D356" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C357" t="s">
         <v>41</v>
       </c>
-      <c r="D340" t="s">
-        <v>7</v>
-      </c>
-      <c r="E340" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
-        <v>6</v>
-      </c>
-      <c r="B341" s="1">
-        <f t="shared" si="6"/>
-        <v>0.59040509259259255</v>
-      </c>
-      <c r="C341" t="s">
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C358" t="s">
         <v>41</v>
       </c>
-      <c r="D341" t="s">
-        <v>7</v>
-      </c>
-      <c r="E341" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
-        <v>20</v>
-      </c>
-      <c r="B342" s="1">
-        <f t="shared" si="6"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C342" t="s">
+      <c r="D358" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C359" t="s">
         <v>41</v>
       </c>
-      <c r="D342" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
-        <v>20</v>
-      </c>
-      <c r="B343" s="1">
-        <f t="shared" si="6"/>
-        <v>0.69710648148148158</v>
-      </c>
-      <c r="C343" t="s">
+      <c r="D359" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C360" t="s">
         <v>42</v>
       </c>
-      <c r="D343" t="s">
-        <v>7</v>
-      </c>
-      <c r="E343" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>19</v>
-      </c>
-      <c r="B344" s="1">
-        <f t="shared" si="6"/>
-        <v>0.65287037037037032</v>
-      </c>
-      <c r="C344" t="s">
+      <c r="D360" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C361" t="s">
         <v>42</v>
       </c>
-      <c r="D344" t="s">
-        <v>7</v>
-      </c>
-      <c r="E344" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>8</v>
-      </c>
-      <c r="B345" s="1">
-        <f t="shared" si="6"/>
-        <v>0.65399305555555554</v>
-      </c>
-      <c r="C345" t="s">
+      <c r="D361" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C362" t="s">
         <v>42</v>
       </c>
-      <c r="D345" t="s">
-        <v>7</v>
-      </c>
-      <c r="E345" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
-        <v>9</v>
-      </c>
-      <c r="B346" s="1">
-        <f t="shared" si="6"/>
-        <v>0.65539351851851857</v>
-      </c>
-      <c r="C346" t="s">
+      <c r="D362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C363" t="s">
         <v>42</v>
       </c>
-      <c r="D346" t="s">
-        <v>7</v>
-      </c>
-      <c r="E346" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
-        <v>10</v>
-      </c>
-      <c r="B347" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66005787037037034</v>
-      </c>
-      <c r="C347" t="s">
+      <c r="D363" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C364" t="s">
         <v>42</v>
       </c>
-      <c r="D347" t="s">
-        <v>7</v>
-      </c>
-      <c r="E347" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
-        <v>11</v>
-      </c>
-      <c r="B348" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66128472222222223</v>
-      </c>
-      <c r="C348" t="s">
+      <c r="D364" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C365" t="s">
         <v>42</v>
       </c>
-      <c r="D348" t="s">
-        <v>7</v>
-      </c>
-      <c r="E348" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
-        <v>4</v>
-      </c>
-      <c r="B349" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66295138888888894</v>
-      </c>
-      <c r="C349" t="s">
+      <c r="D365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C366" t="s">
         <v>42</v>
       </c>
-      <c r="D349" t="s">
-        <v>7</v>
-      </c>
-      <c r="E349" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
-        <v>12</v>
-      </c>
-      <c r="B350" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66483796296296294</v>
-      </c>
-      <c r="C350" t="s">
+      <c r="D366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C367" t="s">
         <v>42</v>
       </c>
-      <c r="D350" t="s">
-        <v>7</v>
-      </c>
-      <c r="E350" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
-        <v>13</v>
-      </c>
-      <c r="B351" s="1">
-        <f t="shared" si="6"/>
-        <v>0.66865740740740742</v>
-      </c>
-      <c r="C351" t="s">
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C368" t="s">
         <v>42</v>
       </c>
-      <c r="D351" t="s">
-        <v>7</v>
-      </c>
-      <c r="E351" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
-        <v>5</v>
-      </c>
-      <c r="B352" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6713541666666667</v>
-      </c>
-      <c r="C352" t="s">
+      <c r="D368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C369" t="s">
         <v>42</v>
       </c>
-      <c r="D352" t="s">
-        <v>7</v>
-      </c>
-      <c r="E352" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
-        <v>14</v>
-      </c>
-      <c r="B353" s="1">
-        <f t="shared" si="6"/>
-        <v>0.67682870370370374</v>
-      </c>
-      <c r="C353" t="s">
+      <c r="D369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C370" t="s">
         <v>42</v>
       </c>
-      <c r="D353" t="s">
-        <v>7</v>
-      </c>
-      <c r="E353" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
-        <v>15</v>
-      </c>
-      <c r="B354" s="1">
-        <f t="shared" si="6"/>
-        <v>0.67891203703703706</v>
-      </c>
-      <c r="C354" t="s">
+      <c r="D370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C371" t="s">
         <v>42</v>
       </c>
-      <c r="D354" t="s">
-        <v>7</v>
-      </c>
-      <c r="E354" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
-        <v>16</v>
-      </c>
-      <c r="B355" s="1">
-        <f t="shared" si="6"/>
-        <v>0.68108796296296292</v>
-      </c>
-      <c r="C355" t="s">
+      <c r="D371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C372" t="s">
         <v>42</v>
       </c>
-      <c r="D355" t="s">
-        <v>7</v>
-      </c>
-      <c r="E355" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
-        <v>23</v>
-      </c>
-      <c r="B356" s="1">
-        <f t="shared" si="6"/>
-        <v>0.68331018518518516</v>
-      </c>
-      <c r="C356" t="s">
+      <c r="D372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C373" t="s">
         <v>42</v>
       </c>
-      <c r="D356" t="s">
-        <v>7</v>
-      </c>
-      <c r="E356" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
-        <v>17</v>
-      </c>
-      <c r="B357" s="1">
-        <f t="shared" si="6"/>
-        <v>0.68489583333333337</v>
-      </c>
-      <c r="C357" t="s">
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C374" t="s">
         <v>42</v>
       </c>
-      <c r="D357" t="s">
-        <v>7</v>
-      </c>
-      <c r="E357" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
-        <v>18</v>
-      </c>
-      <c r="B358" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6880208333333333</v>
-      </c>
-      <c r="C358" t="s">
+      <c r="D374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C375" t="s">
         <v>42</v>
       </c>
-      <c r="D358" t="s">
-        <v>7</v>
-      </c>
-      <c r="E358" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
-        <v>6</v>
-      </c>
-      <c r="B359" s="1">
-        <f t="shared" si="6"/>
-        <v>0.6903703703703703</v>
-      </c>
-      <c r="C359" t="s">
+      <c r="D375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C376" t="s">
         <v>42</v>
       </c>
-      <c r="D359" t="s">
-        <v>7</v>
-      </c>
-      <c r="E359" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
-        <v>19</v>
-      </c>
-      <c r="B360" s="1">
-        <f t="shared" si="6"/>
-        <v>0.75288194444444445</v>
-      </c>
-      <c r="C360" t="s">
+      <c r="D376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C377" t="s">
         <v>43</v>
       </c>
-      <c r="D360" t="s">
-        <v>7</v>
-      </c>
-      <c r="E360" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
-        <v>8</v>
-      </c>
-      <c r="B361" s="1">
-        <f t="shared" si="6"/>
-        <v>0.75208333333333333</v>
-      </c>
-      <c r="C361" t="s">
+      <c r="D377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C378" t="s">
         <v>43</v>
       </c>
-      <c r="D361" t="s">
-        <v>7</v>
-      </c>
-      <c r="E361" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
-        <v>9</v>
-      </c>
-      <c r="B362" s="1">
-        <f t="shared" si="6"/>
-        <v>0.75064814814814818</v>
-      </c>
-      <c r="C362" t="s">
+      <c r="D378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C379" t="s">
         <v>43</v>
       </c>
-      <c r="D362" t="s">
-        <v>7</v>
-      </c>
-      <c r="E362" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
-        <v>10</v>
-      </c>
-      <c r="B363" s="1">
-        <f t="shared" si="6"/>
-        <v>0.74589120370370365</v>
-      </c>
-      <c r="C363" t="s">
+      <c r="D379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C380" t="s">
         <v>43</v>
       </c>
-      <c r="D363" t="s">
-        <v>7</v>
-      </c>
-      <c r="E363" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
-        <v>11</v>
-      </c>
-      <c r="B364" s="1">
-        <f t="shared" si="6"/>
-        <v>0.74454861111111115</v>
-      </c>
-      <c r="C364" t="s">
+      <c r="D380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C381" t="s">
         <v>43</v>
       </c>
-      <c r="D364" t="s">
-        <v>7</v>
-      </c>
-      <c r="E364" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
-        <v>4</v>
-      </c>
-      <c r="B365" s="1">
-        <f t="shared" si="6"/>
-        <v>0.74275462962962968</v>
-      </c>
-      <c r="C365" t="s">
+      <c r="D381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C382" t="s">
         <v>43</v>
       </c>
-      <c r="D365" t="s">
-        <v>7</v>
-      </c>
-      <c r="E365" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
-        <v>12</v>
-      </c>
-      <c r="B366" s="1">
-        <f t="shared" si="6"/>
-        <v>0.73890046296296297</v>
-      </c>
-      <c r="C366" t="s">
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C383" t="s">
         <v>43</v>
       </c>
-      <c r="D366" t="s">
-        <v>7</v>
-      </c>
-      <c r="E366" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
-        <v>13</v>
-      </c>
-      <c r="B367" s="1">
-        <f t="shared" si="6"/>
-        <v>0.73739583333333336</v>
-      </c>
-      <c r="C367" t="s">
+      <c r="D383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C384" t="s">
         <v>43</v>
       </c>
-      <c r="D367" t="s">
-        <v>7</v>
-      </c>
-      <c r="E367" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
-        <v>5</v>
-      </c>
-      <c r="B368" s="1">
-        <f t="shared" si="6"/>
-        <v>0.73446759259259264</v>
-      </c>
-      <c r="C368" t="s">
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C385" t="s">
         <v>43</v>
       </c>
-      <c r="D368" t="s">
-        <v>7</v>
-      </c>
-      <c r="E368" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
-        <v>14</v>
-      </c>
-      <c r="B369" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72887731481481477</v>
-      </c>
-      <c r="C369" t="s">
+      <c r="D385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C386" t="s">
         <v>43</v>
       </c>
-      <c r="D369" t="s">
-        <v>7</v>
-      </c>
-      <c r="E369" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
-        <v>15</v>
-      </c>
-      <c r="B370" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72685185185185186</v>
-      </c>
-      <c r="C370" t="s">
+      <c r="D386" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C387" t="s">
         <v>43</v>
       </c>
-      <c r="D370" t="s">
-        <v>7</v>
-      </c>
-      <c r="E370" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
-        <v>16</v>
-      </c>
-      <c r="B371" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72472222222222227</v>
-      </c>
-      <c r="C371" t="s">
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C388" t="s">
         <v>43</v>
       </c>
-      <c r="D371" t="s">
-        <v>7</v>
-      </c>
-      <c r="E371" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
-        <v>23</v>
-      </c>
-      <c r="B372" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72251157407407407</v>
-      </c>
-      <c r="C372" t="s">
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C389" t="s">
         <v>43</v>
       </c>
-      <c r="D372" t="s">
-        <v>7</v>
-      </c>
-      <c r="E372" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
-        <v>17</v>
-      </c>
-      <c r="B373" s="1">
-        <f t="shared" si="6"/>
-        <v>0.72091435185185182</v>
-      </c>
-      <c r="C373" t="s">
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C390" t="s">
         <v>43</v>
       </c>
-      <c r="D373" t="s">
-        <v>7</v>
-      </c>
-      <c r="E373" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
-        <v>18</v>
-      </c>
-      <c r="B374" s="1">
-        <f t="shared" si="6"/>
-        <v>0.7177662037037037</v>
-      </c>
-      <c r="C374" t="s">
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C391" t="s">
         <v>43</v>
       </c>
-      <c r="D374" t="s">
-        <v>7</v>
-      </c>
-      <c r="E374" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
-        <v>6</v>
-      </c>
-      <c r="B375" s="1">
-        <f t="shared" si="6"/>
-        <v>0.71540509259259255</v>
-      </c>
-      <c r="C375" t="s">
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C392" t="s">
         <v>43</v>
       </c>
-      <c r="D375" t="s">
-        <v>7</v>
-      </c>
-      <c r="E375" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
-        <v>20</v>
-      </c>
-      <c r="B376" s="1">
-        <f t="shared" si="6"/>
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C376" t="s">
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C393" t="s">
         <v>43</v>
       </c>
-      <c r="D376" t="s">
-        <v>7</v>
-      </c>
-      <c r="E376" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
-        <v>20</v>
-      </c>
-      <c r="B377" s="1">
-        <f t="shared" si="6"/>
-        <v>0.82210648148148158</v>
-      </c>
-      <c r="C377" t="s">
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C394" t="s">
         <v>44</v>
       </c>
-      <c r="D377" t="s">
-        <v>7</v>
-      </c>
-      <c r="E377" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
-        <v>19</v>
-      </c>
-      <c r="B378" s="1">
-        <f t="shared" si="6"/>
-        <v>0.77787037037037032</v>
-      </c>
-      <c r="C378" t="s">
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C395" t="s">
         <v>44</v>
       </c>
-      <c r="D378" t="s">
-        <v>7</v>
-      </c>
-      <c r="E378" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
-        <v>8</v>
-      </c>
-      <c r="B379" s="1">
-        <f t="shared" si="6"/>
-        <v>0.77899305555555554</v>
-      </c>
-      <c r="C379" t="s">
+      <c r="D395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C396" t="s">
         <v>44</v>
       </c>
-      <c r="D379" t="s">
-        <v>7</v>
-      </c>
-      <c r="E379" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
-        <v>9</v>
-      </c>
-      <c r="B380" s="1">
-        <f t="shared" si="6"/>
-        <v>0.78039351851851857</v>
-      </c>
-      <c r="C380" t="s">
+      <c r="D396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C397" t="s">
         <v>44</v>
       </c>
-      <c r="D380" t="s">
-        <v>7</v>
-      </c>
-      <c r="E380" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
-        <v>10</v>
-      </c>
-      <c r="B381" s="1">
-        <f t="shared" si="6"/>
-        <v>0.78505787037037034</v>
-      </c>
-      <c r="C381" t="s">
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C398" t="s">
         <v>44</v>
       </c>
-      <c r="D381" t="s">
-        <v>7</v>
-      </c>
-      <c r="E381" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
-        <v>11</v>
-      </c>
-      <c r="B382" s="1">
-        <f t="shared" si="6"/>
-        <v>0.78628472222222223</v>
-      </c>
-      <c r="C382" t="s">
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C399" t="s">
         <v>44</v>
       </c>
-      <c r="D382" t="s">
-        <v>7</v>
-      </c>
-      <c r="E382" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
-        <v>4</v>
-      </c>
-      <c r="B383" s="1">
-        <f t="shared" si="6"/>
-        <v>0.78795138888888894</v>
-      </c>
-      <c r="C383" t="s">
+      <c r="D399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C400" t="s">
         <v>44</v>
       </c>
-      <c r="D383" t="s">
-        <v>7</v>
-      </c>
-      <c r="E383" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
-        <v>12</v>
-      </c>
-      <c r="B384" s="1">
-        <f t="shared" si="6"/>
-        <v>0.78983796296296294</v>
-      </c>
-      <c r="C384" t="s">
+      <c r="D400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C401" t="s">
         <v>44</v>
       </c>
-      <c r="D384" t="s">
-        <v>7</v>
-      </c>
-      <c r="E384" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
-        <v>13</v>
-      </c>
-      <c r="B385" s="1">
-        <f t="shared" si="6"/>
-        <v>0.79365740740740742</v>
-      </c>
-      <c r="C385" t="s">
+      <c r="D401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C402" t="s">
         <v>44</v>
       </c>
-      <c r="D385" t="s">
-        <v>7</v>
-      </c>
-      <c r="E385" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
-        <v>5</v>
-      </c>
-      <c r="B386" s="1">
-        <f t="shared" ref="B386:B427" si="7">B352+(3/24)</f>
-        <v>0.7963541666666667</v>
-      </c>
-      <c r="C386" t="s">
+      <c r="D402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C403" t="s">
         <v>44</v>
       </c>
-      <c r="D386" t="s">
-        <v>7</v>
-      </c>
-      <c r="E386" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
-        <v>14</v>
-      </c>
-      <c r="B387" s="1">
-        <f t="shared" si="7"/>
-        <v>0.80182870370370374</v>
-      </c>
-      <c r="C387" t="s">
+      <c r="D403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C404" t="s">
         <v>44</v>
       </c>
-      <c r="D387" t="s">
-        <v>7</v>
-      </c>
-      <c r="E387" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
-        <v>15</v>
-      </c>
-      <c r="B388" s="1">
-        <f t="shared" si="7"/>
-        <v>0.80391203703703706</v>
-      </c>
-      <c r="C388" t="s">
+      <c r="D404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C405" t="s">
         <v>44</v>
       </c>
-      <c r="D388" t="s">
-        <v>7</v>
-      </c>
-      <c r="E388" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
-        <v>16</v>
-      </c>
-      <c r="B389" s="1">
-        <f t="shared" si="7"/>
-        <v>0.80608796296296292</v>
-      </c>
-      <c r="C389" t="s">
+      <c r="D405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C406" t="s">
         <v>44</v>
       </c>
-      <c r="D389" t="s">
-        <v>7</v>
-      </c>
-      <c r="E389" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
-        <v>23</v>
-      </c>
-      <c r="B390" s="1">
-        <f t="shared" si="7"/>
-        <v>0.80831018518518516</v>
-      </c>
-      <c r="C390" t="s">
+      <c r="D406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C407" t="s">
         <v>44</v>
       </c>
-      <c r="D390" t="s">
-        <v>7</v>
-      </c>
-      <c r="E390" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
-        <v>17</v>
-      </c>
-      <c r="B391" s="1">
-        <f t="shared" si="7"/>
-        <v>0.80989583333333337</v>
-      </c>
-      <c r="C391" t="s">
+      <c r="D407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C408" t="s">
         <v>44</v>
       </c>
-      <c r="D391" t="s">
-        <v>7</v>
-      </c>
-      <c r="E391" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
-        <v>18</v>
-      </c>
-      <c r="B392" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8130208333333333</v>
-      </c>
-      <c r="C392" t="s">
+      <c r="D408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C409" t="s">
         <v>44</v>
       </c>
-      <c r="D392" t="s">
-        <v>7</v>
-      </c>
-      <c r="E392" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
-        <v>6</v>
-      </c>
-      <c r="B393" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8153703703703703</v>
-      </c>
-      <c r="C393" t="s">
+      <c r="D409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C410" t="s">
         <v>44</v>
       </c>
-      <c r="D393" t="s">
-        <v>7</v>
-      </c>
-      <c r="E393" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
-        <v>19</v>
-      </c>
-      <c r="B394" s="1">
-        <f t="shared" si="7"/>
-        <v>0.87788194444444445</v>
-      </c>
-      <c r="C394" t="s">
+      <c r="D410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C411" t="s">
         <v>45</v>
       </c>
-      <c r="D394" t="s">
-        <v>7</v>
-      </c>
-      <c r="E394" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
-        <v>8</v>
-      </c>
-      <c r="B395" s="1">
-        <f t="shared" si="7"/>
-        <v>0.87708333333333333</v>
-      </c>
-      <c r="C395" t="s">
+      <c r="D411" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C412" t="s">
         <v>45</v>
       </c>
-      <c r="D395" t="s">
-        <v>7</v>
-      </c>
-      <c r="E395" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
-        <v>9</v>
-      </c>
-      <c r="B396" s="1">
-        <f t="shared" si="7"/>
-        <v>0.87564814814814818</v>
-      </c>
-      <c r="C396" t="s">
+      <c r="D412" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C413" t="s">
         <v>45</v>
       </c>
-      <c r="D396" t="s">
-        <v>7</v>
-      </c>
-      <c r="E396" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
-        <v>10</v>
-      </c>
-      <c r="B397" s="1">
-        <f t="shared" si="7"/>
-        <v>0.87089120370370365</v>
-      </c>
-      <c r="C397" t="s">
+      <c r="D413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C414" t="s">
         <v>45</v>
       </c>
-      <c r="D397" t="s">
-        <v>7</v>
-      </c>
-      <c r="E397" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
-        <v>11</v>
-      </c>
-      <c r="B398" s="1">
-        <f t="shared" si="7"/>
-        <v>0.86954861111111115</v>
-      </c>
-      <c r="C398" t="s">
+      <c r="D414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C415" t="s">
         <v>45</v>
       </c>
-      <c r="D398" t="s">
-        <v>7</v>
-      </c>
-      <c r="E398" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
-        <v>4</v>
-      </c>
-      <c r="B399" s="1">
-        <f t="shared" si="7"/>
-        <v>0.86775462962962968</v>
-      </c>
-      <c r="C399" t="s">
+      <c r="D415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C416" t="s">
         <v>45</v>
       </c>
-      <c r="D399" t="s">
-        <v>7</v>
-      </c>
-      <c r="E399" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
-        <v>12</v>
-      </c>
-      <c r="B400" s="1">
-        <f t="shared" si="7"/>
-        <v>0.86390046296296297</v>
-      </c>
-      <c r="C400" t="s">
+      <c r="D416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C417" t="s">
         <v>45</v>
       </c>
-      <c r="D400" t="s">
-        <v>7</v>
-      </c>
-      <c r="E400" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
-        <v>13</v>
-      </c>
-      <c r="B401" s="1">
-        <f t="shared" si="7"/>
-        <v>0.86239583333333336</v>
-      </c>
-      <c r="C401" t="s">
+      <c r="D417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C418" t="s">
         <v>45</v>
       </c>
-      <c r="D401" t="s">
-        <v>7</v>
-      </c>
-      <c r="E401" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
-        <v>5</v>
-      </c>
-      <c r="B402" s="1">
-        <f t="shared" si="7"/>
-        <v>0.85946759259259264</v>
-      </c>
-      <c r="C402" t="s">
+      <c r="D418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C419" t="s">
         <v>45</v>
       </c>
-      <c r="D402" t="s">
-        <v>7</v>
-      </c>
-      <c r="E402" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
-        <v>14</v>
-      </c>
-      <c r="B403" s="1">
-        <f t="shared" si="7"/>
-        <v>0.85387731481481477</v>
-      </c>
-      <c r="C403" t="s">
+      <c r="D419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C420" t="s">
         <v>45</v>
       </c>
-      <c r="D403" t="s">
-        <v>7</v>
-      </c>
-      <c r="E403" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
-        <v>15</v>
-      </c>
-      <c r="B404" s="1">
-        <f t="shared" si="7"/>
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="C404" t="s">
+      <c r="D420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C421" t="s">
         <v>45</v>
       </c>
-      <c r="D404" t="s">
-        <v>7</v>
-      </c>
-      <c r="E404" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
-        <v>16</v>
-      </c>
-      <c r="B405" s="1">
-        <f t="shared" si="7"/>
-        <v>0.84972222222222227</v>
-      </c>
-      <c r="C405" t="s">
+      <c r="D421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C422" t="s">
         <v>45</v>
       </c>
-      <c r="D405" t="s">
-        <v>7</v>
-      </c>
-      <c r="E405" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
-        <v>23</v>
-      </c>
-      <c r="B406" s="1">
-        <f t="shared" si="7"/>
-        <v>0.84751157407407407</v>
-      </c>
-      <c r="C406" t="s">
+      <c r="D422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C423" t="s">
         <v>45</v>
       </c>
-      <c r="D406" t="s">
-        <v>7</v>
-      </c>
-      <c r="E406" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
-        <v>17</v>
-      </c>
-      <c r="B407" s="1">
-        <f t="shared" si="7"/>
-        <v>0.84591435185185182</v>
-      </c>
-      <c r="C407" t="s">
+      <c r="D423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C424" t="s">
         <v>45</v>
       </c>
-      <c r="D407" t="s">
-        <v>7</v>
-      </c>
-      <c r="E407" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
-        <v>18</v>
-      </c>
-      <c r="B408" s="1">
-        <f t="shared" si="7"/>
-        <v>0.8427662037037037</v>
-      </c>
-      <c r="C408" t="s">
+      <c r="D424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C425" t="s">
         <v>45</v>
       </c>
-      <c r="D408" t="s">
-        <v>7</v>
-      </c>
-      <c r="E408" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
-        <v>6</v>
-      </c>
-      <c r="B409" s="1">
-        <f t="shared" si="7"/>
-        <v>0.84040509259259255</v>
-      </c>
-      <c r="C409" t="s">
+      <c r="D425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C426" t="s">
         <v>45</v>
       </c>
-      <c r="D409" t="s">
-        <v>7</v>
-      </c>
-      <c r="E409" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
-        <v>20</v>
-      </c>
-      <c r="B410" s="1">
-        <f t="shared" si="7"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C410" t="s">
+      <c r="D426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C427" t="s">
         <v>45</v>
       </c>
-      <c r="D410" t="s">
-        <v>7</v>
-      </c>
-      <c r="E410" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
-        <v>20</v>
-      </c>
-      <c r="B411" s="1">
-        <f t="shared" si="7"/>
-        <v>0.94710648148148158</v>
-      </c>
-      <c r="C411" t="s">
-        <v>46</v>
-      </c>
-      <c r="D411" t="s">
-        <v>7</v>
-      </c>
-      <c r="E411" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
-        <v>19</v>
-      </c>
-      <c r="B412" s="1">
-        <f t="shared" si="7"/>
-        <v>0.90287037037037032</v>
-      </c>
-      <c r="C412" t="s">
-        <v>46</v>
-      </c>
-      <c r="D412" t="s">
-        <v>7</v>
-      </c>
-      <c r="E412" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
-        <v>8</v>
-      </c>
-      <c r="B413" s="1">
-        <f t="shared" si="7"/>
-        <v>0.90399305555555554</v>
-      </c>
-      <c r="C413" t="s">
-        <v>46</v>
-      </c>
-      <c r="D413" t="s">
-        <v>7</v>
-      </c>
-      <c r="E413" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
-        <v>9</v>
-      </c>
-      <c r="B414" s="1">
-        <f t="shared" si="7"/>
-        <v>0.90539351851851857</v>
-      </c>
-      <c r="C414" t="s">
-        <v>46</v>
-      </c>
-      <c r="D414" t="s">
-        <v>7</v>
-      </c>
-      <c r="E414" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
-        <v>10</v>
-      </c>
-      <c r="B415" s="1">
-        <f t="shared" si="7"/>
-        <v>0.91005787037037034</v>
-      </c>
-      <c r="C415" t="s">
-        <v>46</v>
-      </c>
-      <c r="D415" t="s">
-        <v>7</v>
-      </c>
-      <c r="E415" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
-        <v>11</v>
-      </c>
-      <c r="B416" s="1">
-        <f t="shared" si="7"/>
-        <v>0.91128472222222223</v>
-      </c>
-      <c r="C416" t="s">
-        <v>46</v>
-      </c>
-      <c r="D416" t="s">
-        <v>7</v>
-      </c>
-      <c r="E416" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
-        <v>4</v>
-      </c>
-      <c r="B417" s="1">
-        <f t="shared" si="7"/>
-        <v>0.91295138888888894</v>
-      </c>
-      <c r="C417" t="s">
-        <v>46</v>
-      </c>
-      <c r="D417" t="s">
-        <v>7</v>
-      </c>
-      <c r="E417" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
-        <v>12</v>
-      </c>
-      <c r="B418" s="1">
-        <f t="shared" si="7"/>
-        <v>0.91483796296296294</v>
-      </c>
-      <c r="C418" t="s">
-        <v>46</v>
-      </c>
-      <c r="D418" t="s">
-        <v>7</v>
-      </c>
-      <c r="E418" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
-        <v>13</v>
-      </c>
-      <c r="B419" s="1">
-        <f t="shared" si="7"/>
-        <v>0.91865740740740742</v>
-      </c>
-      <c r="C419" t="s">
-        <v>46</v>
-      </c>
-      <c r="D419" t="s">
-        <v>7</v>
-      </c>
-      <c r="E419" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
-        <v>5</v>
-      </c>
-      <c r="B420" s="1">
-        <f t="shared" si="7"/>
-        <v>0.9213541666666667</v>
-      </c>
-      <c r="C420" t="s">
-        <v>46</v>
-      </c>
-      <c r="D420" t="s">
-        <v>7</v>
-      </c>
-      <c r="E420" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
-        <v>14</v>
-      </c>
-      <c r="B421" s="1">
-        <f t="shared" si="7"/>
-        <v>0.92682870370370374</v>
-      </c>
-      <c r="C421" t="s">
-        <v>46</v>
-      </c>
-      <c r="D421" t="s">
-        <v>7</v>
-      </c>
-      <c r="E421" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
-        <v>15</v>
-      </c>
-      <c r="B422" s="1">
-        <f t="shared" si="7"/>
-        <v>0.92891203703703706</v>
-      </c>
-      <c r="C422" t="s">
-        <v>46</v>
-      </c>
-      <c r="D422" t="s">
-        <v>7</v>
-      </c>
-      <c r="E422" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
-        <v>16</v>
-      </c>
-      <c r="B423" s="1">
-        <f t="shared" si="7"/>
-        <v>0.93108796296296292</v>
-      </c>
-      <c r="C423" t="s">
-        <v>46</v>
-      </c>
-      <c r="D423" t="s">
-        <v>7</v>
-      </c>
-      <c r="E423" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
-        <v>23</v>
-      </c>
-      <c r="B424" s="1">
-        <f t="shared" si="7"/>
-        <v>0.93331018518518516</v>
-      </c>
-      <c r="C424" t="s">
-        <v>46</v>
-      </c>
-      <c r="D424" t="s">
-        <v>7</v>
-      </c>
-      <c r="E424" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
-        <v>17</v>
-      </c>
-      <c r="B425" s="1">
-        <f t="shared" si="7"/>
-        <v>0.93489583333333337</v>
-      </c>
-      <c r="C425" t="s">
-        <v>46</v>
-      </c>
-      <c r="D425" t="s">
-        <v>7</v>
-      </c>
-      <c r="E425" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
-        <v>18</v>
-      </c>
-      <c r="B426" s="1">
-        <f t="shared" si="7"/>
-        <v>0.9380208333333333</v>
-      </c>
-      <c r="C426" t="s">
-        <v>46</v>
-      </c>
-      <c r="D426" t="s">
-        <v>7</v>
-      </c>
-      <c r="E426" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
-        <v>6</v>
-      </c>
-      <c r="B427" s="1">
-        <f t="shared" si="7"/>
-        <v>0.9403703703703703</v>
-      </c>
-      <c r="C427" t="s">
-        <v>46</v>
-      </c>
       <c r="D427" t="s">
         <v>7</v>
-      </c>
-      <c r="E427" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/dades/1S1.xlsx
+++ b/dades/1S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD53DDFB-9A57-4276-A8E1-E47CC9D65C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CA3E23-6EB3-446A-9D12-8D383BB23BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4749" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="172">
   <si>
     <t>departure</t>
   </si>
@@ -331,6 +331,228 @@
   <si>
     <t>R1A.072</t>
   </si>
+  <si>
+    <t>R9A</t>
+  </si>
+  <si>
+    <t>R9A.001</t>
+  </si>
+  <si>
+    <t>Sant Vicenç de Calders</t>
+  </si>
+  <si>
+    <t>R9A.002</t>
+  </si>
+  <si>
+    <t>R9A.003</t>
+  </si>
+  <si>
+    <t>R9A.004</t>
+  </si>
+  <si>
+    <t>R9A.005</t>
+  </si>
+  <si>
+    <t>R9A.006</t>
+  </si>
+  <si>
+    <t>R9A.007</t>
+  </si>
+  <si>
+    <t>R9A.008</t>
+  </si>
+  <si>
+    <t>R9A.009</t>
+  </si>
+  <si>
+    <t>R9A.010</t>
+  </si>
+  <si>
+    <t>R9A.011</t>
+  </si>
+  <si>
+    <t>R9A.012</t>
+  </si>
+  <si>
+    <t>R9A.013</t>
+  </si>
+  <si>
+    <t>R9A.014</t>
+  </si>
+  <si>
+    <t>R9A.015</t>
+  </si>
+  <si>
+    <t>R9A.016</t>
+  </si>
+  <si>
+    <t>R9A.017</t>
+  </si>
+  <si>
+    <t>R9A.018</t>
+  </si>
+  <si>
+    <t>R9A.019</t>
+  </si>
+  <si>
+    <t>R9A.020</t>
+  </si>
+  <si>
+    <t>R9A.021</t>
+  </si>
+  <si>
+    <t>R9A.022</t>
+  </si>
+  <si>
+    <t>R9A.023</t>
+  </si>
+  <si>
+    <t>R9A.024</t>
+  </si>
+  <si>
+    <t>R9A.025</t>
+  </si>
+  <si>
+    <t>R9A.026</t>
+  </si>
+  <si>
+    <t>R9A.027</t>
+  </si>
+  <si>
+    <t>R9A.028</t>
+  </si>
+  <si>
+    <t>R9A.029</t>
+  </si>
+  <si>
+    <t>R9A.030</t>
+  </si>
+  <si>
+    <t>R9A.031</t>
+  </si>
+  <si>
+    <t>R9A.032</t>
+  </si>
+  <si>
+    <t>R9A.033</t>
+  </si>
+  <si>
+    <t>R9A.034</t>
+  </si>
+  <si>
+    <t>R9A.035</t>
+  </si>
+  <si>
+    <t>R9A.036</t>
+  </si>
+  <si>
+    <t>R9A.037</t>
+  </si>
+  <si>
+    <t>R9A.038</t>
+  </si>
+  <si>
+    <t>R9A.039</t>
+  </si>
+  <si>
+    <t>R9A.040</t>
+  </si>
+  <si>
+    <t>R9A.041</t>
+  </si>
+  <si>
+    <t>R9A.042</t>
+  </si>
+  <si>
+    <t>R9A.043</t>
+  </si>
+  <si>
+    <t>R9A.044</t>
+  </si>
+  <si>
+    <t>R9A.045</t>
+  </si>
+  <si>
+    <t>R9A.046</t>
+  </si>
+  <si>
+    <t>R9A.047</t>
+  </si>
+  <si>
+    <t>R9A.048</t>
+  </si>
+  <si>
+    <t>R9A.049</t>
+  </si>
+  <si>
+    <t>R9A.050</t>
+  </si>
+  <si>
+    <t>R9A.051</t>
+  </si>
+  <si>
+    <t>R9A.052</t>
+  </si>
+  <si>
+    <t>R9A.053</t>
+  </si>
+  <si>
+    <t>R9A.054</t>
+  </si>
+  <si>
+    <t>R9A.055</t>
+  </si>
+  <si>
+    <t>R9A.056</t>
+  </si>
+  <si>
+    <t>R9A.057</t>
+  </si>
+  <si>
+    <t>R9A.058</t>
+  </si>
+  <si>
+    <t>R9A.059</t>
+  </si>
+  <si>
+    <t>R9A.060</t>
+  </si>
+  <si>
+    <t>R9A.061</t>
+  </si>
+  <si>
+    <t>R9A.062</t>
+  </si>
+  <si>
+    <t>R9A.063</t>
+  </si>
+  <si>
+    <t>R9A.064</t>
+  </si>
+  <si>
+    <t>R9A.065</t>
+  </si>
+  <si>
+    <t>R9A.066</t>
+  </si>
+  <si>
+    <t>R9A.067</t>
+  </si>
+  <si>
+    <t>R9A.068</t>
+  </si>
+  <si>
+    <t>R9A.069</t>
+  </si>
+  <si>
+    <t>R9A.070</t>
+  </si>
+  <si>
+    <t>R9A.071</t>
+  </si>
+  <si>
+    <t>R9A.072</t>
+  </si>
 </sst>
 </file>
 
@@ -386,12 +608,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1243"/>
+  <dimension ref="A1:E1603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1205" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1238" sqref="D1238"/>
+    <sheetView tabSelected="1" topLeftCell="A1276" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1309" sqref="B1309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4709,7 +4930,7 @@
       <c r="A229" t="s">
         <v>15</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229" s="1">
         <v>0.22472222222222224</v>
       </c>
       <c r="C229" s="2" t="s">
@@ -12547,7 +12768,7 @@
         <v>19</v>
       </c>
       <c r="B666" s="1">
-        <f t="shared" ref="B633:B696" si="14">B258+(1/24)</f>
+        <f t="shared" ref="B666:B696" si="14">B258+(1/24)</f>
         <v>0.37500000000000006</v>
       </c>
       <c r="C666" t="s">
@@ -22944,6 +23165,6946 @@
       </c>
       <c r="E1243" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>0.21329861111111112</v>
+      </c>
+      <c r="C1244" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>0.21464120370370368</v>
+      </c>
+      <c r="C1245" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>0.22009259259259259</v>
+      </c>
+      <c r="C1246" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>0.22083333333333333</v>
+      </c>
+      <c r="C1247" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>0.22164351851851852</v>
+      </c>
+      <c r="C1248" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>0.3225810185185185</v>
+      </c>
+      <c r="C1249" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>0.32383101851851853</v>
+      </c>
+      <c r="C1250" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>0.32523148148148145</v>
+      </c>
+      <c r="C1251" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>0.33001157407407405</v>
+      </c>
+      <c r="C1252" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>0.33094907407407409</v>
+      </c>
+      <c r="C1253" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1254" s="1">
+        <f>B1244+(3/24)</f>
+        <v>0.33829861111111115</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1255" s="1">
+        <f t="shared" ref="B1255:B1303" si="26">B1245+(3/24)</f>
+        <v>0.33964120370370365</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1256" s="1">
+        <f t="shared" si="26"/>
+        <v>0.34509259259259262</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1257" s="1">
+        <f t="shared" si="26"/>
+        <v>0.34583333333333333</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1258" s="1">
+        <f t="shared" si="26"/>
+        <v>0.34664351851851849</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1259" s="1">
+        <f t="shared" si="26"/>
+        <v>0.4475810185185185</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1260" s="1">
+        <f t="shared" si="26"/>
+        <v>0.44883101851851853</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1261" s="1">
+        <f t="shared" si="26"/>
+        <v>0.45023148148148145</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1262" s="1">
+        <f t="shared" si="26"/>
+        <v>0.45501157407407405</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1263" s="1">
+        <f t="shared" si="26"/>
+        <v>0.45594907407407409</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1264" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46329861111111115</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1265" s="1">
+        <f t="shared" si="26"/>
+        <v>0.46464120370370365</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1266" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47009259259259262</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1267" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47083333333333333</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1268" s="1">
+        <f t="shared" si="26"/>
+        <v>0.47164351851851849</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1269" s="1">
+        <f t="shared" si="26"/>
+        <v>0.5725810185185185</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1270" s="1">
+        <f t="shared" si="26"/>
+        <v>0.57383101851851848</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1271" s="1">
+        <f t="shared" si="26"/>
+        <v>0.5752314814814814</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1272" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58001157407407411</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1273" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58094907407407415</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1274" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58829861111111115</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1275" s="1">
+        <f t="shared" si="26"/>
+        <v>0.58964120370370365</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1276" s="1">
+        <f t="shared" si="26"/>
+        <v>0.59509259259259262</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1277" s="1">
+        <f t="shared" si="26"/>
+        <v>0.59583333333333333</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1278" s="1">
+        <f t="shared" si="26"/>
+        <v>0.59664351851851849</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1279" s="1">
+        <f t="shared" si="26"/>
+        <v>0.6975810185185185</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1280" s="1">
+        <f t="shared" si="26"/>
+        <v>0.69883101851851848</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1281" s="1">
+        <f t="shared" si="26"/>
+        <v>0.7002314814814814</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1282" s="1">
+        <f t="shared" si="26"/>
+        <v>0.70501157407407411</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1283" s="1">
+        <f t="shared" si="26"/>
+        <v>0.70594907407407415</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1284" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71329861111111115</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1285" s="1">
+        <f t="shared" si="26"/>
+        <v>0.71464120370370365</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1286" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72009259259259262</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1287" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1288" s="1">
+        <f t="shared" si="26"/>
+        <v>0.72164351851851849</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1289" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8225810185185185</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1290" s="1">
+        <f t="shared" si="26"/>
+        <v>0.82383101851851848</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1291" s="1">
+        <f t="shared" si="26"/>
+        <v>0.8252314814814814</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1292" s="1">
+        <f t="shared" si="26"/>
+        <v>0.83001157407407411</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1293" s="1">
+        <f t="shared" si="26"/>
+        <v>0.83094907407407415</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1294" s="1">
+        <f t="shared" si="26"/>
+        <v>0.83829861111111115</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1295" s="1">
+        <f t="shared" si="26"/>
+        <v>0.83964120370370365</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1296" s="1">
+        <f t="shared" si="26"/>
+        <v>0.84509259259259262</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1297" s="1">
+        <f t="shared" si="26"/>
+        <v>0.84583333333333333</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1298" s="1">
+        <f t="shared" si="26"/>
+        <v>0.84664351851851849</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1299" s="1">
+        <f t="shared" si="26"/>
+        <v>0.9475810185185185</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1300" s="1">
+        <f t="shared" si="26"/>
+        <v>0.94883101851851848</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1301" s="1">
+        <f t="shared" si="26"/>
+        <v>0.9502314814814814</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1302" s="1">
+        <f t="shared" si="26"/>
+        <v>0.95501157407407411</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1303" s="1">
+        <f t="shared" si="26"/>
+        <v>0.95594907407407415</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>0.2600810185185185</v>
+      </c>
+      <c r="C1304" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>0.26133101851851853</v>
+      </c>
+      <c r="C1305" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>0.26273148148148145</v>
+      </c>
+      <c r="C1306" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>0.26751157407407405</v>
+      </c>
+      <c r="C1307" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>0.26844907407407409</v>
+      </c>
+      <c r="C1308" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>0.27579861111111109</v>
+      </c>
+      <c r="C1309" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>0.27714120370370371</v>
+      </c>
+      <c r="C1310" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>0.28189814814814812</v>
+      </c>
+      <c r="C1311" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="C1312" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>0.28414351851851855</v>
+      </c>
+      <c r="C1313" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1314" s="1">
+        <f>B1304+(3/24)</f>
+        <v>0.3850810185185185</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1315" s="1">
+        <f t="shared" ref="B1315:B1378" si="27">B1305+(3/24)</f>
+        <v>0.38633101851851853</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1316" s="1">
+        <f t="shared" si="27"/>
+        <v>0.38773148148148145</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1317" s="1">
+        <f t="shared" si="27"/>
+        <v>0.39251157407407405</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1318" s="1">
+        <f t="shared" si="27"/>
+        <v>0.39344907407407409</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1319" s="1">
+        <f t="shared" si="27"/>
+        <v>0.40079861111111109</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1320" s="1">
+        <f t="shared" si="27"/>
+        <v>0.40214120370370371</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1321" s="1">
+        <f t="shared" si="27"/>
+        <v>0.40689814814814812</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1322" s="1">
+        <f t="shared" si="27"/>
+        <v>0.40833333333333333</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1323" s="1">
+        <f t="shared" si="27"/>
+        <v>0.40914351851851855</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1324" s="1">
+        <f t="shared" si="27"/>
+        <v>0.5100810185185185</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1325" s="1">
+        <f t="shared" si="27"/>
+        <v>0.51133101851851848</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1326" s="1">
+        <f t="shared" si="27"/>
+        <v>0.5127314814814814</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1327" s="1">
+        <f t="shared" si="27"/>
+        <v>0.51751157407407411</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1328" s="1">
+        <f t="shared" si="27"/>
+        <v>0.51844907407407415</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1329" s="1">
+        <f t="shared" si="27"/>
+        <v>0.52579861111111104</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1330" s="1">
+        <f t="shared" si="27"/>
+        <v>0.52714120370370376</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1331" s="1">
+        <f t="shared" si="27"/>
+        <v>0.53189814814814818</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1332" s="1">
+        <f t="shared" si="27"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1333" s="1">
+        <f t="shared" si="27"/>
+        <v>0.5341435185185186</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1334" s="1">
+        <f t="shared" si="27"/>
+        <v>0.6350810185185185</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1335" s="1">
+        <f t="shared" si="27"/>
+        <v>0.63633101851851848</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1336" s="1">
+        <f t="shared" si="27"/>
+        <v>0.6377314814814814</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1337" s="1">
+        <f t="shared" si="27"/>
+        <v>0.64251157407407411</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1338" s="1">
+        <f t="shared" si="27"/>
+        <v>0.64344907407407415</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1339" s="1">
+        <f t="shared" si="27"/>
+        <v>0.65079861111111104</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1340" s="1">
+        <f t="shared" si="27"/>
+        <v>0.65214120370370376</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1341" s="1">
+        <f t="shared" si="27"/>
+        <v>0.65689814814814818</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1342" s="1">
+        <f t="shared" si="27"/>
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1343" s="1">
+        <f t="shared" si="27"/>
+        <v>0.6591435185185186</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1344" s="1">
+        <f t="shared" si="27"/>
+        <v>0.7600810185185185</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1345" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1345" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76133101851851848</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1346" s="1">
+        <f t="shared" si="27"/>
+        <v>0.7627314814814814</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1347" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76751157407407411</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1348" s="1">
+        <f t="shared" si="27"/>
+        <v>0.76844907407407415</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1349" s="1">
+        <f t="shared" si="27"/>
+        <v>0.77579861111111104</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1350" s="1">
+        <f t="shared" si="27"/>
+        <v>0.77714120370370376</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1351" s="1">
+        <f t="shared" si="27"/>
+        <v>0.78189814814814818</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1352" s="1">
+        <f t="shared" si="27"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1353" s="1">
+        <f t="shared" si="27"/>
+        <v>0.7841435185185186</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1354" s="1">
+        <f t="shared" si="27"/>
+        <v>0.8850810185185185</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1355" s="1">
+        <f t="shared" si="27"/>
+        <v>0.88633101851851848</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1356" s="1">
+        <f t="shared" si="27"/>
+        <v>0.8877314814814814</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1357" s="1">
+        <f t="shared" si="27"/>
+        <v>0.89251157407407411</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1358" s="1">
+        <f t="shared" si="27"/>
+        <v>0.89344907407407415</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1359" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90079861111111104</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1360" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90214120370370376</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1361" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90689814814814818</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1362" s="1">
+        <f t="shared" si="27"/>
+        <v>0.90833333333333333</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1363" s="1">
+        <f t="shared" si="27"/>
+        <v>0.9091435185185186</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1364" t="str">
+        <f>A1244</f>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1364" s="1">
+        <f>B1244+(1/24)</f>
+        <v>0.25496527777777778</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1364" t="str">
+        <f>E1244</f>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1365" t="str">
+        <f t="shared" ref="A1365:A1428" si="28">A1245</f>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1365" s="1">
+        <f t="shared" ref="B1365:B1428" si="29">B1245+(1/24)</f>
+        <v>0.25630787037037034</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1365" t="str">
+        <f t="shared" ref="E1365:E1428" si="30">E1245</f>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1366" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1366" s="1">
+        <f t="shared" si="29"/>
+        <v>0.26175925925925925</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1366" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1367" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1367" s="1">
+        <f t="shared" si="29"/>
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1367" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1368" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1368" s="1">
+        <f t="shared" si="29"/>
+        <v>0.26331018518518517</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1368" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1369" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1369" s="1">
+        <f t="shared" si="29"/>
+        <v>0.36424768518518519</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1369" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1370" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1370" s="1">
+        <f t="shared" si="29"/>
+        <v>0.36549768518518522</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1370" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1371" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1371" s="1">
+        <f t="shared" si="29"/>
+        <v>0.36689814814814814</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1371" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1372" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1372" s="1">
+        <f t="shared" si="29"/>
+        <v>0.37167824074074074</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1372" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1373" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1373" s="1">
+        <f t="shared" si="29"/>
+        <v>0.37261574074074078</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1373" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1374" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1374" s="1">
+        <f t="shared" si="29"/>
+        <v>0.37996527777777783</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1374" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1375" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1375" s="1">
+        <f t="shared" si="29"/>
+        <v>0.38130787037037034</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1375" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1376" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1376" s="1">
+        <f t="shared" si="29"/>
+        <v>0.3867592592592593</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1376" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1377" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1377" s="1">
+        <f t="shared" si="29"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1377" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1378" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1378" s="1">
+        <f t="shared" si="29"/>
+        <v>0.38831018518518517</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1378" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1379" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1379" s="1">
+        <f t="shared" si="29"/>
+        <v>0.48924768518518519</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1379" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1380" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1380" s="1">
+        <f t="shared" si="29"/>
+        <v>0.49049768518518522</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1380" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1381" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1381" s="1">
+        <f t="shared" si="29"/>
+        <v>0.49189814814814814</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1381" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1382" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1382" s="1">
+        <f t="shared" si="29"/>
+        <v>0.49667824074074074</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1382" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1383" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1383" s="1">
+        <f t="shared" si="29"/>
+        <v>0.49761574074074078</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1383" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1384" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1384" s="1">
+        <f t="shared" si="29"/>
+        <v>0.50496527777777778</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1384" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1385" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1385" s="1">
+        <f t="shared" si="29"/>
+        <v>0.50630787037037028</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1385" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1386" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1386" s="1">
+        <f t="shared" si="29"/>
+        <v>0.51175925925925925</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1386" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1387" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1387" s="1">
+        <f t="shared" si="29"/>
+        <v>0.51249999999999996</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1387" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1388" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1388" s="1">
+        <f t="shared" si="29"/>
+        <v>0.51331018518518512</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1388" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1389" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1389" s="1">
+        <f t="shared" si="29"/>
+        <v>0.61424768518518513</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1389" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1390" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1390" s="1">
+        <f t="shared" si="29"/>
+        <v>0.61549768518518511</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1390" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1391" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1391" s="1">
+        <f t="shared" si="29"/>
+        <v>0.61689814814814803</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1391" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1392" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1392" s="1">
+        <f t="shared" si="29"/>
+        <v>0.62167824074074074</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1392" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1393" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1393" s="1">
+        <f t="shared" si="29"/>
+        <v>0.62261574074074078</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1393" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1394" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1394" s="1">
+        <f t="shared" si="29"/>
+        <v>0.62996527777777778</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1394" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1395" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1395" s="1">
+        <f t="shared" si="29"/>
+        <v>0.63130787037037028</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1395" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1396" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1396" s="1">
+        <f t="shared" si="29"/>
+        <v>0.63675925925925925</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1396" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1397" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1397" s="1">
+        <f t="shared" si="29"/>
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1397" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1398" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1398" s="1">
+        <f t="shared" si="29"/>
+        <v>0.63831018518518512</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1398" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1399" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1399" s="1">
+        <f t="shared" si="29"/>
+        <v>0.73924768518518513</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1399" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1400" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1400" s="1">
+        <f t="shared" si="29"/>
+        <v>0.74049768518518511</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1400" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1401" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1401" s="1">
+        <f t="shared" si="29"/>
+        <v>0.74189814814814803</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1401" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1402" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1402" s="1">
+        <f t="shared" si="29"/>
+        <v>0.74667824074074074</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1402" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1403" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1403" s="1">
+        <f t="shared" si="29"/>
+        <v>0.74761574074074078</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1403" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1404" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1404" s="1">
+        <f t="shared" si="29"/>
+        <v>0.75496527777777778</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1404" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1405" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1405" s="1">
+        <f t="shared" si="29"/>
+        <v>0.75630787037037028</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1405" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1406" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1406" s="1">
+        <f t="shared" si="29"/>
+        <v>0.76175925925925925</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1406" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1407" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1407" s="1">
+        <f t="shared" si="29"/>
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1407" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1408" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1408" s="1">
+        <f t="shared" si="29"/>
+        <v>0.76331018518518512</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1408" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1409" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1409" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86424768518518513</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1409" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1410" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1410" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86549768518518511</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1410" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1411" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1411" s="1">
+        <f t="shared" si="29"/>
+        <v>0.86689814814814803</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1411" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1412" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1412" s="1">
+        <f t="shared" si="29"/>
+        <v>0.87167824074074074</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1412" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1413" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1413" s="1">
+        <f t="shared" si="29"/>
+        <v>0.87261574074074078</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1413" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1414" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1414" s="1">
+        <f t="shared" si="29"/>
+        <v>0.87996527777777778</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1414" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1415" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1415" s="1">
+        <f t="shared" si="29"/>
+        <v>0.88130787037037028</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1415" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1416" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1416" s="1">
+        <f t="shared" si="29"/>
+        <v>0.88675925925925925</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1416" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1417" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1417" s="1">
+        <f t="shared" si="29"/>
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1417" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1418" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1418" s="1">
+        <f t="shared" si="29"/>
+        <v>0.88831018518518512</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1418" t="str">
+        <f t="shared" si="30"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1419" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1419" s="1">
+        <f t="shared" si="29"/>
+        <v>0.98924768518518513</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1419" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1420" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1420" s="1">
+        <f t="shared" si="29"/>
+        <v>0.99049768518518511</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1420" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1421" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1421" s="1">
+        <f t="shared" si="29"/>
+        <v>0.99189814814814803</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1421" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1422" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1422" s="1">
+        <f t="shared" si="29"/>
+        <v>0.99667824074074074</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1422" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1423" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1423" s="1">
+        <f t="shared" si="29"/>
+        <v>0.99761574074074078</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1423" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1424" t="str">
+        <f t="shared" si="28"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1424" s="1">
+        <f t="shared" si="29"/>
+        <v>0.30174768518518519</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1424" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1425" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1425" s="1">
+        <f t="shared" si="29"/>
+        <v>0.30299768518518522</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1425" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1426" t="str">
+        <f t="shared" si="28"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1426" s="1">
+        <f t="shared" si="29"/>
+        <v>0.30439814814814814</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1426" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1427" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1427" s="1">
+        <f t="shared" si="29"/>
+        <v>0.30917824074074074</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1427" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1428" t="str">
+        <f t="shared" si="28"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1428" s="1">
+        <f t="shared" si="29"/>
+        <v>0.31011574074074078</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1428" t="str">
+        <f t="shared" si="30"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1429" t="str">
+        <f t="shared" ref="A1429:A1492" si="31">A1309</f>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1429" s="1">
+        <f t="shared" ref="B1429:B1492" si="32">B1309+(1/24)</f>
+        <v>0.31746527777777778</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1429" t="str">
+        <f t="shared" ref="E1429:E1492" si="33">E1309</f>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1430" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1430" s="1">
+        <f t="shared" si="32"/>
+        <v>0.31880787037037039</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1430" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1431" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1431" s="1">
+        <f t="shared" si="32"/>
+        <v>0.32356481481481481</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1431" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1432" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1432" s="1">
+        <f t="shared" si="32"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1432" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1433" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1433" s="1">
+        <f t="shared" si="32"/>
+        <v>0.32581018518518523</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1433" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1434" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1434" s="1">
+        <f t="shared" si="32"/>
+        <v>0.42674768518518519</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1434" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1435" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1435" s="1">
+        <f t="shared" si="32"/>
+        <v>0.42799768518518522</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1435" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1436" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1436" s="1">
+        <f t="shared" si="32"/>
+        <v>0.42939814814814814</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1436" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1437" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1437" s="1">
+        <f t="shared" si="32"/>
+        <v>0.43417824074074074</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1437" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1438" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1438" s="1">
+        <f t="shared" si="32"/>
+        <v>0.43511574074074078</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1438" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1439" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1439" s="1">
+        <f t="shared" si="32"/>
+        <v>0.44246527777777778</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1439" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1440" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1440" s="1">
+        <f t="shared" si="32"/>
+        <v>0.44380787037037039</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1440" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1441" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1441" s="1">
+        <f t="shared" si="32"/>
+        <v>0.44856481481481481</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1441" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1442" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1442" s="1">
+        <f t="shared" si="32"/>
+        <v>0.45</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1442" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1443" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1443" s="1">
+        <f t="shared" si="32"/>
+        <v>0.45081018518518523</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1443" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1444" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1444" s="1">
+        <f t="shared" si="32"/>
+        <v>0.55174768518518513</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1444" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1445" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1445" s="1">
+        <f t="shared" si="32"/>
+        <v>0.55299768518518511</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1445" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1446" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1446" s="1">
+        <f t="shared" si="32"/>
+        <v>0.55439814814814803</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1446" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1447" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1447" s="1">
+        <f t="shared" si="32"/>
+        <v>0.55917824074074074</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1447" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1448" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1448" s="1">
+        <f t="shared" si="32"/>
+        <v>0.56011574074074078</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1448" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1449" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1449" s="1">
+        <f t="shared" si="32"/>
+        <v>0.56746527777777767</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1449" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1450" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1450" s="1">
+        <f t="shared" si="32"/>
+        <v>0.56880787037037039</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1450" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1451" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1451" s="1">
+        <f t="shared" si="32"/>
+        <v>0.57356481481481481</v>
+      </c>
+      <c r="C1451" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1451" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1452" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1452" s="1">
+        <f t="shared" si="32"/>
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="C1452" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1452" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1453" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1453" s="1">
+        <f t="shared" si="32"/>
+        <v>0.57581018518518523</v>
+      </c>
+      <c r="C1453" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1453" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1454" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1454" s="1">
+        <f t="shared" si="32"/>
+        <v>0.67674768518518513</v>
+      </c>
+      <c r="C1454" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1454" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1455" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1455" s="1">
+        <f t="shared" si="32"/>
+        <v>0.67799768518518511</v>
+      </c>
+      <c r="C1455" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1455" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1456" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1456" s="1">
+        <f t="shared" si="32"/>
+        <v>0.67939814814814803</v>
+      </c>
+      <c r="C1456" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1456" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1457" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1457" s="1">
+        <f t="shared" si="32"/>
+        <v>0.68417824074074074</v>
+      </c>
+      <c r="C1457" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1457" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1458" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1458" s="1">
+        <f t="shared" si="32"/>
+        <v>0.68511574074074078</v>
+      </c>
+      <c r="C1458" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1458" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1459" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1459" s="1">
+        <f t="shared" si="32"/>
+        <v>0.69246527777777767</v>
+      </c>
+      <c r="C1459" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1459" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1460" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1460" s="1">
+        <f t="shared" si="32"/>
+        <v>0.69380787037037039</v>
+      </c>
+      <c r="C1460" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1460" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1461" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1461" s="1">
+        <f t="shared" si="32"/>
+        <v>0.69856481481481481</v>
+      </c>
+      <c r="C1461" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1461" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1462" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1462" s="1">
+        <f t="shared" si="32"/>
+        <v>0.7</v>
+      </c>
+      <c r="C1462" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1462" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1463" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1463" s="1">
+        <f t="shared" si="32"/>
+        <v>0.70081018518518523</v>
+      </c>
+      <c r="C1463" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1463" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1464" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1464" s="1">
+        <f t="shared" si="32"/>
+        <v>0.80174768518518513</v>
+      </c>
+      <c r="C1464" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1464" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1465" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1465" s="1">
+        <f t="shared" si="32"/>
+        <v>0.80299768518518511</v>
+      </c>
+      <c r="C1465" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1465" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1466" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1466" s="1">
+        <f t="shared" si="32"/>
+        <v>0.80439814814814803</v>
+      </c>
+      <c r="C1466" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1466" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1467" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1467" s="1">
+        <f t="shared" si="32"/>
+        <v>0.80917824074074074</v>
+      </c>
+      <c r="C1467" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1467" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1468" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1468" s="1">
+        <f t="shared" si="32"/>
+        <v>0.81011574074074078</v>
+      </c>
+      <c r="C1468" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1468" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1469" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1469" s="1">
+        <f t="shared" si="32"/>
+        <v>0.81746527777777767</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1469" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1470" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1470" s="1">
+        <f t="shared" si="32"/>
+        <v>0.81880787037037039</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1470" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1471" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1471" s="1">
+        <f t="shared" si="32"/>
+        <v>0.82356481481481481</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1471" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1472" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1472" s="1">
+        <f t="shared" si="32"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C1472" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1472" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1473" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1473" s="1">
+        <f t="shared" si="32"/>
+        <v>0.82581018518518523</v>
+      </c>
+      <c r="C1473" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1473" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1474" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1474" s="1">
+        <f t="shared" si="32"/>
+        <v>0.92674768518518513</v>
+      </c>
+      <c r="C1474" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1474" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1475" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1475" s="1">
+        <f t="shared" si="32"/>
+        <v>0.92799768518518511</v>
+      </c>
+      <c r="C1475" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1475" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1476" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1476" s="1">
+        <f t="shared" si="32"/>
+        <v>0.92939814814814803</v>
+      </c>
+      <c r="C1476" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1476" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1477" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1477" s="1">
+        <f t="shared" si="32"/>
+        <v>0.93417824074074074</v>
+      </c>
+      <c r="C1477" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1477" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1478" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1478" s="1">
+        <f t="shared" si="32"/>
+        <v>0.93511574074074078</v>
+      </c>
+      <c r="C1478" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1478" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1479" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1479" s="1">
+        <f t="shared" si="32"/>
+        <v>0.94246527777777767</v>
+      </c>
+      <c r="C1479" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1479" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1480" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1480" s="1">
+        <f t="shared" si="32"/>
+        <v>0.94380787037037039</v>
+      </c>
+      <c r="C1480" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1480" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1481" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1481" s="1">
+        <f t="shared" si="32"/>
+        <v>0.94856481481481481</v>
+      </c>
+      <c r="C1481" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1481" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1482" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1482" s="1">
+        <f t="shared" si="32"/>
+        <v>0.95</v>
+      </c>
+      <c r="C1482" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1482" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1483" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1483" s="1">
+        <f t="shared" si="32"/>
+        <v>0.95081018518518523</v>
+      </c>
+      <c r="C1483" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1483" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1484" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1484" s="1">
+        <f t="shared" si="32"/>
+        <v>0.29663194444444446</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1484" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1485" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1485" s="1">
+        <f t="shared" si="32"/>
+        <v>0.29797453703703702</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1485" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1486" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1486" s="1">
+        <f t="shared" si="32"/>
+        <v>0.30342592592592593</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1486" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1487" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1487" s="1">
+        <f t="shared" si="32"/>
+        <v>0.3041666666666667</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1487" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1488" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1488" s="1">
+        <f t="shared" si="32"/>
+        <v>0.30497685185185186</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1488" t="str">
+        <f t="shared" si="33"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1489" t="str">
+        <f t="shared" si="31"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1489" s="1">
+        <f t="shared" si="32"/>
+        <v>0.40591435185185187</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1489" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1490" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1490" s="1">
+        <f t="shared" si="32"/>
+        <v>0.4071643518518519</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1490" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1491" t="str">
+        <f t="shared" si="31"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1491" s="1">
+        <f t="shared" si="32"/>
+        <v>0.40856481481481483</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1491" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1492" t="str">
+        <f t="shared" si="31"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1492" s="1">
+        <f t="shared" si="32"/>
+        <v>0.41334490740740742</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1492" t="str">
+        <f t="shared" si="33"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1493" t="str">
+        <f t="shared" ref="A1493:A1556" si="34">A1373</f>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1493" s="1">
+        <f t="shared" ref="B1493:B1556" si="35">B1373+(1/24)</f>
+        <v>0.41428240740740746</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1493" t="str">
+        <f t="shared" ref="E1493:E1556" si="36">E1373</f>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1494" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1494" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42163194444444452</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1494" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1495" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1495" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42297453703703702</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1495" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1496" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1496" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42842592592592599</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1496" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1497" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1497" s="1">
+        <f t="shared" si="35"/>
+        <v>0.4291666666666667</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1497" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1498" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1498" s="1">
+        <f t="shared" si="35"/>
+        <v>0.42997685185185186</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1498" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1499" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1499" s="1">
+        <f t="shared" si="35"/>
+        <v>0.53091435185185187</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1499" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1500" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1500" s="1">
+        <f t="shared" si="35"/>
+        <v>0.53216435185185185</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1500" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1501" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1501" s="1">
+        <f t="shared" si="35"/>
+        <v>0.53356481481481477</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1501" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1502" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1502" s="1">
+        <f t="shared" si="35"/>
+        <v>0.53834490740740737</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1502" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1503" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1503" s="1">
+        <f t="shared" si="35"/>
+        <v>0.5392824074074074</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1503" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1504" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1504" s="1">
+        <f t="shared" si="35"/>
+        <v>0.54663194444444441</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1504" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1505" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1505" s="1">
+        <f t="shared" si="35"/>
+        <v>0.54797453703703691</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1505" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1506" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1506" s="1">
+        <f t="shared" si="35"/>
+        <v>0.55342592592592588</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1506" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1507" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1507" s="1">
+        <f t="shared" si="35"/>
+        <v>0.55416666666666659</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1507" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1508" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1508" s="1">
+        <f t="shared" si="35"/>
+        <v>0.55497685185185175</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1508" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1509" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1509" s="1">
+        <f t="shared" si="35"/>
+        <v>0.65591435185185176</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1509" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1510" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1510" s="1">
+        <f t="shared" si="35"/>
+        <v>0.65716435185185174</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1510" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1511" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1511" s="1">
+        <f t="shared" si="35"/>
+        <v>0.65856481481481466</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1511" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1512" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1512" s="1">
+        <f t="shared" si="35"/>
+        <v>0.66334490740740737</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1512" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1513" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1513" s="1">
+        <f t="shared" si="35"/>
+        <v>0.6642824074074074</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1513" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1514" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1514" s="1">
+        <f t="shared" si="35"/>
+        <v>0.67163194444444441</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1514" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1515" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1515" s="1">
+        <f t="shared" si="35"/>
+        <v>0.67297453703703691</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1515" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1516" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1516" s="1">
+        <f t="shared" si="35"/>
+        <v>0.67842592592592588</v>
+      </c>
+      <c r="C1516" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1516" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1517" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1517" s="1">
+        <f t="shared" si="35"/>
+        <v>0.67916666666666659</v>
+      </c>
+      <c r="C1517" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1517" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1518" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1518" s="1">
+        <f t="shared" si="35"/>
+        <v>0.67997685185185175</v>
+      </c>
+      <c r="C1518" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1518" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1519" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1519" s="1">
+        <f t="shared" si="35"/>
+        <v>0.78091435185185176</v>
+      </c>
+      <c r="C1519" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1519" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1520" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1520" s="1">
+        <f t="shared" si="35"/>
+        <v>0.78216435185185174</v>
+      </c>
+      <c r="C1520" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1520" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1521" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1521" s="1">
+        <f t="shared" si="35"/>
+        <v>0.78356481481481466</v>
+      </c>
+      <c r="C1521" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1521" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1522" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1522" s="1">
+        <f t="shared" si="35"/>
+        <v>0.78834490740740737</v>
+      </c>
+      <c r="C1522" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1522" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1523" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1523" s="1">
+        <f t="shared" si="35"/>
+        <v>0.7892824074074074</v>
+      </c>
+      <c r="C1523" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1523" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1524" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1524" s="1">
+        <f t="shared" si="35"/>
+        <v>0.79663194444444441</v>
+      </c>
+      <c r="C1524" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1524" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1525" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1525" s="1">
+        <f t="shared" si="35"/>
+        <v>0.79797453703703691</v>
+      </c>
+      <c r="C1525" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1525" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1526" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1526" s="1">
+        <f t="shared" si="35"/>
+        <v>0.80342592592592588</v>
+      </c>
+      <c r="C1526" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1526" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1527" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1527" s="1">
+        <f t="shared" si="35"/>
+        <v>0.80416666666666659</v>
+      </c>
+      <c r="C1527" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1527" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1528" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1528" s="1">
+        <f t="shared" si="35"/>
+        <v>0.80497685185185175</v>
+      </c>
+      <c r="C1528" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1528" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1529" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1529" s="1">
+        <f t="shared" si="35"/>
+        <v>0.90591435185185176</v>
+      </c>
+      <c r="C1529" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1529" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1530" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1530" s="1">
+        <f t="shared" si="35"/>
+        <v>0.90716435185185174</v>
+      </c>
+      <c r="C1530" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1530" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1531" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1531" s="1">
+        <f t="shared" si="35"/>
+        <v>0.90856481481481466</v>
+      </c>
+      <c r="C1531" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1531" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1532" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1532" s="1">
+        <f t="shared" si="35"/>
+        <v>0.91334490740740737</v>
+      </c>
+      <c r="C1532" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1532" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1533" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1533" s="1">
+        <f t="shared" si="35"/>
+        <v>0.9142824074074074</v>
+      </c>
+      <c r="C1533" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1533" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1534" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1534" s="1">
+        <f t="shared" si="35"/>
+        <v>0.92163194444444441</v>
+      </c>
+      <c r="C1534" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1534" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1535" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1535" s="1">
+        <f t="shared" si="35"/>
+        <v>0.92297453703703691</v>
+      </c>
+      <c r="C1535" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1535" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1536" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1536" s="1">
+        <f t="shared" si="35"/>
+        <v>0.92842592592592588</v>
+      </c>
+      <c r="C1536" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1536" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1537" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1537" s="1">
+        <f t="shared" si="35"/>
+        <v>0.92916666666666659</v>
+      </c>
+      <c r="C1537" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1537" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1538" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1538" s="1">
+        <f t="shared" si="35"/>
+        <v>0.92997685185185175</v>
+      </c>
+      <c r="C1538" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1538" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1539" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1539" s="1">
+        <f t="shared" si="35"/>
+        <v>1.0309143518518518</v>
+      </c>
+      <c r="C1539" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1539" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1540" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1540" s="1">
+        <f t="shared" si="35"/>
+        <v>1.0321643518518517</v>
+      </c>
+      <c r="C1540" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1540" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1541" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1541" s="1">
+        <f t="shared" si="35"/>
+        <v>1.0335648148148147</v>
+      </c>
+      <c r="C1541" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1541" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1542" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1542" s="1">
+        <f t="shared" si="35"/>
+        <v>1.0383449074074074</v>
+      </c>
+      <c r="C1542" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1542" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1543" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1543" s="1">
+        <f t="shared" si="35"/>
+        <v>1.0392824074074074</v>
+      </c>
+      <c r="C1543" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1543" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1544" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1544" s="1">
+        <f t="shared" si="35"/>
+        <v>0.34341435185185187</v>
+      </c>
+      <c r="C1544" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1544" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1545" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1545" s="1">
+        <f t="shared" si="35"/>
+        <v>0.3446643518518519</v>
+      </c>
+      <c r="C1545" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1545" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1546" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1546" s="1">
+        <f t="shared" si="35"/>
+        <v>0.34606481481481483</v>
+      </c>
+      <c r="C1546" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1546" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1547" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1547" s="1">
+        <f t="shared" si="35"/>
+        <v>0.35084490740740742</v>
+      </c>
+      <c r="C1547" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1547" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1548" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1548" s="1">
+        <f t="shared" si="35"/>
+        <v>0.35178240740740746</v>
+      </c>
+      <c r="C1548" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1548" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1549" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1549" s="1">
+        <f t="shared" si="35"/>
+        <v>0.35913194444444446</v>
+      </c>
+      <c r="C1549" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1549" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1550" t="str">
+        <f t="shared" si="34"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1550" s="1">
+        <f t="shared" si="35"/>
+        <v>0.36047453703703708</v>
+      </c>
+      <c r="C1550" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1550" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1551" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1551" s="1">
+        <f t="shared" si="35"/>
+        <v>0.36523148148148149</v>
+      </c>
+      <c r="C1551" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1551" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1552" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1552" s="1">
+        <f t="shared" si="35"/>
+        <v>0.3666666666666667</v>
+      </c>
+      <c r="C1552" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1552" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1553" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1553" s="1">
+        <f t="shared" si="35"/>
+        <v>0.36747685185185192</v>
+      </c>
+      <c r="C1553" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1553" t="str">
+        <f t="shared" si="36"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1554" t="str">
+        <f t="shared" si="34"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1554" s="1">
+        <f t="shared" si="35"/>
+        <v>0.46841435185185187</v>
+      </c>
+      <c r="C1554" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1554" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1555" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1555" s="1">
+        <f t="shared" si="35"/>
+        <v>0.4696643518518519</v>
+      </c>
+      <c r="C1555" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1555" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1556" t="str">
+        <f t="shared" si="34"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1556" s="1">
+        <f t="shared" si="35"/>
+        <v>0.47106481481481483</v>
+      </c>
+      <c r="C1556" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1556" t="str">
+        <f t="shared" si="36"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1557" t="str">
+        <f t="shared" ref="A1557:A1603" si="37">A1437</f>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1557" s="1">
+        <f t="shared" ref="B1557:B1603" si="38">B1437+(1/24)</f>
+        <v>0.47584490740740742</v>
+      </c>
+      <c r="C1557" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1557" t="str">
+        <f t="shared" ref="E1557:E1603" si="39">E1437</f>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1558" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1558" s="1">
+        <f t="shared" si="38"/>
+        <v>0.47678240740740746</v>
+      </c>
+      <c r="C1558" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1558" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1559" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1559" s="1">
+        <f t="shared" si="38"/>
+        <v>0.48413194444444446</v>
+      </c>
+      <c r="C1559" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1559" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1560" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1560" s="1">
+        <f t="shared" si="38"/>
+        <v>0.48547453703703708</v>
+      </c>
+      <c r="C1560" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1560" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1561" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1561" s="1">
+        <f t="shared" si="38"/>
+        <v>0.49023148148148149</v>
+      </c>
+      <c r="C1561" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1561" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1562" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1562" s="1">
+        <f t="shared" si="38"/>
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="C1562" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1562" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1563" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1563" s="1">
+        <f t="shared" si="38"/>
+        <v>0.49247685185185192</v>
+      </c>
+      <c r="C1563" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1563" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1564" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1564" s="1">
+        <f t="shared" si="38"/>
+        <v>0.59341435185185176</v>
+      </c>
+      <c r="C1564" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1564" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1565" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1565" s="1">
+        <f t="shared" si="38"/>
+        <v>0.59466435185185174</v>
+      </c>
+      <c r="C1565" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1565" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1566" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1566" s="1">
+        <f t="shared" si="38"/>
+        <v>0.59606481481481466</v>
+      </c>
+      <c r="C1566" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1566" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1567" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1567" s="1">
+        <f t="shared" si="38"/>
+        <v>0.60084490740740737</v>
+      </c>
+      <c r="C1567" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1567" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1568" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1568" s="1">
+        <f t="shared" si="38"/>
+        <v>0.6017824074074074</v>
+      </c>
+      <c r="C1568" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1568" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1569" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1569" s="1">
+        <f t="shared" si="38"/>
+        <v>0.6091319444444443</v>
+      </c>
+      <c r="C1569" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1569" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1570" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1570" s="1">
+        <f t="shared" si="38"/>
+        <v>0.61047453703703702</v>
+      </c>
+      <c r="C1570" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1570" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1571" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1571" s="1">
+        <f t="shared" si="38"/>
+        <v>0.61523148148148143</v>
+      </c>
+      <c r="C1571" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1571" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1572" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1572" s="1">
+        <f t="shared" si="38"/>
+        <v>0.61666666666666659</v>
+      </c>
+      <c r="C1572" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1572" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1573" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1573" s="1">
+        <f t="shared" si="38"/>
+        <v>0.61747685185185186</v>
+      </c>
+      <c r="C1573" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1573" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1574" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1574" s="1">
+        <f t="shared" si="38"/>
+        <v>0.71841435185185176</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1574" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1575" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1575" s="1">
+        <f t="shared" si="38"/>
+        <v>0.71966435185185174</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1575" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1576" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1576" s="1">
+        <f t="shared" si="38"/>
+        <v>0.72106481481481466</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1576" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1577" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1577" s="1">
+        <f t="shared" si="38"/>
+        <v>0.72584490740740737</v>
+      </c>
+      <c r="C1577" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1577" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1578" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1578" s="1">
+        <f t="shared" si="38"/>
+        <v>0.7267824074074074</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1578" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1579" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1579" s="1">
+        <f t="shared" si="38"/>
+        <v>0.7341319444444443</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1579" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1580" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1580" s="1">
+        <f t="shared" si="38"/>
+        <v>0.73547453703703702</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1580" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1581" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1581" s="1">
+        <f t="shared" si="38"/>
+        <v>0.74023148148148143</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1581" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1582" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1582" s="1">
+        <f t="shared" si="38"/>
+        <v>0.74166666666666659</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1582" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1583" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1583" s="1">
+        <f t="shared" si="38"/>
+        <v>0.74247685185185186</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1583" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1584" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1584" s="1">
+        <f t="shared" si="38"/>
+        <v>0.84341435185185176</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1584" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1585" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1585" s="1">
+        <f t="shared" si="38"/>
+        <v>0.84466435185185174</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1585" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1586" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1586" s="1">
+        <f t="shared" si="38"/>
+        <v>0.84606481481481466</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1586" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1587" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1587" s="1">
+        <f t="shared" si="38"/>
+        <v>0.85084490740740737</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1587" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1588" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1588" s="1">
+        <f t="shared" si="38"/>
+        <v>0.8517824074074074</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1588" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1589" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1589" s="1">
+        <f t="shared" si="38"/>
+        <v>0.8591319444444443</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1589" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1590" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1590" s="1">
+        <f t="shared" si="38"/>
+        <v>0.86047453703703702</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1590" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1591" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1591" s="1">
+        <f t="shared" si="38"/>
+        <v>0.86523148148148143</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1591" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1592" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1592" s="1">
+        <f t="shared" si="38"/>
+        <v>0.86666666666666659</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1592" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1593" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1593" s="1">
+        <f t="shared" si="38"/>
+        <v>0.86747685185185186</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1593" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1594" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1594" s="1">
+        <f t="shared" si="38"/>
+        <v>0.96841435185185176</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1594" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1595" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1595" s="1">
+        <f t="shared" si="38"/>
+        <v>0.96966435185185174</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1595" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1596" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1596" s="1">
+        <f t="shared" si="38"/>
+        <v>0.97106481481481466</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1596" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1597" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1597" s="1">
+        <f t="shared" si="38"/>
+        <v>0.97584490740740737</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1597" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1598" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1598" s="1">
+        <f t="shared" si="38"/>
+        <v>0.9767824074074074</v>
+      </c>
+      <c r="C1598" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1598" t="str">
+        <f t="shared" si="39"/>
+        <v>Badalona Central</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1599" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Central</v>
+      </c>
+      <c r="B1599" s="1">
+        <f t="shared" si="38"/>
+        <v>0.9841319444444443</v>
+      </c>
+      <c r="C1599" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1599" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1600" t="str">
+        <f t="shared" si="37"/>
+        <v>Badalona Port</v>
+      </c>
+      <c r="B1600" s="1">
+        <f t="shared" si="38"/>
+        <v>0.98547453703703702</v>
+      </c>
+      <c r="C1600" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1600" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1600" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1601" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona La Sagrera</v>
+      </c>
+      <c r="B1601" s="1">
+        <f t="shared" si="38"/>
+        <v>0.99023148148148143</v>
+      </c>
+      <c r="C1601" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1601" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1601" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1602" t="str">
+        <f t="shared" si="37"/>
+        <v>Barcelona El Clot</v>
+      </c>
+      <c r="B1602" s="1">
+        <f t="shared" si="38"/>
+        <v>0.99166666666666659</v>
+      </c>
+      <c r="C1602" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1602" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1602" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1603" t="str">
+        <f t="shared" si="37"/>
+        <v>CCS-2</v>
+      </c>
+      <c r="B1603" s="1">
+        <f t="shared" si="38"/>
+        <v>0.99247685185185186</v>
+      </c>
+      <c r="C1603" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1603" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1603" t="str">
+        <f t="shared" si="39"/>
+        <v>Sant Vicenç de Calders</v>
       </c>
     </row>
   </sheetData>

--- a/dades/1S1.xlsx
+++ b/dades/1S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5A43C2-4D2F-4FFF-879E-0287A4A70E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C8098D-B7E8-4E1B-B14B-61AC45803AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9133" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9453" uniqueCount="282">
   <si>
     <t>departure</t>
   </si>
@@ -829,6 +829,60 @@
   <si>
     <t>R1B.016</t>
   </si>
+  <si>
+    <t>R9B.001</t>
+  </si>
+  <si>
+    <t>R9B</t>
+  </si>
+  <si>
+    <t>R9B.002</t>
+  </si>
+  <si>
+    <t>Vilafranca del Penedès</t>
+  </si>
+  <si>
+    <t>R9B.003</t>
+  </si>
+  <si>
+    <t>R9B.004</t>
+  </si>
+  <si>
+    <t>R9B.005</t>
+  </si>
+  <si>
+    <t>R9B.006</t>
+  </si>
+  <si>
+    <t>R9B.007</t>
+  </si>
+  <si>
+    <t>R9B.008</t>
+  </si>
+  <si>
+    <t>R9B.009</t>
+  </si>
+  <si>
+    <t>R9B.010</t>
+  </si>
+  <si>
+    <t>R9B.011</t>
+  </si>
+  <si>
+    <t>R9B.012</t>
+  </si>
+  <si>
+    <t>R9B.013</t>
+  </si>
+  <si>
+    <t>R9B.014</t>
+  </si>
+  <si>
+    <t>R9B.015</t>
+  </si>
+  <si>
+    <t>R9B.016</t>
+  </si>
 </sst>
 </file>
 
@@ -1169,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2459"/>
+  <dimension ref="A1:E2539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2235" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2278" sqref="B2278"/>
+    <sheetView tabSelected="1" topLeftCell="A2238" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2268" sqref="B2268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42220,7 +42274,7 @@
         <v>18</v>
       </c>
       <c r="B2264" s="1">
-        <v>0.2986921296296296</v>
+        <v>0.29870370370370369</v>
       </c>
       <c r="C2264" s="2" t="s">
         <v>246</v>
@@ -42237,7 +42291,7 @@
         <v>18</v>
       </c>
       <c r="B2265" s="1">
-        <v>0.31541666666666668</v>
+        <v>0.31681712962962966</v>
       </c>
       <c r="C2265" s="2" t="s">
         <v>247</v>
@@ -42254,7 +42308,7 @@
         <v>8</v>
       </c>
       <c r="B2266" s="1">
-        <v>0.31653935185185184</v>
+        <v>0.31798611111111114</v>
       </c>
       <c r="C2266" s="2" t="s">
         <v>247</v>
@@ -42271,7 +42325,7 @@
         <v>9</v>
       </c>
       <c r="B2267" s="1">
-        <v>0.31793981481481481</v>
+        <v>0.31938657407407406</v>
       </c>
       <c r="C2267" s="2" t="s">
         <v>247</v>
@@ -42288,7 +42342,7 @@
         <v>10</v>
       </c>
       <c r="B2268" s="1">
-        <v>0.32271990740740741</v>
+        <v>0.32416666666666666</v>
       </c>
       <c r="C2268" s="2" t="s">
         <v>247</v>
@@ -42305,7 +42359,7 @@
         <v>48</v>
       </c>
       <c r="B2269" s="1">
-        <v>0.32406249999999998</v>
+        <v>0.32550925925925928</v>
       </c>
       <c r="C2269" s="2" t="s">
         <v>247</v>
@@ -42322,7 +42376,7 @@
         <v>4</v>
       </c>
       <c r="B2270" s="1">
-        <v>0.32572916666666668</v>
+        <v>0.32719907407407406</v>
       </c>
       <c r="C2270" s="2" t="s">
         <v>247</v>
@@ -42339,7 +42393,7 @@
         <v>11</v>
       </c>
       <c r="B2271" s="1">
-        <v>0.32761574074074074</v>
+        <v>0.32906249999999998</v>
       </c>
       <c r="C2271" s="2" t="s">
         <v>247</v>
@@ -42356,7 +42410,7 @@
         <v>12</v>
       </c>
       <c r="B2272" s="1">
-        <v>0.33143518518518517</v>
+        <v>0.33288194444444447</v>
       </c>
       <c r="C2272" s="2" t="s">
         <v>247</v>
@@ -42373,7 +42427,7 @@
         <v>5</v>
       </c>
       <c r="B2273" s="1">
-        <v>0.33413194444444444</v>
+        <v>0.33557870370370368</v>
       </c>
       <c r="C2273" s="2" t="s">
         <v>247</v>
@@ -42390,7 +42444,7 @@
         <v>13</v>
       </c>
       <c r="B2274" s="1">
-        <v>0.33960648148148148</v>
+        <v>0.34105324074074073</v>
       </c>
       <c r="C2274" s="2" t="s">
         <v>247</v>
@@ -42407,7 +42461,7 @@
         <v>14</v>
       </c>
       <c r="B2275" s="1">
-        <v>0.34168981481481481</v>
+        <v>0.34313657407407411</v>
       </c>
       <c r="C2275" s="2" t="s">
         <v>247</v>
@@ -42424,7 +42478,7 @@
         <v>15</v>
       </c>
       <c r="B2276" s="1">
-        <v>0.34560185185185183</v>
+        <v>0.34531249999999997</v>
       </c>
       <c r="C2276" s="2" t="s">
         <v>247</v>
@@ -42441,7 +42495,7 @@
         <v>22</v>
       </c>
       <c r="B2277" s="1">
-        <v>0.34751157407407413</v>
+        <v>0.34722222222222227</v>
       </c>
       <c r="C2277" s="2" t="s">
         <v>247</v>
@@ -42675,7 +42729,7 @@
       </c>
       <c r="B2290" s="1">
         <f t="shared" si="52"/>
-        <v>0.38202546296296291</v>
+        <v>0.38203703703703701</v>
       </c>
       <c r="C2290" t="s">
         <v>250</v>
@@ -42693,7 +42747,7 @@
       </c>
       <c r="B2291" s="1">
         <f t="shared" si="52"/>
-        <v>0.39874999999999999</v>
+        <v>0.40015046296296297</v>
       </c>
       <c r="C2291" t="s">
         <v>251</v>
@@ -42711,7 +42765,7 @@
       </c>
       <c r="B2292" s="1">
         <f t="shared" si="52"/>
-        <v>0.39987268518518515</v>
+        <v>0.40131944444444445</v>
       </c>
       <c r="C2292" t="s">
         <v>251</v>
@@ -42729,7 +42783,7 @@
       </c>
       <c r="B2293" s="1">
         <f t="shared" si="52"/>
-        <v>0.40127314814814813</v>
+        <v>0.40271990740740737</v>
       </c>
       <c r="C2293" t="s">
         <v>251</v>
@@ -42747,7 +42801,7 @@
       </c>
       <c r="B2294" s="1">
         <f t="shared" si="52"/>
-        <v>0.40605324074074073</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="C2294" t="s">
         <v>251</v>
@@ -42765,7 +42819,7 @@
       </c>
       <c r="B2295" s="1">
         <f t="shared" si="52"/>
-        <v>0.40739583333333329</v>
+        <v>0.40884259259259259</v>
       </c>
       <c r="C2295" t="s">
         <v>251</v>
@@ -42783,7 +42837,7 @@
       </c>
       <c r="B2296" s="1">
         <f t="shared" si="52"/>
-        <v>0.4090625</v>
+        <v>0.41053240740740737</v>
       </c>
       <c r="C2296" t="s">
         <v>251</v>
@@ -42801,7 +42855,7 @@
       </c>
       <c r="B2297" s="1">
         <f t="shared" si="52"/>
-        <v>0.41094907407407405</v>
+        <v>0.41239583333333329</v>
       </c>
       <c r="C2297" t="s">
         <v>251</v>
@@ -42819,7 +42873,7 @@
       </c>
       <c r="B2298" s="1">
         <f t="shared" si="52"/>
-        <v>0.41476851851851848</v>
+        <v>0.41621527777777778</v>
       </c>
       <c r="C2298" t="s">
         <v>251</v>
@@ -42837,7 +42891,7 @@
       </c>
       <c r="B2299" s="1">
         <f t="shared" si="52"/>
-        <v>0.41746527777777775</v>
+        <v>0.418912037037037</v>
       </c>
       <c r="C2299" t="s">
         <v>251</v>
@@ -42855,7 +42909,7 @@
       </c>
       <c r="B2300" s="1">
         <f t="shared" si="52"/>
-        <v>0.4229398148148148</v>
+        <v>0.42438657407407404</v>
       </c>
       <c r="C2300" t="s">
         <v>251</v>
@@ -42873,7 +42927,7 @@
       </c>
       <c r="B2301" s="1">
         <f t="shared" si="52"/>
-        <v>0.42502314814814812</v>
+        <v>0.42646990740740742</v>
       </c>
       <c r="C2301" t="s">
         <v>251</v>
@@ -42891,7 +42945,7 @@
       </c>
       <c r="B2302" s="1">
         <f t="shared" si="52"/>
-        <v>0.42893518518518514</v>
+        <v>0.42864583333333328</v>
       </c>
       <c r="C2302" t="s">
         <v>251</v>
@@ -42909,7 +42963,7 @@
       </c>
       <c r="B2303" s="1">
         <f t="shared" si="52"/>
-        <v>0.43084490740740744</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C2303" t="s">
         <v>251</v>
@@ -43143,7 +43197,7 @@
       </c>
       <c r="B2316" s="1">
         <f t="shared" si="52"/>
-        <v>0.46535879629629623</v>
+        <v>0.46537037037037032</v>
       </c>
       <c r="C2316" t="s">
         <v>252</v>
@@ -43161,7 +43215,7 @@
       </c>
       <c r="B2317" s="1">
         <f t="shared" si="52"/>
-        <v>0.48208333333333331</v>
+        <v>0.48348379629629629</v>
       </c>
       <c r="C2317" t="s">
         <v>253</v>
@@ -43179,7 +43233,7 @@
       </c>
       <c r="B2318" s="1">
         <f t="shared" si="52"/>
-        <v>0.48320601851851847</v>
+        <v>0.48465277777777777</v>
       </c>
       <c r="C2318" t="s">
         <v>253</v>
@@ -43197,7 +43251,7 @@
       </c>
       <c r="B2319" s="1">
         <f t="shared" si="52"/>
-        <v>0.48460648148148144</v>
+        <v>0.48605324074074069</v>
       </c>
       <c r="C2319" t="s">
         <v>253</v>
@@ -43215,7 +43269,7 @@
       </c>
       <c r="B2320" s="1">
         <f t="shared" si="52"/>
-        <v>0.48938657407407404</v>
+        <v>0.49083333333333329</v>
       </c>
       <c r="C2320" t="s">
         <v>253</v>
@@ -43233,7 +43287,7 @@
       </c>
       <c r="B2321" s="1">
         <f t="shared" si="52"/>
-        <v>0.49072916666666661</v>
+        <v>0.49217592592592591</v>
       </c>
       <c r="C2321" t="s">
         <v>253</v>
@@ -43251,7 +43305,7 @@
       </c>
       <c r="B2322" s="1">
         <f t="shared" si="52"/>
-        <v>0.49239583333333331</v>
+        <v>0.49386574074074069</v>
       </c>
       <c r="C2322" t="s">
         <v>253</v>
@@ -43269,7 +43323,7 @@
       </c>
       <c r="B2323" s="1">
         <f t="shared" si="52"/>
-        <v>0.49428240740740736</v>
+        <v>0.49572916666666661</v>
       </c>
       <c r="C2323" t="s">
         <v>253</v>
@@ -43287,7 +43341,7 @@
       </c>
       <c r="B2324" s="1">
         <f t="shared" si="52"/>
-        <v>0.4981018518518518</v>
+        <v>0.4995486111111111</v>
       </c>
       <c r="C2324" t="s">
         <v>253</v>
@@ -43305,7 +43359,7 @@
       </c>
       <c r="B2325" s="1">
         <f t="shared" si="52"/>
-        <v>0.50079861111111112</v>
+        <v>0.50224537037037031</v>
       </c>
       <c r="C2325" t="s">
         <v>253</v>
@@ -43323,7 +43377,7 @@
       </c>
       <c r="B2326" s="1">
         <f t="shared" si="52"/>
-        <v>0.50627314814814817</v>
+        <v>0.50771990740740736</v>
       </c>
       <c r="C2326" t="s">
         <v>253</v>
@@ -43341,7 +43395,7 @@
       </c>
       <c r="B2327" s="1">
         <f t="shared" si="52"/>
-        <v>0.50835648148148149</v>
+        <v>0.50980324074074079</v>
       </c>
       <c r="C2327" t="s">
         <v>253</v>
@@ -43359,7 +43413,7 @@
       </c>
       <c r="B2328" s="1">
         <f t="shared" si="52"/>
-        <v>0.51226851851851851</v>
+        <v>0.51197916666666665</v>
       </c>
       <c r="C2328" t="s">
         <v>253</v>
@@ -43377,7 +43431,7 @@
       </c>
       <c r="B2329" s="1">
         <f t="shared" si="52"/>
-        <v>0.51417824074074081</v>
+        <v>0.51388888888888895</v>
       </c>
       <c r="C2329" t="s">
         <v>253</v>
@@ -43611,7 +43665,7 @@
       </c>
       <c r="B2342" s="1">
         <f t="shared" si="52"/>
-        <v>0.54869212962962954</v>
+        <v>0.54870370370370369</v>
       </c>
       <c r="C2342" t="s">
         <v>254</v>
@@ -43629,7 +43683,7 @@
       </c>
       <c r="B2343" s="1">
         <f t="shared" ref="B2343:B2406" si="53">B2317+(2/24)</f>
-        <v>0.56541666666666668</v>
+        <v>0.5668171296296296</v>
       </c>
       <c r="C2343" t="s">
         <v>255</v>
@@ -43647,7 +43701,7 @@
       </c>
       <c r="B2344" s="1">
         <f t="shared" si="53"/>
-        <v>0.56653935185185178</v>
+        <v>0.56798611111111108</v>
       </c>
       <c r="C2344" t="s">
         <v>255</v>
@@ -43665,7 +43719,7 @@
       </c>
       <c r="B2345" s="1">
         <f t="shared" si="53"/>
-        <v>0.56793981481481481</v>
+        <v>0.569386574074074</v>
       </c>
       <c r="C2345" t="s">
         <v>255</v>
@@ -43683,7 +43737,7 @@
       </c>
       <c r="B2346" s="1">
         <f t="shared" si="53"/>
-        <v>0.57271990740740741</v>
+        <v>0.5741666666666666</v>
       </c>
       <c r="C2346" t="s">
         <v>255</v>
@@ -43701,7 +43755,7 @@
       </c>
       <c r="B2347" s="1">
         <f t="shared" si="53"/>
-        <v>0.57406249999999992</v>
+        <v>0.57550925925925922</v>
       </c>
       <c r="C2347" t="s">
         <v>255</v>
@@ -43719,7 +43773,7 @@
       </c>
       <c r="B2348" s="1">
         <f t="shared" si="53"/>
-        <v>0.57572916666666663</v>
+        <v>0.577199074074074</v>
       </c>
       <c r="C2348" t="s">
         <v>255</v>
@@ -43737,7 +43791,7 @@
       </c>
       <c r="B2349" s="1">
         <f t="shared" si="53"/>
-        <v>0.57761574074074074</v>
+        <v>0.57906249999999992</v>
       </c>
       <c r="C2349" t="s">
         <v>255</v>
@@ -43755,7 +43809,7 @@
       </c>
       <c r="B2350" s="1">
         <f t="shared" si="53"/>
-        <v>0.58143518518518511</v>
+        <v>0.58288194444444441</v>
       </c>
       <c r="C2350" t="s">
         <v>255</v>
@@ -43773,7 +43827,7 @@
       </c>
       <c r="B2351" s="1">
         <f t="shared" si="53"/>
-        <v>0.5841319444444445</v>
+        <v>0.58557870370370368</v>
       </c>
       <c r="C2351" t="s">
         <v>255</v>
@@ -43791,7 +43845,7 @@
       </c>
       <c r="B2352" s="1">
         <f t="shared" si="53"/>
-        <v>0.58960648148148154</v>
+        <v>0.59105324074074073</v>
       </c>
       <c r="C2352" t="s">
         <v>255</v>
@@ -43809,7 +43863,7 @@
       </c>
       <c r="B2353" s="1">
         <f t="shared" si="53"/>
-        <v>0.59168981481481486</v>
+        <v>0.59313657407407416</v>
       </c>
       <c r="C2353" t="s">
         <v>255</v>
@@ -43827,7 +43881,7 @@
       </c>
       <c r="B2354" s="1">
         <f t="shared" si="53"/>
-        <v>0.59560185185185188</v>
+        <v>0.59531250000000002</v>
       </c>
       <c r="C2354" t="s">
         <v>255</v>
@@ -43845,7 +43899,7 @@
       </c>
       <c r="B2355" s="1">
         <f t="shared" si="53"/>
-        <v>0.59751157407407418</v>
+        <v>0.59722222222222232</v>
       </c>
       <c r="C2355" t="s">
         <v>255</v>
@@ -44079,7 +44133,7 @@
       </c>
       <c r="B2368" s="1">
         <f t="shared" si="53"/>
-        <v>0.63202546296296291</v>
+        <v>0.63203703703703706</v>
       </c>
       <c r="C2368" t="s">
         <v>256</v>
@@ -44097,7 +44151,7 @@
       </c>
       <c r="B2369" s="1">
         <f t="shared" si="53"/>
-        <v>0.64875000000000005</v>
+        <v>0.65015046296296297</v>
       </c>
       <c r="C2369" t="s">
         <v>257</v>
@@ -44115,7 +44169,7 @@
       </c>
       <c r="B2370" s="1">
         <f t="shared" si="53"/>
-        <v>0.64987268518518515</v>
+        <v>0.65131944444444445</v>
       </c>
       <c r="C2370" t="s">
         <v>257</v>
@@ -44133,7 +44187,7 @@
       </c>
       <c r="B2371" s="1">
         <f t="shared" si="53"/>
-        <v>0.65127314814814818</v>
+        <v>0.65271990740740737</v>
       </c>
       <c r="C2371" t="s">
         <v>257</v>
@@ -44151,7 +44205,7 @@
       </c>
       <c r="B2372" s="1">
         <f t="shared" si="53"/>
-        <v>0.65605324074074078</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="C2372" t="s">
         <v>257</v>
@@ -44169,7 +44223,7 @@
       </c>
       <c r="B2373" s="1">
         <f t="shared" si="53"/>
-        <v>0.65739583333333329</v>
+        <v>0.65884259259259259</v>
       </c>
       <c r="C2373" t="s">
         <v>257</v>
@@ -44187,7 +44241,7 @@
       </c>
       <c r="B2374" s="1">
         <f t="shared" si="53"/>
-        <v>0.6590625</v>
+        <v>0.66053240740740737</v>
       </c>
       <c r="C2374" t="s">
         <v>257</v>
@@ -44205,7 +44259,7 @@
       </c>
       <c r="B2375" s="1">
         <f t="shared" si="53"/>
-        <v>0.66094907407407411</v>
+        <v>0.66239583333333329</v>
       </c>
       <c r="C2375" t="s">
         <v>257</v>
@@ -44223,7 +44277,7 @@
       </c>
       <c r="B2376" s="1">
         <f t="shared" si="53"/>
-        <v>0.66476851851851848</v>
+        <v>0.66621527777777778</v>
       </c>
       <c r="C2376" t="s">
         <v>257</v>
@@ -44241,7 +44295,7 @@
       </c>
       <c r="B2377" s="1">
         <f t="shared" si="53"/>
-        <v>0.66746527777777787</v>
+        <v>0.66891203703703705</v>
       </c>
       <c r="C2377" t="s">
         <v>257</v>
@@ -44259,7 +44313,7 @@
       </c>
       <c r="B2378" s="1">
         <f t="shared" si="53"/>
-        <v>0.67293981481481491</v>
+        <v>0.6743865740740741</v>
       </c>
       <c r="C2378" t="s">
         <v>257</v>
@@ -44277,7 +44331,7 @@
       </c>
       <c r="B2379" s="1">
         <f t="shared" si="53"/>
-        <v>0.67502314814814823</v>
+        <v>0.67646990740740753</v>
       </c>
       <c r="C2379" t="s">
         <v>257</v>
@@ -44295,7 +44349,7 @@
       </c>
       <c r="B2380" s="1">
         <f t="shared" si="53"/>
-        <v>0.67893518518518525</v>
+        <v>0.67864583333333339</v>
       </c>
       <c r="C2380" t="s">
         <v>257</v>
@@ -44313,7 +44367,7 @@
       </c>
       <c r="B2381" s="1">
         <f t="shared" si="53"/>
-        <v>0.68084490740740755</v>
+        <v>0.68055555555555569</v>
       </c>
       <c r="C2381" t="s">
         <v>257</v>
@@ -44547,7 +44601,7 @@
       </c>
       <c r="B2394" s="1">
         <f t="shared" si="53"/>
-        <v>0.71535879629629628</v>
+        <v>0.71537037037037043</v>
       </c>
       <c r="C2394" t="s">
         <v>258</v>
@@ -44565,7 +44619,7 @@
       </c>
       <c r="B2395" s="1">
         <f t="shared" si="53"/>
-        <v>0.73208333333333342</v>
+        <v>0.73348379629629634</v>
       </c>
       <c r="C2395" t="s">
         <v>259</v>
@@ -44583,7 +44637,7 @@
       </c>
       <c r="B2396" s="1">
         <f t="shared" si="53"/>
-        <v>0.73320601851851852</v>
+        <v>0.73465277777777782</v>
       </c>
       <c r="C2396" t="s">
         <v>259</v>
@@ -44601,7 +44655,7 @@
       </c>
       <c r="B2397" s="1">
         <f t="shared" si="53"/>
-        <v>0.73460648148148155</v>
+        <v>0.73605324074074074</v>
       </c>
       <c r="C2397" t="s">
         <v>259</v>
@@ -44619,7 +44673,7 @@
       </c>
       <c r="B2398" s="1">
         <f t="shared" si="53"/>
-        <v>0.73938657407407415</v>
+        <v>0.74083333333333334</v>
       </c>
       <c r="C2398" t="s">
         <v>259</v>
@@ -44637,7 +44691,7 @@
       </c>
       <c r="B2399" s="1">
         <f t="shared" si="53"/>
-        <v>0.74072916666666666</v>
+        <v>0.74217592592592596</v>
       </c>
       <c r="C2399" t="s">
         <v>259</v>
@@ -44655,7 +44709,7 @@
       </c>
       <c r="B2400" s="1">
         <f t="shared" si="53"/>
-        <v>0.74239583333333337</v>
+        <v>0.74386574074074074</v>
       </c>
       <c r="C2400" t="s">
         <v>259</v>
@@ -44673,7 +44727,7 @@
       </c>
       <c r="B2401" s="1">
         <f t="shared" si="53"/>
-        <v>0.74428240740740748</v>
+        <v>0.74572916666666667</v>
       </c>
       <c r="C2401" t="s">
         <v>259</v>
@@ -44691,7 +44745,7 @@
       </c>
       <c r="B2402" s="1">
         <f t="shared" si="53"/>
-        <v>0.74810185185185185</v>
+        <v>0.74954861111111115</v>
       </c>
       <c r="C2402" t="s">
         <v>259</v>
@@ -44709,7 +44763,7 @@
       </c>
       <c r="B2403" s="1">
         <f t="shared" si="53"/>
-        <v>0.75079861111111124</v>
+        <v>0.75224537037037043</v>
       </c>
       <c r="C2403" t="s">
         <v>259</v>
@@ -44727,7 +44781,7 @@
       </c>
       <c r="B2404" s="1">
         <f t="shared" si="53"/>
-        <v>0.75627314814814828</v>
+        <v>0.75771990740740747</v>
       </c>
       <c r="C2404" t="s">
         <v>259</v>
@@ -44745,7 +44799,7 @@
       </c>
       <c r="B2405" s="1">
         <f t="shared" si="53"/>
-        <v>0.7583564814814816</v>
+        <v>0.7598032407407409</v>
       </c>
       <c r="C2405" t="s">
         <v>259</v>
@@ -44763,7 +44817,7 @@
       </c>
       <c r="B2406" s="1">
         <f t="shared" si="53"/>
-        <v>0.76226851851851862</v>
+        <v>0.76197916666666676</v>
       </c>
       <c r="C2406" t="s">
         <v>259</v>
@@ -44781,7 +44835,7 @@
       </c>
       <c r="B2407" s="1">
         <f t="shared" ref="B2407:B2459" si="54">B2381+(2/24)</f>
-        <v>0.76417824074074092</v>
+        <v>0.76388888888888906</v>
       </c>
       <c r="C2407" t="s">
         <v>259</v>
@@ -45015,7 +45069,7 @@
       </c>
       <c r="B2420" s="1">
         <f t="shared" si="54"/>
-        <v>0.79869212962962965</v>
+        <v>0.7987037037037038</v>
       </c>
       <c r="C2420" t="s">
         <v>260</v>
@@ -45033,7 +45087,7 @@
       </c>
       <c r="B2421" s="1">
         <f t="shared" si="54"/>
-        <v>0.81541666666666679</v>
+        <v>0.81681712962962971</v>
       </c>
       <c r="C2421" t="s">
         <v>261</v>
@@ -45051,7 +45105,7 @@
       </c>
       <c r="B2422" s="1">
         <f t="shared" si="54"/>
-        <v>0.81653935185185189</v>
+        <v>0.81798611111111119</v>
       </c>
       <c r="C2422" t="s">
         <v>261</v>
@@ -45069,7 +45123,7 @@
       </c>
       <c r="B2423" s="1">
         <f t="shared" si="54"/>
-        <v>0.81793981481481493</v>
+        <v>0.81938657407407411</v>
       </c>
       <c r="C2423" t="s">
         <v>261</v>
@@ -45087,7 +45141,7 @@
       </c>
       <c r="B2424" s="1">
         <f t="shared" si="54"/>
-        <v>0.82271990740740752</v>
+        <v>0.82416666666666671</v>
       </c>
       <c r="C2424" t="s">
         <v>261</v>
@@ -45105,7 +45159,7 @@
       </c>
       <c r="B2425" s="1">
         <f t="shared" si="54"/>
-        <v>0.82406250000000003</v>
+        <v>0.82550925925925933</v>
       </c>
       <c r="C2425" t="s">
         <v>261</v>
@@ -45123,7 +45177,7 @@
       </c>
       <c r="B2426" s="1">
         <f t="shared" si="54"/>
-        <v>0.82572916666666674</v>
+        <v>0.82719907407407411</v>
       </c>
       <c r="C2426" t="s">
         <v>261</v>
@@ -45141,7 +45195,7 @@
       </c>
       <c r="B2427" s="1">
         <f t="shared" si="54"/>
-        <v>0.82761574074074085</v>
+        <v>0.82906250000000004</v>
       </c>
       <c r="C2427" t="s">
         <v>261</v>
@@ -45159,7 +45213,7 @@
       </c>
       <c r="B2428" s="1">
         <f t="shared" si="54"/>
-        <v>0.83143518518518522</v>
+        <v>0.83288194444444452</v>
       </c>
       <c r="C2428" t="s">
         <v>261</v>
@@ -45177,7 +45231,7 @@
       </c>
       <c r="B2429" s="1">
         <f t="shared" si="54"/>
-        <v>0.83413194444444461</v>
+        <v>0.8355787037037038</v>
       </c>
       <c r="C2429" t="s">
         <v>261</v>
@@ -45195,7 +45249,7 @@
       </c>
       <c r="B2430" s="1">
         <f t="shared" si="54"/>
-        <v>0.83960648148148165</v>
+        <v>0.84105324074074084</v>
       </c>
       <c r="C2430" t="s">
         <v>261</v>
@@ -45213,7 +45267,7 @@
       </c>
       <c r="B2431" s="1">
         <f t="shared" si="54"/>
-        <v>0.84168981481481497</v>
+        <v>0.84313657407407427</v>
       </c>
       <c r="C2431" t="s">
         <v>261</v>
@@ -45231,7 +45285,7 @@
       </c>
       <c r="B2432" s="1">
         <f t="shared" si="54"/>
-        <v>0.84560185185185199</v>
+        <v>0.84531250000000013</v>
       </c>
       <c r="C2432" t="s">
         <v>261</v>
@@ -45249,7 +45303,7 @@
       </c>
       <c r="B2433" s="1">
         <f t="shared" si="54"/>
-        <v>0.84751157407407429</v>
+        <v>0.84722222222222243</v>
       </c>
       <c r="C2433" t="s">
         <v>261</v>
@@ -45483,7 +45537,7 @@
       </c>
       <c r="B2446" s="1">
         <f t="shared" si="54"/>
-        <v>0.88202546296296302</v>
+        <v>0.88203703703703717</v>
       </c>
       <c r="C2446" t="s">
         <v>262</v>
@@ -45501,7 +45555,7 @@
       </c>
       <c r="B2447" s="1">
         <f t="shared" si="54"/>
-        <v>0.89875000000000016</v>
+        <v>0.90015046296296308</v>
       </c>
       <c r="C2447" t="s">
         <v>263</v>
@@ -45519,7 +45573,7 @@
       </c>
       <c r="B2448" s="1">
         <f t="shared" si="54"/>
-        <v>0.89987268518518526</v>
+        <v>0.90131944444444456</v>
       </c>
       <c r="C2448" t="s">
         <v>263</v>
@@ -45537,7 +45591,7 @@
       </c>
       <c r="B2449" s="1">
         <f t="shared" si="54"/>
-        <v>0.9012731481481483</v>
+        <v>0.90271990740740748</v>
       </c>
       <c r="C2449" t="s">
         <v>263</v>
@@ -45555,7 +45609,7 @@
       </c>
       <c r="B2450" s="1">
         <f t="shared" si="54"/>
-        <v>0.9060532407407409</v>
+        <v>0.90750000000000008</v>
       </c>
       <c r="C2450" t="s">
         <v>263</v>
@@ -45573,7 +45627,7 @@
       </c>
       <c r="B2451" s="1">
         <f t="shared" si="54"/>
-        <v>0.9073958333333334</v>
+        <v>0.9088425925925927</v>
       </c>
       <c r="C2451" t="s">
         <v>263</v>
@@ -45591,7 +45645,7 @@
       </c>
       <c r="B2452" s="1">
         <f t="shared" si="54"/>
-        <v>0.90906250000000011</v>
+        <v>0.91053240740740748</v>
       </c>
       <c r="C2452" t="s">
         <v>263</v>
@@ -45609,7 +45663,7 @@
       </c>
       <c r="B2453" s="1">
         <f t="shared" si="54"/>
-        <v>0.91094907407407422</v>
+        <v>0.91239583333333341</v>
       </c>
       <c r="C2453" t="s">
         <v>263</v>
@@ -45627,7 +45681,7 @@
       </c>
       <c r="B2454" s="1">
         <f t="shared" si="54"/>
-        <v>0.91476851851851859</v>
+        <v>0.91621527777777789</v>
       </c>
       <c r="C2454" t="s">
         <v>263</v>
@@ -45645,7 +45699,7 @@
       </c>
       <c r="B2455" s="1">
         <f t="shared" si="54"/>
-        <v>0.91746527777777798</v>
+        <v>0.91891203703703717</v>
       </c>
       <c r="C2455" t="s">
         <v>263</v>
@@ -45663,7 +45717,7 @@
       </c>
       <c r="B2456" s="1">
         <f t="shared" si="54"/>
-        <v>0.92293981481481502</v>
+        <v>0.92438657407407421</v>
       </c>
       <c r="C2456" t="s">
         <v>263</v>
@@ -45681,7 +45735,7 @@
       </c>
       <c r="B2457" s="1">
         <f t="shared" si="54"/>
-        <v>0.92502314814814834</v>
+        <v>0.92646990740740764</v>
       </c>
       <c r="C2457" t="s">
         <v>263</v>
@@ -45699,7 +45753,7 @@
       </c>
       <c r="B2458" s="1">
         <f t="shared" si="54"/>
-        <v>0.92893518518518536</v>
+        <v>0.9286458333333335</v>
       </c>
       <c r="C2458" t="s">
         <v>263</v>
@@ -45717,7 +45771,7 @@
       </c>
       <c r="B2459" s="1">
         <f t="shared" si="54"/>
-        <v>0.93084490740740766</v>
+        <v>0.9305555555555558</v>
       </c>
       <c r="C2459" t="s">
         <v>263</v>
@@ -45727,6 +45781,1436 @@
       </c>
       <c r="E2459" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2460" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2460" s="1">
+        <v>0.2913310185185185</v>
+      </c>
+      <c r="C2460" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2461" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2461" s="1">
+        <v>0.29258101851851853</v>
+      </c>
+      <c r="C2461" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2462" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2462" s="1">
+        <v>0.29398148148148145</v>
+      </c>
+      <c r="C2462" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2463" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2463" s="1">
+        <v>0.29876157407407405</v>
+      </c>
+      <c r="C2463" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2464" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2464" s="1">
+        <v>0.2996875</v>
+      </c>
+      <c r="C2464" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2464" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2464" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2465" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2465" s="1">
+        <v>0.30042824074074076</v>
+      </c>
+      <c r="C2465" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2465" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2465" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2466" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2466" s="1">
+        <v>0.30175925925925923</v>
+      </c>
+      <c r="C2466" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2466" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2467" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2467" s="1">
+        <v>0.30651620370370369</v>
+      </c>
+      <c r="C2467" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2468" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2468" s="1">
+        <v>0.3079513888888889</v>
+      </c>
+      <c r="C2468" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2469" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2469" s="1">
+        <v>0.30876157407407406</v>
+      </c>
+      <c r="C2469" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2470" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2470" s="1">
+        <f>B2460+(2/24)</f>
+        <v>0.37466435185185182</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2471" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2471" s="1">
+        <f t="shared" ref="B2471:B2534" si="55">B2461+(2/24)</f>
+        <v>0.37591435185185185</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2471" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2472" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2472" s="1">
+        <f t="shared" si="55"/>
+        <v>0.37731481481481477</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2473" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2473" s="1">
+        <f t="shared" si="55"/>
+        <v>0.38209490740740737</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2474" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2474" s="1">
+        <f t="shared" si="55"/>
+        <v>0.38302083333333331</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2475" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2475" s="1">
+        <f t="shared" si="55"/>
+        <v>0.38376157407407407</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2476" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2476" s="1">
+        <f t="shared" si="55"/>
+        <v>0.38509259259259254</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2477" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2477" s="1">
+        <f t="shared" si="55"/>
+        <v>0.38984953703703701</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2478" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2478" s="1">
+        <f t="shared" si="55"/>
+        <v>0.39128472222222221</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2479" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2479" s="1">
+        <f t="shared" si="55"/>
+        <v>0.39209490740740738</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2480" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2480" s="1">
+        <f t="shared" si="55"/>
+        <v>0.45799768518518513</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2480" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2480" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2481" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2481" s="1">
+        <f t="shared" si="55"/>
+        <v>0.45924768518518516</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2482" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2482" s="1">
+        <f t="shared" si="55"/>
+        <v>0.46064814814814808</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2483" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2483" s="1">
+        <f t="shared" si="55"/>
+        <v>0.46542824074074068</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2484" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2484" s="1">
+        <f t="shared" si="55"/>
+        <v>0.46635416666666663</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2485" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2485" s="1">
+        <f t="shared" si="55"/>
+        <v>0.46709490740740739</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2486" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2486" s="1">
+        <f t="shared" si="55"/>
+        <v>0.46842592592592586</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2486" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2487" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2487" s="1">
+        <f t="shared" si="55"/>
+        <v>0.47318287037037032</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2488" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2488" s="1">
+        <f t="shared" si="55"/>
+        <v>0.47461805555555553</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2488" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2488" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2489" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2489" s="1">
+        <f t="shared" si="55"/>
+        <v>0.47542824074074069</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2489" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2489" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2490" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2490" s="1">
+        <f t="shared" si="55"/>
+        <v>0.5413310185185185</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2490" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2490" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2491" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2491" s="1">
+        <f t="shared" si="55"/>
+        <v>0.54258101851851848</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2491" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2491" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2492" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2492" s="1">
+        <f t="shared" si="55"/>
+        <v>0.5439814814814814</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2492" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2492" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2493" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2493" s="1">
+        <f t="shared" si="55"/>
+        <v>0.548761574074074</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2493" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2493" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2494" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2494" s="1">
+        <f t="shared" si="55"/>
+        <v>0.5496875</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2494" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2494" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2495" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2495" s="1">
+        <f t="shared" si="55"/>
+        <v>0.5504282407407407</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2495" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2495" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2496" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2496" s="1">
+        <f t="shared" si="55"/>
+        <v>0.55175925925925917</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2496" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2496" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2497" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2497" s="1">
+        <f t="shared" si="55"/>
+        <v>0.55651620370370369</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2497" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2497" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2498" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2498" s="1">
+        <f t="shared" si="55"/>
+        <v>0.55795138888888884</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2498" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2498" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2499" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2499" s="1">
+        <f t="shared" si="55"/>
+        <v>0.55876157407407401</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2499" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2499" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2500" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2500" s="1">
+        <f t="shared" si="55"/>
+        <v>0.62466435185185187</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2500" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2500" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2501" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2501" s="1">
+        <f t="shared" si="55"/>
+        <v>0.62591435185185185</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2501" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2501" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2502" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2502" s="1">
+        <f t="shared" si="55"/>
+        <v>0.62731481481481477</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2502" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2502" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2503" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2503" s="1">
+        <f t="shared" si="55"/>
+        <v>0.63209490740740737</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2503" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2503" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2504" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2504" s="1">
+        <f t="shared" si="55"/>
+        <v>0.63302083333333337</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2504" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2504" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2505" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2505" s="1">
+        <f t="shared" si="55"/>
+        <v>0.63376157407407407</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2505" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2505" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2506" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2506" s="1">
+        <f t="shared" si="55"/>
+        <v>0.63509259259259254</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2506" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2506" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2507" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2507" s="1">
+        <f t="shared" si="55"/>
+        <v>0.63984953703703706</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2507" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2507" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2508" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2508" s="1">
+        <f t="shared" si="55"/>
+        <v>0.64128472222222221</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2508" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2508" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2509" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2509" s="1">
+        <f t="shared" si="55"/>
+        <v>0.64209490740740738</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2509" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2509" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2510" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2510" s="1">
+        <f t="shared" si="55"/>
+        <v>0.70799768518518524</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2510" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2510" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2511" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2511" s="1">
+        <f t="shared" si="55"/>
+        <v>0.70924768518518522</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2511" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2511" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2512" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2512" s="1">
+        <f t="shared" si="55"/>
+        <v>0.71064814814814814</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2512" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2512" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2513" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2513" s="1">
+        <f t="shared" si="55"/>
+        <v>0.71542824074074074</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2513" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2513" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2514" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2514" s="1">
+        <f t="shared" si="55"/>
+        <v>0.71635416666666674</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2514" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2514" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2515" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2515" s="1">
+        <f t="shared" si="55"/>
+        <v>0.71709490740740744</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2515" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2515" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2516" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2516" s="1">
+        <f t="shared" si="55"/>
+        <v>0.71842592592592591</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2516" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2516" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2517" s="1">
+        <f t="shared" si="55"/>
+        <v>0.72318287037037043</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2517" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2517" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2518" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2518" s="1">
+        <f t="shared" si="55"/>
+        <v>0.72461805555555558</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2518" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2518" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2519" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2519" s="1">
+        <f t="shared" si="55"/>
+        <v>0.72542824074074075</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2519" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2519" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2520" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2520" s="1">
+        <f t="shared" si="55"/>
+        <v>0.79133101851851861</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2520" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2520" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2521" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2521" s="1">
+        <f t="shared" si="55"/>
+        <v>0.79258101851851859</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2521" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2521" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2522" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2522" s="1">
+        <f t="shared" si="55"/>
+        <v>0.79398148148148151</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2522" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2522" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2523" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2523" s="1">
+        <f t="shared" si="55"/>
+        <v>0.79876157407407411</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2523" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2523" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2524" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2524" s="1">
+        <f t="shared" si="55"/>
+        <v>0.79968750000000011</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2524" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2524" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2525" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2525" s="1">
+        <f t="shared" si="55"/>
+        <v>0.80042824074074082</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2525" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2525" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2526" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2526" s="1">
+        <f t="shared" si="55"/>
+        <v>0.80175925925925928</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2526" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2526" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2527" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2527" s="1">
+        <f t="shared" si="55"/>
+        <v>0.8065162037037038</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2527" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2527" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2528" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2528" s="1">
+        <f t="shared" si="55"/>
+        <v>0.80795138888888896</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2528" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2528" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2529" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2529" s="1">
+        <f t="shared" si="55"/>
+        <v>0.80876157407407412</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2529" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2529" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2530" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2530" s="1">
+        <f t="shared" si="55"/>
+        <v>0.87466435185185198</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2530" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2530" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2531" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2531" s="1">
+        <f t="shared" si="55"/>
+        <v>0.87591435185185196</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2531" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2531" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2532" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2532" s="1">
+        <f t="shared" si="55"/>
+        <v>0.87731481481481488</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2532" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2532" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2533" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2533" s="1">
+        <f t="shared" si="55"/>
+        <v>0.88209490740740748</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2533" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2533" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2534" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2534" s="1">
+        <f t="shared" si="55"/>
+        <v>0.88302083333333348</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2534" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2534" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2535" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2535" s="1">
+        <f t="shared" ref="B2535:B2539" si="56">B2525+(2/24)</f>
+        <v>0.88376157407407419</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2535" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2536" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2536" s="1">
+        <f t="shared" si="56"/>
+        <v>0.88509259259259265</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2536" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2537" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2537" s="1">
+        <f t="shared" si="56"/>
+        <v>0.88984953703703717</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2537" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2537" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2538" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2538" s="1">
+        <f t="shared" si="56"/>
+        <v>0.89128472222222233</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2538" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2538" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2539" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2539" s="1">
+        <f t="shared" si="56"/>
+        <v>0.89209490740740749</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2539" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2539" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
